--- a/Choices.xlsx
+++ b/Choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05D2FCA-9976-4BCA-B2B2-912AEDCA1083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9275AC-5810-4DA1-9A0C-45A0EF7FA135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="1321">
   <si>
     <t>name</t>
   </si>
@@ -2030,9 +2030,6 @@
     <t>comuna_distrito</t>
   </si>
   <si>
-    <t>Nenhum</t>
-  </si>
-  <si>
     <t>Lândana</t>
   </si>
   <si>
@@ -3978,6 +3975,18 @@
   </si>
   <si>
     <t>Pública</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Escola inclusiva</t>
+  </si>
+  <si>
+    <t>Escola específica</t>
   </si>
 </sst>
 </file>
@@ -4000,7 +4009,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4017,12 +4026,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4066,12 +4069,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4387,10 +4389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1046"/>
+  <dimension ref="A1:F1047"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A890" workbookViewId="0">
-      <selection activeCell="C897" sqref="C897"/>
+    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
+      <selection activeCell="A1052" sqref="A1052"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4463,7 +4465,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4474,7 +4476,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4485,7 +4487,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4496,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4507,7 +4509,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4518,7 +4520,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4529,7 +4531,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4540,7 +4542,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -4551,7 +4553,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -4562,7 +4564,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -4573,7 +4575,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -4584,7 +4586,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4595,7 +4597,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4606,7 +4608,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4617,7 +4619,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4628,7 +4630,7 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4639,7 +4641,7 @@
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4650,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -4661,7 +4663,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -4672,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4683,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -9257,6 +9259,9 @@
       <c r="B352" t="s">
         <v>8</v>
       </c>
+      <c r="C352" t="s">
+        <v>1317</v>
+      </c>
       <c r="E352">
         <v>1</v>
       </c>
@@ -9269,7 +9274,7 @@
         <v>10</v>
       </c>
       <c r="C353" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E353">
         <v>2</v>
@@ -9283,7 +9288,7 @@
         <v>12</v>
       </c>
       <c r="C354" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E354">
         <v>2</v>
@@ -9296,6 +9301,9 @@
       <c r="B355" t="s">
         <v>17</v>
       </c>
+      <c r="C355" t="s">
+        <v>1317</v>
+      </c>
       <c r="E355">
         <v>3</v>
       </c>
@@ -9322,7 +9330,7 @@
         <v>20</v>
       </c>
       <c r="C357" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E357">
         <v>4</v>
@@ -9335,6 +9343,9 @@
       <c r="B358" t="s">
         <v>21</v>
       </c>
+      <c r="C358" t="s">
+        <v>1317</v>
+      </c>
       <c r="E358">
         <v>5</v>
       </c>
@@ -9346,6 +9357,9 @@
       <c r="B359" t="s">
         <v>22</v>
       </c>
+      <c r="C359" t="s">
+        <v>1317</v>
+      </c>
       <c r="E359">
         <v>6</v>
       </c>
@@ -9372,7 +9386,7 @@
         <v>25</v>
       </c>
       <c r="C361" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E361">
         <v>7</v>
@@ -9400,7 +9414,7 @@
         <v>27</v>
       </c>
       <c r="C363" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E363">
         <v>8</v>
@@ -9413,6 +9427,9 @@
       <c r="B364" t="s">
         <v>28</v>
       </c>
+      <c r="C364" t="s">
+        <v>1317</v>
+      </c>
       <c r="E364">
         <v>9</v>
       </c>
@@ -9424,6 +9441,9 @@
       <c r="B365" t="s">
         <v>29</v>
       </c>
+      <c r="C365" t="s">
+        <v>1317</v>
+      </c>
       <c r="E365">
         <v>10</v>
       </c>
@@ -9450,7 +9470,7 @@
         <v>32</v>
       </c>
       <c r="C367" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E367">
         <v>11</v>
@@ -9478,7 +9498,7 @@
         <v>35</v>
       </c>
       <c r="C369" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E369">
         <v>12</v>
@@ -9492,7 +9512,7 @@
         <v>37</v>
       </c>
       <c r="C370" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E370">
         <v>12</v>
@@ -9506,7 +9526,7 @@
         <v>38</v>
       </c>
       <c r="C371" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E371">
         <v>12</v>
@@ -9534,7 +9554,7 @@
         <v>61</v>
       </c>
       <c r="C373" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E373">
         <v>13</v>
@@ -9562,7 +9582,7 @@
         <v>65</v>
       </c>
       <c r="C375" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E375">
         <v>14</v>
@@ -9576,7 +9596,7 @@
         <v>67</v>
       </c>
       <c r="C376" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E376">
         <v>14</v>
@@ -9604,7 +9624,7 @@
         <v>71</v>
       </c>
       <c r="C378" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E378">
         <v>15</v>
@@ -9618,7 +9638,7 @@
         <v>73</v>
       </c>
       <c r="C379" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E379">
         <v>15</v>
@@ -9631,6 +9651,9 @@
       <c r="B380" t="s">
         <v>75</v>
       </c>
+      <c r="C380" t="s">
+        <v>1317</v>
+      </c>
       <c r="E380">
         <v>16</v>
       </c>
@@ -9642,6 +9665,9 @@
       <c r="B381" t="s">
         <v>77</v>
       </c>
+      <c r="C381" t="s">
+        <v>1317</v>
+      </c>
       <c r="E381">
         <v>17</v>
       </c>
@@ -9668,7 +9694,7 @@
         <v>81</v>
       </c>
       <c r="C383" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E383">
         <v>18</v>
@@ -9681,6 +9707,9 @@
       <c r="B384" t="s">
         <v>83</v>
       </c>
+      <c r="C384" t="s">
+        <v>1317</v>
+      </c>
       <c r="E384">
         <v>19</v>
       </c>
@@ -9692,6 +9721,9 @@
       <c r="B385" t="s">
         <v>85</v>
       </c>
+      <c r="C385" t="s">
+        <v>1317</v>
+      </c>
       <c r="E385">
         <v>20</v>
       </c>
@@ -9704,7 +9736,7 @@
         <v>87</v>
       </c>
       <c r="C386" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E386">
         <v>21</v>
@@ -9732,7 +9764,7 @@
         <v>90</v>
       </c>
       <c r="C388" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E388">
         <v>22</v>
@@ -9746,7 +9778,7 @@
         <v>92</v>
       </c>
       <c r="C389" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E389">
         <v>22</v>
@@ -9759,6 +9791,9 @@
       <c r="B390" t="s">
         <v>94</v>
       </c>
+      <c r="C390" t="s">
+        <v>1317</v>
+      </c>
       <c r="E390">
         <v>23</v>
       </c>
@@ -9770,6 +9805,9 @@
       <c r="B391" t="s">
         <v>96</v>
       </c>
+      <c r="C391" t="s">
+        <v>1317</v>
+      </c>
       <c r="E391">
         <v>24</v>
       </c>
@@ -9796,7 +9834,7 @@
         <v>100</v>
       </c>
       <c r="C393" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E393">
         <v>25</v>
@@ -9810,7 +9848,7 @@
         <v>102</v>
       </c>
       <c r="C394" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E394">
         <v>25</v>
@@ -9823,6 +9861,9 @@
       <c r="B395" t="s">
         <v>104</v>
       </c>
+      <c r="C395" t="s">
+        <v>1317</v>
+      </c>
       <c r="E395">
         <v>26</v>
       </c>
@@ -9849,7 +9890,7 @@
         <v>108</v>
       </c>
       <c r="C397" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E397">
         <v>27</v>
@@ -9877,7 +9918,7 @@
         <v>112</v>
       </c>
       <c r="C399" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E399">
         <v>28</v>
@@ -9891,7 +9932,7 @@
         <v>114</v>
       </c>
       <c r="C400" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E400">
         <v>28</v>
@@ -9905,7 +9946,7 @@
         <v>116</v>
       </c>
       <c r="C401" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E401">
         <v>28</v>
@@ -9933,7 +9974,7 @@
         <v>120</v>
       </c>
       <c r="C403" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E403">
         <v>29</v>
@@ -9947,7 +9988,7 @@
         <v>122</v>
       </c>
       <c r="C404" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E404">
         <v>29</v>
@@ -9961,7 +10002,7 @@
         <v>124</v>
       </c>
       <c r="C405" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E405">
         <v>29</v>
@@ -9989,7 +10030,7 @@
         <v>128</v>
       </c>
       <c r="C407" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E407">
         <v>30</v>
@@ -10017,7 +10058,7 @@
         <v>132</v>
       </c>
       <c r="C409" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E409">
         <v>31</v>
@@ -10045,7 +10086,7 @@
         <v>136</v>
       </c>
       <c r="C411" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E411">
         <v>32</v>
@@ -10073,7 +10114,7 @@
         <v>140</v>
       </c>
       <c r="C413" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E413">
         <v>33</v>
@@ -10115,7 +10156,7 @@
         <v>146</v>
       </c>
       <c r="C416" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E416">
         <v>34</v>
@@ -10143,7 +10184,7 @@
         <v>150</v>
       </c>
       <c r="C418" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E418">
         <v>35</v>
@@ -10157,7 +10198,7 @@
         <v>152</v>
       </c>
       <c r="C419" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E419">
         <v>35</v>
@@ -10171,7 +10212,7 @@
         <v>154</v>
       </c>
       <c r="C420" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E420">
         <v>35</v>
@@ -10199,7 +10240,7 @@
         <v>158</v>
       </c>
       <c r="C422" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E422">
         <v>36</v>
@@ -10227,7 +10268,7 @@
         <v>162</v>
       </c>
       <c r="C424" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E424">
         <v>37</v>
@@ -10241,7 +10282,7 @@
         <v>164</v>
       </c>
       <c r="C425" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E425">
         <v>37</v>
@@ -10269,7 +10310,7 @@
         <v>168</v>
       </c>
       <c r="C427" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E427">
         <v>38</v>
@@ -10283,7 +10324,7 @@
         <v>170</v>
       </c>
       <c r="C428" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E428">
         <v>38</v>
@@ -10296,6 +10337,9 @@
       <c r="B429" t="s">
         <v>172</v>
       </c>
+      <c r="C429" t="s">
+        <v>1317</v>
+      </c>
       <c r="E429">
         <v>39</v>
       </c>
@@ -10307,6 +10351,9 @@
       <c r="B430" t="s">
         <v>174</v>
       </c>
+      <c r="C430" t="s">
+        <v>1317</v>
+      </c>
       <c r="E430">
         <v>40</v>
       </c>
@@ -10318,6 +10365,9 @@
       <c r="B431" t="s">
         <v>176</v>
       </c>
+      <c r="C431" t="s">
+        <v>1317</v>
+      </c>
       <c r="E431">
         <v>41</v>
       </c>
@@ -10344,7 +10394,7 @@
         <v>180</v>
       </c>
       <c r="C433" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E433">
         <v>42</v>
@@ -10372,7 +10422,7 @@
         <v>184</v>
       </c>
       <c r="C435" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E435">
         <v>43</v>
@@ -10400,7 +10450,7 @@
         <v>188</v>
       </c>
       <c r="C437" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E437">
         <v>44</v>
@@ -10414,7 +10464,7 @@
         <v>190</v>
       </c>
       <c r="C438" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E438">
         <v>45</v>
@@ -10428,7 +10478,7 @@
         <v>192</v>
       </c>
       <c r="C439" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E439">
         <v>45</v>
@@ -10442,7 +10492,7 @@
         <v>194</v>
       </c>
       <c r="C440" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E440">
         <v>45</v>
@@ -10470,7 +10520,7 @@
         <v>198</v>
       </c>
       <c r="C442" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E442">
         <v>46</v>
@@ -10484,7 +10534,7 @@
         <v>200</v>
       </c>
       <c r="C443" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E443">
         <v>46</v>
@@ -10512,7 +10562,7 @@
         <v>204</v>
       </c>
       <c r="C445" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E445">
         <v>47</v>
@@ -10526,7 +10576,7 @@
         <v>206</v>
       </c>
       <c r="C446" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E446">
         <v>47</v>
@@ -10554,7 +10604,7 @@
         <v>210</v>
       </c>
       <c r="C448" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E448">
         <v>48</v>
@@ -10582,7 +10632,7 @@
         <v>214</v>
       </c>
       <c r="C450" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E450">
         <v>49</v>
@@ -10596,7 +10646,7 @@
         <v>216</v>
       </c>
       <c r="C451" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E451">
         <v>49</v>
@@ -10624,7 +10674,7 @@
         <v>220</v>
       </c>
       <c r="C453" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E453">
         <v>50</v>
@@ -10637,6 +10687,9 @@
       <c r="B454" t="s">
         <v>222</v>
       </c>
+      <c r="C454" t="s">
+        <v>1317</v>
+      </c>
       <c r="E454">
         <v>51</v>
       </c>
@@ -10648,6 +10701,9 @@
       <c r="B455" t="s">
         <v>224</v>
       </c>
+      <c r="C455" t="s">
+        <v>1317</v>
+      </c>
       <c r="E455">
         <v>52</v>
       </c>
@@ -10659,6 +10715,9 @@
       <c r="B456" t="s">
         <v>226</v>
       </c>
+      <c r="C456" t="s">
+        <v>1317</v>
+      </c>
       <c r="E456">
         <v>53</v>
       </c>
@@ -10671,7 +10730,7 @@
         <v>228</v>
       </c>
       <c r="C457" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E457">
         <v>54</v>
@@ -10685,7 +10744,7 @@
         <v>230</v>
       </c>
       <c r="C458" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E458">
         <v>54</v>
@@ -10699,7 +10758,7 @@
         <v>232</v>
       </c>
       <c r="C459" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E459">
         <v>54</v>
@@ -10712,6 +10771,9 @@
       <c r="B460" t="s">
         <v>234</v>
       </c>
+      <c r="C460" t="s">
+        <v>1317</v>
+      </c>
       <c r="E460">
         <v>55</v>
       </c>
@@ -10723,6 +10785,9 @@
       <c r="B461" t="s">
         <v>236</v>
       </c>
+      <c r="C461" t="s">
+        <v>1317</v>
+      </c>
       <c r="E461">
         <v>56</v>
       </c>
@@ -10734,6 +10799,9 @@
       <c r="B462" t="s">
         <v>238</v>
       </c>
+      <c r="C462" t="s">
+        <v>1317</v>
+      </c>
       <c r="E462">
         <v>57</v>
       </c>
@@ -10760,7 +10828,7 @@
         <v>242</v>
       </c>
       <c r="C464" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E464">
         <v>58</v>
@@ -10788,7 +10856,7 @@
         <v>246</v>
       </c>
       <c r="C466" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E466">
         <v>59</v>
@@ -10801,6 +10869,9 @@
       <c r="B467" t="s">
         <v>248</v>
       </c>
+      <c r="C467" t="s">
+        <v>1317</v>
+      </c>
       <c r="E467">
         <v>60</v>
       </c>
@@ -10813,7 +10884,7 @@
         <v>250</v>
       </c>
       <c r="C468" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E468">
         <v>61</v>
@@ -10827,7 +10898,7 @@
         <v>252</v>
       </c>
       <c r="C469" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E469">
         <v>61</v>
@@ -10841,7 +10912,7 @@
         <v>254</v>
       </c>
       <c r="C470" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E470">
         <v>61</v>
@@ -10855,7 +10926,7 @@
         <v>256</v>
       </c>
       <c r="C471" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E471">
         <v>62</v>
@@ -10869,7 +10940,7 @@
         <v>258</v>
       </c>
       <c r="C472" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E472">
         <v>62</v>
@@ -10883,7 +10954,7 @@
         <v>260</v>
       </c>
       <c r="C473" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E473">
         <v>63</v>
@@ -10910,6 +10981,9 @@
       <c r="B475" t="s">
         <v>263</v>
       </c>
+      <c r="C475" t="s">
+        <v>1317</v>
+      </c>
       <c r="E475">
         <v>64</v>
       </c>
@@ -10921,6 +10995,9 @@
       <c r="B476" t="s">
         <v>265</v>
       </c>
+      <c r="C476" t="s">
+        <v>1317</v>
+      </c>
       <c r="E476">
         <v>65</v>
       </c>
@@ -10932,6 +11009,9 @@
       <c r="B477" t="s">
         <v>267</v>
       </c>
+      <c r="C477" t="s">
+        <v>1317</v>
+      </c>
       <c r="E477">
         <v>66</v>
       </c>
@@ -10943,6 +11023,9 @@
       <c r="B478" t="s">
         <v>269</v>
       </c>
+      <c r="C478" t="s">
+        <v>1317</v>
+      </c>
       <c r="E478">
         <v>67</v>
       </c>
@@ -10954,6 +11037,9 @@
       <c r="B479" t="s">
         <v>271</v>
       </c>
+      <c r="C479" t="s">
+        <v>1317</v>
+      </c>
       <c r="E479">
         <v>68</v>
       </c>
@@ -10965,6 +11051,9 @@
       <c r="B480" t="s">
         <v>273</v>
       </c>
+      <c r="C480" t="s">
+        <v>1317</v>
+      </c>
       <c r="E480">
         <v>69</v>
       </c>
@@ -10976,6 +11065,9 @@
       <c r="B481" t="s">
         <v>275</v>
       </c>
+      <c r="C481" t="s">
+        <v>1317</v>
+      </c>
       <c r="E481">
         <v>70</v>
       </c>
@@ -11002,7 +11094,7 @@
         <v>279</v>
       </c>
       <c r="C483" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E483">
         <v>71</v>
@@ -11015,6 +11107,9 @@
       <c r="B484" t="s">
         <v>281</v>
       </c>
+      <c r="C484" t="s">
+        <v>1317</v>
+      </c>
       <c r="E484">
         <v>72</v>
       </c>
@@ -11041,7 +11136,7 @@
         <v>285</v>
       </c>
       <c r="C486" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E486">
         <v>73</v>
@@ -11055,7 +11150,7 @@
         <v>287</v>
       </c>
       <c r="C487" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E487">
         <v>73</v>
@@ -11069,7 +11164,7 @@
         <v>289</v>
       </c>
       <c r="C488" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E488">
         <v>73</v>
@@ -11083,7 +11178,7 @@
         <v>291</v>
       </c>
       <c r="C489" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E489">
         <v>74</v>
@@ -11097,7 +11192,7 @@
         <v>293</v>
       </c>
       <c r="C490" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E490">
         <v>74</v>
@@ -11111,7 +11206,7 @@
         <v>295</v>
       </c>
       <c r="C491" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E491">
         <v>74</v>
@@ -11125,7 +11220,7 @@
         <v>297</v>
       </c>
       <c r="C492" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E492">
         <v>74</v>
@@ -11138,6 +11233,9 @@
       <c r="B493" t="s">
         <v>299</v>
       </c>
+      <c r="C493" t="s">
+        <v>1317</v>
+      </c>
       <c r="E493">
         <v>75</v>
       </c>
@@ -11149,6 +11247,9 @@
       <c r="B494" t="s">
         <v>301</v>
       </c>
+      <c r="C494" t="s">
+        <v>1317</v>
+      </c>
       <c r="E494">
         <v>76</v>
       </c>
@@ -11160,6 +11261,9 @@
       <c r="B495" t="s">
         <v>303</v>
       </c>
+      <c r="C495" t="s">
+        <v>1317</v>
+      </c>
       <c r="E495">
         <v>77</v>
       </c>
@@ -11171,6 +11275,9 @@
       <c r="B496" t="s">
         <v>305</v>
       </c>
+      <c r="C496" t="s">
+        <v>1317</v>
+      </c>
       <c r="E496">
         <v>78</v>
       </c>
@@ -11183,7 +11290,7 @@
         <v>307</v>
       </c>
       <c r="C497" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E497">
         <v>79</v>
@@ -11197,7 +11304,7 @@
         <v>309</v>
       </c>
       <c r="C498" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E498">
         <v>79</v>
@@ -11225,7 +11332,7 @@
         <v>313</v>
       </c>
       <c r="C500" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E500">
         <v>80</v>
@@ -11239,7 +11346,7 @@
         <v>315</v>
       </c>
       <c r="C501" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E501">
         <v>80</v>
@@ -11267,7 +11374,7 @@
         <v>319</v>
       </c>
       <c r="C503" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E503">
         <v>81</v>
@@ -11281,7 +11388,7 @@
         <v>321</v>
       </c>
       <c r="C504" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E504">
         <v>81</v>
@@ -11295,7 +11402,7 @@
         <v>323</v>
       </c>
       <c r="C505" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E505">
         <v>82</v>
@@ -11309,7 +11416,7 @@
         <v>325</v>
       </c>
       <c r="C506" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E506">
         <v>82</v>
@@ -11323,7 +11430,7 @@
         <v>327</v>
       </c>
       <c r="C507" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E507">
         <v>82</v>
@@ -11351,7 +11458,7 @@
         <v>331</v>
       </c>
       <c r="C509" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E509">
         <v>83</v>
@@ -11365,7 +11472,7 @@
         <v>333</v>
       </c>
       <c r="C510" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E510">
         <v>84</v>
@@ -11379,7 +11486,7 @@
         <v>335</v>
       </c>
       <c r="C511" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E511">
         <v>84</v>
@@ -11393,7 +11500,7 @@
         <v>337</v>
       </c>
       <c r="C512" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E512">
         <v>84</v>
@@ -11421,7 +11528,7 @@
         <v>341</v>
       </c>
       <c r="C514" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E514">
         <v>85</v>
@@ -11449,7 +11556,7 @@
         <v>345</v>
       </c>
       <c r="C516" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E516">
         <v>86</v>
@@ -11462,6 +11569,9 @@
       <c r="B517" t="s">
         <v>347</v>
       </c>
+      <c r="C517" t="s">
+        <v>1317</v>
+      </c>
       <c r="E517">
         <v>87</v>
       </c>
@@ -11473,6 +11583,9 @@
       <c r="B518" t="s">
         <v>349</v>
       </c>
+      <c r="C518" t="s">
+        <v>1317</v>
+      </c>
       <c r="E518">
         <v>88</v>
       </c>
@@ -11485,7 +11598,7 @@
         <v>351</v>
       </c>
       <c r="C519" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E519">
         <v>89</v>
@@ -11499,7 +11612,7 @@
         <v>353</v>
       </c>
       <c r="C520" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E520">
         <v>89</v>
@@ -11513,7 +11626,7 @@
         <v>355</v>
       </c>
       <c r="C521" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E521">
         <v>89</v>
@@ -11541,7 +11654,7 @@
         <v>359</v>
       </c>
       <c r="C523" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E523">
         <v>90</v>
@@ -11554,6 +11667,9 @@
       <c r="B524" t="s">
         <v>361</v>
       </c>
+      <c r="C524" t="s">
+        <v>1317</v>
+      </c>
       <c r="E524">
         <v>91</v>
       </c>
@@ -11565,6 +11681,9 @@
       <c r="B525" t="s">
         <v>363</v>
       </c>
+      <c r="C525" t="s">
+        <v>1317</v>
+      </c>
       <c r="E525">
         <v>92</v>
       </c>
@@ -11591,7 +11710,7 @@
         <v>367</v>
       </c>
       <c r="C527" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E527">
         <v>93</v>
@@ -11604,6 +11723,9 @@
       <c r="B528" t="s">
         <v>369</v>
       </c>
+      <c r="C528" t="s">
+        <v>1317</v>
+      </c>
       <c r="E528">
         <v>94</v>
       </c>
@@ -11615,6 +11737,9 @@
       <c r="B529" t="s">
         <v>371</v>
       </c>
+      <c r="C529" t="s">
+        <v>1317</v>
+      </c>
       <c r="E529">
         <v>95</v>
       </c>
@@ -11626,6 +11751,9 @@
       <c r="B530" t="s">
         <v>373</v>
       </c>
+      <c r="C530" t="s">
+        <v>1317</v>
+      </c>
       <c r="E530">
         <v>96</v>
       </c>
@@ -11652,7 +11780,7 @@
         <v>377</v>
       </c>
       <c r="C532" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E532">
         <v>97</v>
@@ -11680,7 +11808,7 @@
         <v>381</v>
       </c>
       <c r="C534" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E534">
         <v>98</v>
@@ -11708,7 +11836,7 @@
         <v>385</v>
       </c>
       <c r="C536" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E536">
         <v>99</v>
@@ -11736,7 +11864,7 @@
         <v>389</v>
       </c>
       <c r="C538" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E538">
         <v>100</v>
@@ -11750,7 +11878,7 @@
         <v>391</v>
       </c>
       <c r="C539" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E539">
         <v>100</v>
@@ -11778,7 +11906,7 @@
         <v>395</v>
       </c>
       <c r="C541" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E541">
         <v>101</v>
@@ -11806,7 +11934,7 @@
         <v>399</v>
       </c>
       <c r="C543" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E543">
         <v>102</v>
@@ -11834,7 +11962,7 @@
         <v>403</v>
       </c>
       <c r="C545" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E545">
         <v>103</v>
@@ -11847,6 +11975,9 @@
       <c r="B546" t="s">
         <v>405</v>
       </c>
+      <c r="C546" t="s">
+        <v>1317</v>
+      </c>
       <c r="E546">
         <v>104</v>
       </c>
@@ -11873,7 +12004,7 @@
         <v>409</v>
       </c>
       <c r="C548" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E548">
         <v>105</v>
@@ -11886,6 +12017,9 @@
       <c r="B549" t="s">
         <v>411</v>
       </c>
+      <c r="C549" t="s">
+        <v>1317</v>
+      </c>
       <c r="E549">
         <v>106</v>
       </c>
@@ -11912,7 +12046,7 @@
         <v>415</v>
       </c>
       <c r="C551" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E551">
         <v>107</v>
@@ -11940,7 +12074,7 @@
         <v>419</v>
       </c>
       <c r="C553" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E553">
         <v>108</v>
@@ -11953,6 +12087,9 @@
       <c r="B554" t="s">
         <v>421</v>
       </c>
+      <c r="C554" t="s">
+        <v>1317</v>
+      </c>
       <c r="E554">
         <v>109</v>
       </c>
@@ -11964,6 +12101,9 @@
       <c r="B555" t="s">
         <v>423</v>
       </c>
+      <c r="C555" t="s">
+        <v>1317</v>
+      </c>
       <c r="E555">
         <v>110</v>
       </c>
@@ -11975,6 +12115,9 @@
       <c r="B556" t="s">
         <v>425</v>
       </c>
+      <c r="C556" t="s">
+        <v>1317</v>
+      </c>
       <c r="E556">
         <v>111</v>
       </c>
@@ -11986,6 +12129,9 @@
       <c r="B557" t="s">
         <v>427</v>
       </c>
+      <c r="C557" t="s">
+        <v>1317</v>
+      </c>
       <c r="E557">
         <v>112</v>
       </c>
@@ -11997,6 +12143,9 @@
       <c r="B558" t="s">
         <v>429</v>
       </c>
+      <c r="C558" t="s">
+        <v>1317</v>
+      </c>
       <c r="E558">
         <v>113</v>
       </c>
@@ -12008,6 +12157,9 @@
       <c r="B559" t="s">
         <v>431</v>
       </c>
+      <c r="C559" t="s">
+        <v>1317</v>
+      </c>
       <c r="E559">
         <v>114</v>
       </c>
@@ -12019,6 +12171,9 @@
       <c r="B560" t="s">
         <v>433</v>
       </c>
+      <c r="C560" t="s">
+        <v>1317</v>
+      </c>
       <c r="E560">
         <v>115</v>
       </c>
@@ -12030,6 +12185,9 @@
       <c r="B561" t="s">
         <v>435</v>
       </c>
+      <c r="C561" t="s">
+        <v>1317</v>
+      </c>
       <c r="E561">
         <v>116</v>
       </c>
@@ -12041,6 +12199,9 @@
       <c r="B562" t="s">
         <v>437</v>
       </c>
+      <c r="C562" t="s">
+        <v>1317</v>
+      </c>
       <c r="E562">
         <v>117</v>
       </c>
@@ -12067,7 +12228,7 @@
         <v>441</v>
       </c>
       <c r="C564" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E564">
         <v>118</v>
@@ -12080,6 +12241,9 @@
       <c r="B565" t="s">
         <v>443</v>
       </c>
+      <c r="C565" t="s">
+        <v>1317</v>
+      </c>
       <c r="E565">
         <v>119</v>
       </c>
@@ -12091,6 +12255,9 @@
       <c r="B566" t="s">
         <v>445</v>
       </c>
+      <c r="C566" t="s">
+        <v>1317</v>
+      </c>
       <c r="E566">
         <v>120</v>
       </c>
@@ -12117,7 +12284,7 @@
         <v>449</v>
       </c>
       <c r="C568" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E568">
         <v>121</v>
@@ -12145,7 +12312,7 @@
         <v>453</v>
       </c>
       <c r="C570" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E570">
         <v>122</v>
@@ -12173,7 +12340,7 @@
         <v>457</v>
       </c>
       <c r="C572" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E572">
         <v>123</v>
@@ -12186,6 +12353,9 @@
       <c r="B573" t="s">
         <v>459</v>
       </c>
+      <c r="C573" t="s">
+        <v>1317</v>
+      </c>
       <c r="E573">
         <v>124</v>
       </c>
@@ -12212,7 +12382,7 @@
         <v>462</v>
       </c>
       <c r="C575" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E575">
         <v>125</v>
@@ -12240,7 +12410,7 @@
         <v>466</v>
       </c>
       <c r="C577" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E577">
         <v>126</v>
@@ -12268,7 +12438,7 @@
         <v>470</v>
       </c>
       <c r="C579" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E579">
         <v>127</v>
@@ -12296,7 +12466,7 @@
         <v>474</v>
       </c>
       <c r="C581" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E581">
         <v>128</v>
@@ -12310,7 +12480,7 @@
         <v>476</v>
       </c>
       <c r="C582" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E582">
         <v>128</v>
@@ -12338,7 +12508,7 @@
         <v>480</v>
       </c>
       <c r="C584" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E584">
         <v>129</v>
@@ -12366,7 +12536,7 @@
         <v>484</v>
       </c>
       <c r="C586" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E586">
         <v>130</v>
@@ -12394,7 +12564,7 @@
         <v>488</v>
       </c>
       <c r="C588" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E588">
         <v>131</v>
@@ -12422,7 +12592,7 @@
         <v>491</v>
       </c>
       <c r="C590" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E590">
         <v>132</v>
@@ -12450,7 +12620,7 @@
         <v>495</v>
       </c>
       <c r="C592" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E592">
         <v>133</v>
@@ -12478,7 +12648,7 @@
         <v>499</v>
       </c>
       <c r="C594" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E594">
         <v>134</v>
@@ -12491,6 +12661,9 @@
       <c r="B595" t="s">
         <v>501</v>
       </c>
+      <c r="C595" t="s">
+        <v>1317</v>
+      </c>
       <c r="E595">
         <v>135</v>
       </c>
@@ -12517,7 +12690,7 @@
         <v>505</v>
       </c>
       <c r="C597" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E597">
         <v>136</v>
@@ -12530,6 +12703,9 @@
       <c r="B598" t="s">
         <v>507</v>
       </c>
+      <c r="C598" t="s">
+        <v>1317</v>
+      </c>
       <c r="E598">
         <v>137</v>
       </c>
@@ -12541,6 +12717,9 @@
       <c r="B599" t="s">
         <v>509</v>
       </c>
+      <c r="C599" t="s">
+        <v>1317</v>
+      </c>
       <c r="E599">
         <v>138</v>
       </c>
@@ -12567,7 +12746,7 @@
         <v>513</v>
       </c>
       <c r="C601" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E601">
         <v>139</v>
@@ -12595,7 +12774,7 @@
         <v>517</v>
       </c>
       <c r="C603" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E603">
         <v>140</v>
@@ -12623,7 +12802,7 @@
         <v>521</v>
       </c>
       <c r="C605" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E605">
         <v>141</v>
@@ -12636,6 +12815,9 @@
       <c r="B606" t="s">
         <v>523</v>
       </c>
+      <c r="C606" t="s">
+        <v>1317</v>
+      </c>
       <c r="E606">
         <v>142</v>
       </c>
@@ -12647,6 +12829,9 @@
       <c r="B607" t="s">
         <v>525</v>
       </c>
+      <c r="C607" t="s">
+        <v>1317</v>
+      </c>
       <c r="E607">
         <v>143</v>
       </c>
@@ -12658,6 +12843,9 @@
       <c r="B608" t="s">
         <v>527</v>
       </c>
+      <c r="C608" t="s">
+        <v>1317</v>
+      </c>
       <c r="E608">
         <v>144</v>
       </c>
@@ -12684,7 +12872,7 @@
         <v>531</v>
       </c>
       <c r="C610" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E610">
         <v>145</v>
@@ -12698,7 +12886,7 @@
         <v>533</v>
       </c>
       <c r="C611" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E611">
         <v>145</v>
@@ -12711,6 +12899,9 @@
       <c r="B612" t="s">
         <v>535</v>
       </c>
+      <c r="C612" t="s">
+        <v>1317</v>
+      </c>
       <c r="E612">
         <v>146</v>
       </c>
@@ -12722,6 +12913,9 @@
       <c r="B613" t="s">
         <v>537</v>
       </c>
+      <c r="C613" t="s">
+        <v>1317</v>
+      </c>
       <c r="E613">
         <v>147</v>
       </c>
@@ -12748,7 +12942,7 @@
         <v>541</v>
       </c>
       <c r="C615" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E615">
         <v>148</v>
@@ -12776,7 +12970,7 @@
         <v>545</v>
       </c>
       <c r="C617" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E617">
         <v>149</v>
@@ -12804,7 +12998,7 @@
         <v>549</v>
       </c>
       <c r="C619" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E619">
         <v>150</v>
@@ -12832,7 +13026,7 @@
         <v>553</v>
       </c>
       <c r="C621" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E621">
         <v>151</v>
@@ -12845,6 +13039,9 @@
       <c r="B622" t="s">
         <v>555</v>
       </c>
+      <c r="C622" t="s">
+        <v>1317</v>
+      </c>
       <c r="E622">
         <v>152</v>
       </c>
@@ -12871,7 +13068,7 @@
         <v>559</v>
       </c>
       <c r="C624" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E624">
         <v>153</v>
@@ -12885,7 +13082,7 @@
         <v>561</v>
       </c>
       <c r="C625" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E625">
         <v>154</v>
@@ -12899,7 +13096,7 @@
         <v>563</v>
       </c>
       <c r="C626" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E626">
         <v>154</v>
@@ -12912,6 +13109,9 @@
       <c r="B627" t="s">
         <v>565</v>
       </c>
+      <c r="C627" t="s">
+        <v>1317</v>
+      </c>
       <c r="E627">
         <v>155</v>
       </c>
@@ -12923,6 +13123,9 @@
       <c r="B628" t="s">
         <v>567</v>
       </c>
+      <c r="C628" t="s">
+        <v>1317</v>
+      </c>
       <c r="E628">
         <v>156</v>
       </c>
@@ -12934,6 +13137,9 @@
       <c r="B629" t="s">
         <v>569</v>
       </c>
+      <c r="C629" t="s">
+        <v>1317</v>
+      </c>
       <c r="E629">
         <v>157</v>
       </c>
@@ -12945,6 +13151,9 @@
       <c r="B630" t="s">
         <v>571</v>
       </c>
+      <c r="C630" t="s">
+        <v>1317</v>
+      </c>
       <c r="E630">
         <v>158</v>
       </c>
@@ -12971,7 +13180,7 @@
         <v>575</v>
       </c>
       <c r="C632" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E632">
         <v>159</v>
@@ -12984,6 +13193,9 @@
       <c r="B633" t="s">
         <v>577</v>
       </c>
+      <c r="C633" t="s">
+        <v>1317</v>
+      </c>
       <c r="E633">
         <v>160</v>
       </c>
@@ -12995,6 +13207,9 @@
       <c r="B634" t="s">
         <v>579</v>
       </c>
+      <c r="C634" t="s">
+        <v>1317</v>
+      </c>
       <c r="E634">
         <v>161</v>
       </c>
@@ -13006,6 +13221,9 @@
       <c r="B635" t="s">
         <v>581</v>
       </c>
+      <c r="C635" t="s">
+        <v>1317</v>
+      </c>
       <c r="E635">
         <v>162</v>
       </c>
@@ -13032,7 +13250,7 @@
         <v>585</v>
       </c>
       <c r="C637" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E637">
         <v>163</v>
@@ -13060,7 +13278,7 @@
         <v>589</v>
       </c>
       <c r="C639" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E639">
         <v>164</v>
@@ -13088,7 +13306,7 @@
         <v>593</v>
       </c>
       <c r="C641" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E641">
         <v>165</v>
@@ -13101,6 +13319,9 @@
       <c r="B642" t="s">
         <v>595</v>
       </c>
+      <c r="C642" t="s">
+        <v>1317</v>
+      </c>
       <c r="E642">
         <v>166</v>
       </c>
@@ -13127,7 +13348,7 @@
         <v>599</v>
       </c>
       <c r="C644" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E644">
         <v>167</v>
@@ -13140,6 +13361,9 @@
       <c r="B645" t="s">
         <v>601</v>
       </c>
+      <c r="C645" t="s">
+        <v>1317</v>
+      </c>
       <c r="E645">
         <v>168</v>
       </c>
@@ -13151,6 +13375,9 @@
       <c r="B646" t="s">
         <v>603</v>
       </c>
+      <c r="C646" t="s">
+        <v>1317</v>
+      </c>
       <c r="E646">
         <v>169</v>
       </c>
@@ -13162,6 +13389,9 @@
       <c r="B647" t="s">
         <v>605</v>
       </c>
+      <c r="C647" t="s">
+        <v>1317</v>
+      </c>
       <c r="E647">
         <v>170</v>
       </c>
@@ -13173,6 +13403,9 @@
       <c r="B648" t="s">
         <v>607</v>
       </c>
+      <c r="C648" t="s">
+        <v>1317</v>
+      </c>
       <c r="E648">
         <v>171</v>
       </c>
@@ -13184,6 +13417,9 @@
       <c r="B649" t="s">
         <v>609</v>
       </c>
+      <c r="C649" t="s">
+        <v>1317</v>
+      </c>
       <c r="E649">
         <v>172</v>
       </c>
@@ -13210,7 +13446,7 @@
         <v>613</v>
       </c>
       <c r="C651" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E651">
         <v>173</v>
@@ -13223,6 +13459,9 @@
       <c r="B652" t="s">
         <v>615</v>
       </c>
+      <c r="C652" t="s">
+        <v>1317</v>
+      </c>
       <c r="E652">
         <v>174</v>
       </c>
@@ -13234,6 +13473,9 @@
       <c r="B653" t="s">
         <v>617</v>
       </c>
+      <c r="C653" t="s">
+        <v>1317</v>
+      </c>
       <c r="E653">
         <v>175</v>
       </c>
@@ -13245,6 +13487,9 @@
       <c r="B654" t="s">
         <v>619</v>
       </c>
+      <c r="C654" t="s">
+        <v>1317</v>
+      </c>
       <c r="E654">
         <v>176</v>
       </c>
@@ -13256,6 +13501,9 @@
       <c r="B655" t="s">
         <v>621</v>
       </c>
+      <c r="C655" t="s">
+        <v>1317</v>
+      </c>
       <c r="E655">
         <v>177</v>
       </c>
@@ -13267,6 +13515,9 @@
       <c r="B656" t="s">
         <v>623</v>
       </c>
+      <c r="C656" t="s">
+        <v>1317</v>
+      </c>
       <c r="E656">
         <v>178</v>
       </c>
@@ -13278,6 +13529,9 @@
       <c r="B657" t="s">
         <v>625</v>
       </c>
+      <c r="C657" t="s">
+        <v>1317</v>
+      </c>
       <c r="E657">
         <v>179</v>
       </c>
@@ -13289,6 +13543,9 @@
       <c r="B658" t="s">
         <v>627</v>
       </c>
+      <c r="C658" t="s">
+        <v>1317</v>
+      </c>
       <c r="E658">
         <v>180</v>
       </c>
@@ -13315,7 +13572,7 @@
         <v>631</v>
       </c>
       <c r="C660" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E660">
         <v>181</v>
@@ -13329,7 +13586,7 @@
         <v>633</v>
       </c>
       <c r="C661" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E661">
         <v>182</v>
@@ -13343,7 +13600,7 @@
         <v>635</v>
       </c>
       <c r="C662" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E662">
         <v>182</v>
@@ -13371,7 +13628,7 @@
         <v>639</v>
       </c>
       <c r="C664" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E664">
         <v>182</v>
@@ -13399,7 +13656,7 @@
         <v>643</v>
       </c>
       <c r="C666" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E666">
         <v>183</v>
@@ -13413,7 +13670,7 @@
         <v>645</v>
       </c>
       <c r="C667" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E667">
         <v>183</v>
@@ -13426,6 +13683,9 @@
       <c r="B668" t="s">
         <v>647</v>
       </c>
+      <c r="C668" t="s">
+        <v>1317</v>
+      </c>
       <c r="E668">
         <v>184</v>
       </c>
@@ -13452,7 +13712,7 @@
         <v>651</v>
       </c>
       <c r="C670" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E670">
         <v>185</v>
@@ -13480,7 +13740,7 @@
         <v>655</v>
       </c>
       <c r="C672" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E672">
         <v>186</v>
@@ -13493,6 +13753,9 @@
       <c r="B673" t="s">
         <v>657</v>
       </c>
+      <c r="C673" t="s">
+        <v>1317</v>
+      </c>
       <c r="E673">
         <v>187</v>
       </c>
@@ -13504,6 +13767,9 @@
       <c r="B674" t="s">
         <v>659</v>
       </c>
+      <c r="C674" t="s">
+        <v>1317</v>
+      </c>
       <c r="E674">
         <v>188</v>
       </c>
@@ -13515,6 +13781,9 @@
       <c r="B675" t="s">
         <v>661</v>
       </c>
+      <c r="C675" t="s">
+        <v>1317</v>
+      </c>
       <c r="E675">
         <v>189</v>
       </c>
@@ -13526,6 +13795,9 @@
       <c r="B676" t="s">
         <v>663</v>
       </c>
+      <c r="C676" t="s">
+        <v>1317</v>
+      </c>
       <c r="E676">
         <v>190</v>
       </c>
@@ -13537,6 +13809,9 @@
       <c r="B677" t="s">
         <v>665</v>
       </c>
+      <c r="C677" t="s">
+        <v>1317</v>
+      </c>
       <c r="E677">
         <v>191</v>
       </c>
@@ -13546,7 +13821,10 @@
         <v>667</v>
       </c>
       <c r="B678" t="s">
-        <v>815</v>
+        <v>814</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1317</v>
       </c>
       <c r="E678">
         <v>192</v>
@@ -13557,7 +13835,7 @@
         <v>667</v>
       </c>
       <c r="B679" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C679" t="s">
         <v>402</v>
@@ -13571,10 +13849,10 @@
         <v>667</v>
       </c>
       <c r="B680" t="s">
+        <v>816</v>
+      </c>
+      <c r="C680" t="s">
         <v>817</v>
-      </c>
-      <c r="C680" t="s">
-        <v>818</v>
       </c>
       <c r="E680">
         <v>193</v>
@@ -13585,7 +13863,10 @@
         <v>667</v>
       </c>
       <c r="B681" t="s">
-        <v>819</v>
+        <v>818</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1317</v>
       </c>
       <c r="E681">
         <v>194</v>
@@ -13596,7 +13877,10 @@
         <v>667</v>
       </c>
       <c r="B682" t="s">
-        <v>820</v>
+        <v>819</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1317</v>
       </c>
       <c r="E682">
         <v>195</v>
@@ -13607,7 +13891,10 @@
         <v>667</v>
       </c>
       <c r="B683" t="s">
-        <v>821</v>
+        <v>820</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1317</v>
       </c>
       <c r="E683">
         <v>196</v>
@@ -13618,7 +13905,10 @@
         <v>667</v>
       </c>
       <c r="B684" t="s">
-        <v>822</v>
+        <v>821</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1317</v>
       </c>
       <c r="E684">
         <v>197</v>
@@ -13629,7 +13919,7 @@
         <v>667</v>
       </c>
       <c r="B685" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C685" t="s">
         <v>412</v>
@@ -13643,10 +13933,10 @@
         <v>667</v>
       </c>
       <c r="B686" t="s">
+        <v>823</v>
+      </c>
+      <c r="C686" t="s">
         <v>824</v>
-      </c>
-      <c r="C686" t="s">
-        <v>825</v>
       </c>
       <c r="E686">
         <v>198</v>
@@ -13657,7 +13947,10 @@
         <v>667</v>
       </c>
       <c r="B687" t="s">
-        <v>826</v>
+        <v>825</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1317</v>
       </c>
       <c r="E687">
         <v>199</v>
@@ -13668,7 +13961,10 @@
         <v>667</v>
       </c>
       <c r="B688" t="s">
-        <v>827</v>
+        <v>826</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1317</v>
       </c>
       <c r="E688">
         <v>200</v>
@@ -13679,7 +13975,10 @@
         <v>667</v>
       </c>
       <c r="B689" t="s">
-        <v>828</v>
+        <v>827</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1317</v>
       </c>
       <c r="E689">
         <v>201</v>
@@ -13690,7 +13989,7 @@
         <v>667</v>
       </c>
       <c r="B690" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C690" t="s">
         <v>420</v>
@@ -13704,10 +14003,10 @@
         <v>667</v>
       </c>
       <c r="B691" t="s">
+        <v>829</v>
+      </c>
+      <c r="C691" t="s">
         <v>830</v>
-      </c>
-      <c r="C691" t="s">
-        <v>831</v>
       </c>
       <c r="E691">
         <v>202</v>
@@ -13718,10 +14017,10 @@
         <v>667</v>
       </c>
       <c r="B692" t="s">
+        <v>831</v>
+      </c>
+      <c r="C692" t="s">
         <v>832</v>
-      </c>
-      <c r="C692" t="s">
-        <v>833</v>
       </c>
       <c r="E692">
         <v>202</v>
@@ -13732,7 +14031,7 @@
         <v>667</v>
       </c>
       <c r="B693" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C693" t="s">
         <v>422</v>
@@ -13746,10 +14045,10 @@
         <v>667</v>
       </c>
       <c r="B694" t="s">
+        <v>834</v>
+      </c>
+      <c r="C694" t="s">
         <v>835</v>
-      </c>
-      <c r="C694" t="s">
-        <v>836</v>
       </c>
       <c r="E694">
         <v>203</v>
@@ -13760,10 +14059,10 @@
         <v>667</v>
       </c>
       <c r="B695" t="s">
+        <v>836</v>
+      </c>
+      <c r="C695" t="s">
         <v>837</v>
-      </c>
-      <c r="C695" t="s">
-        <v>838</v>
       </c>
       <c r="E695">
         <v>203</v>
@@ -13774,7 +14073,7 @@
         <v>667</v>
       </c>
       <c r="B696" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C696" t="s">
         <v>424</v>
@@ -13788,10 +14087,10 @@
         <v>667</v>
       </c>
       <c r="B697" t="s">
+        <v>839</v>
+      </c>
+      <c r="C697" t="s">
         <v>840</v>
-      </c>
-      <c r="C697" t="s">
-        <v>841</v>
       </c>
       <c r="E697">
         <v>204</v>
@@ -13802,7 +14101,7 @@
         <v>667</v>
       </c>
       <c r="B698" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C698" t="s">
         <v>426</v>
@@ -13816,10 +14115,10 @@
         <v>667</v>
       </c>
       <c r="B699" t="s">
+        <v>842</v>
+      </c>
+      <c r="C699" t="s">
         <v>843</v>
-      </c>
-      <c r="C699" t="s">
-        <v>844</v>
       </c>
       <c r="E699">
         <v>205</v>
@@ -13830,10 +14129,10 @@
         <v>667</v>
       </c>
       <c r="B700" t="s">
+        <v>844</v>
+      </c>
+      <c r="C700" t="s">
         <v>845</v>
-      </c>
-      <c r="C700" t="s">
-        <v>846</v>
       </c>
       <c r="E700">
         <v>205</v>
@@ -13844,7 +14143,7 @@
         <v>667</v>
       </c>
       <c r="B701" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C701" t="s">
         <v>428</v>
@@ -13858,7 +14157,7 @@
         <v>667</v>
       </c>
       <c r="B702" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C702" t="s">
         <v>644</v>
@@ -13872,10 +14171,10 @@
         <v>667</v>
       </c>
       <c r="B703" t="s">
+        <v>848</v>
+      </c>
+      <c r="C703" t="s">
         <v>849</v>
-      </c>
-      <c r="C703" t="s">
-        <v>850</v>
       </c>
       <c r="E703">
         <v>206</v>
@@ -13886,7 +14185,7 @@
         <v>667</v>
       </c>
       <c r="B704" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C704" t="s">
         <v>430</v>
@@ -13900,10 +14199,10 @@
         <v>667</v>
       </c>
       <c r="B705" t="s">
+        <v>851</v>
+      </c>
+      <c r="C705" t="s">
         <v>852</v>
-      </c>
-      <c r="C705" t="s">
-        <v>853</v>
       </c>
       <c r="E705">
         <v>207</v>
@@ -13914,10 +14213,10 @@
         <v>667</v>
       </c>
       <c r="B706" t="s">
+        <v>853</v>
+      </c>
+      <c r="C706" t="s">
         <v>854</v>
-      </c>
-      <c r="C706" t="s">
-        <v>855</v>
       </c>
       <c r="E706">
         <v>207</v>
@@ -13928,7 +14227,10 @@
         <v>667</v>
       </c>
       <c r="B707" t="s">
-        <v>856</v>
+        <v>855</v>
+      </c>
+      <c r="C707" t="s">
+        <v>1317</v>
       </c>
       <c r="E707">
         <v>208</v>
@@ -13939,7 +14241,7 @@
         <v>667</v>
       </c>
       <c r="B708" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C708" t="s">
         <v>434</v>
@@ -13953,10 +14255,10 @@
         <v>667</v>
       </c>
       <c r="B709" t="s">
+        <v>857</v>
+      </c>
+      <c r="C709" t="s">
         <v>858</v>
-      </c>
-      <c r="C709" t="s">
-        <v>859</v>
       </c>
       <c r="E709">
         <v>209</v>
@@ -13967,10 +14269,10 @@
         <v>667</v>
       </c>
       <c r="B710" t="s">
+        <v>859</v>
+      </c>
+      <c r="C710" t="s">
         <v>860</v>
-      </c>
-      <c r="C710" t="s">
-        <v>861</v>
       </c>
       <c r="E710">
         <v>209</v>
@@ -13981,7 +14283,7 @@
         <v>667</v>
       </c>
       <c r="B711" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C711" t="s">
         <v>436</v>
@@ -13995,10 +14297,10 @@
         <v>667</v>
       </c>
       <c r="B712" t="s">
+        <v>862</v>
+      </c>
+      <c r="C712" t="s">
         <v>863</v>
-      </c>
-      <c r="C712" t="s">
-        <v>864</v>
       </c>
       <c r="E712">
         <v>210</v>
@@ -14009,10 +14311,10 @@
         <v>667</v>
       </c>
       <c r="B713" t="s">
+        <v>864</v>
+      </c>
+      <c r="C713" t="s">
         <v>865</v>
-      </c>
-      <c r="C713" t="s">
-        <v>866</v>
       </c>
       <c r="E713">
         <v>210</v>
@@ -14023,7 +14325,10 @@
         <v>667</v>
       </c>
       <c r="B714" t="s">
-        <v>867</v>
+        <v>866</v>
+      </c>
+      <c r="C714" t="s">
+        <v>1317</v>
       </c>
       <c r="E714">
         <v>211</v>
@@ -14034,7 +14339,10 @@
         <v>667</v>
       </c>
       <c r="B715" t="s">
-        <v>868</v>
+        <v>867</v>
+      </c>
+      <c r="C715" t="s">
+        <v>1317</v>
       </c>
       <c r="E715">
         <v>212</v>
@@ -14045,7 +14353,7 @@
         <v>667</v>
       </c>
       <c r="B716" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C716" t="s">
         <v>442</v>
@@ -14059,10 +14367,10 @@
         <v>667</v>
       </c>
       <c r="B717" t="s">
+        <v>869</v>
+      </c>
+      <c r="C717" t="s">
         <v>870</v>
-      </c>
-      <c r="C717" t="s">
-        <v>871</v>
       </c>
       <c r="E717">
         <v>213</v>
@@ -14073,10 +14381,10 @@
         <v>667</v>
       </c>
       <c r="B718" t="s">
+        <v>871</v>
+      </c>
+      <c r="C718" t="s">
         <v>872</v>
-      </c>
-      <c r="C718" t="s">
-        <v>873</v>
       </c>
       <c r="E718">
         <v>213</v>
@@ -14087,7 +14395,10 @@
         <v>667</v>
       </c>
       <c r="B719" t="s">
-        <v>874</v>
+        <v>873</v>
+      </c>
+      <c r="C719" t="s">
+        <v>1317</v>
       </c>
       <c r="E719">
         <v>214</v>
@@ -14098,7 +14409,10 @@
         <v>667</v>
       </c>
       <c r="B720" t="s">
-        <v>875</v>
+        <v>874</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1317</v>
       </c>
       <c r="E720">
         <v>215</v>
@@ -14109,7 +14423,7 @@
         <v>667</v>
       </c>
       <c r="B721" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C721" t="s">
         <v>448</v>
@@ -14123,10 +14437,10 @@
         <v>667</v>
       </c>
       <c r="B722" t="s">
+        <v>876</v>
+      </c>
+      <c r="C722" t="s">
         <v>877</v>
-      </c>
-      <c r="C722" t="s">
-        <v>878</v>
       </c>
       <c r="E722">
         <v>216</v>
@@ -14137,7 +14451,10 @@
         <v>667</v>
       </c>
       <c r="B723" t="s">
-        <v>879</v>
+        <v>878</v>
+      </c>
+      <c r="C723" t="s">
+        <v>1317</v>
       </c>
       <c r="E723">
         <v>217</v>
@@ -14148,7 +14465,7 @@
         <v>667</v>
       </c>
       <c r="B724" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C724" t="s">
         <v>452</v>
@@ -14162,10 +14479,10 @@
         <v>667</v>
       </c>
       <c r="B725" t="s">
+        <v>880</v>
+      </c>
+      <c r="C725" t="s">
         <v>881</v>
-      </c>
-      <c r="C725" t="s">
-        <v>882</v>
       </c>
       <c r="E725">
         <v>218</v>
@@ -14176,7 +14493,10 @@
         <v>667</v>
       </c>
       <c r="B726" t="s">
-        <v>883</v>
+        <v>882</v>
+      </c>
+      <c r="C726" t="s">
+        <v>1317</v>
       </c>
       <c r="E726">
         <v>219</v>
@@ -14187,7 +14507,10 @@
         <v>667</v>
       </c>
       <c r="B727" t="s">
-        <v>884</v>
+        <v>883</v>
+      </c>
+      <c r="C727" t="s">
+        <v>1317</v>
       </c>
       <c r="E727">
         <v>220</v>
@@ -14198,7 +14521,7 @@
         <v>667</v>
       </c>
       <c r="B728" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C728" t="s">
         <v>458</v>
@@ -14212,10 +14535,10 @@
         <v>667</v>
       </c>
       <c r="B729" t="s">
+        <v>885</v>
+      </c>
+      <c r="C729" t="s">
         <v>886</v>
-      </c>
-      <c r="C729" t="s">
-        <v>887</v>
       </c>
       <c r="E729">
         <v>221</v>
@@ -14226,10 +14549,10 @@
         <v>667</v>
       </c>
       <c r="B730" t="s">
+        <v>887</v>
+      </c>
+      <c r="C730" t="s">
         <v>888</v>
-      </c>
-      <c r="C730" t="s">
-        <v>889</v>
       </c>
       <c r="E730">
         <v>221</v>
@@ -14240,7 +14563,7 @@
         <v>667</v>
       </c>
       <c r="B731" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C731" t="s">
         <v>31</v>
@@ -14254,10 +14577,10 @@
         <v>667</v>
       </c>
       <c r="B732" t="s">
+        <v>890</v>
+      </c>
+      <c r="C732" t="s">
         <v>891</v>
-      </c>
-      <c r="C732" t="s">
-        <v>892</v>
       </c>
       <c r="E732">
         <v>222</v>
@@ -14268,7 +14591,7 @@
         <v>667</v>
       </c>
       <c r="B733" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C733" t="s">
         <v>461</v>
@@ -14282,10 +14605,10 @@
         <v>667</v>
       </c>
       <c r="B734" t="s">
+        <v>893</v>
+      </c>
+      <c r="C734" t="s">
         <v>894</v>
-      </c>
-      <c r="C734" t="s">
-        <v>895</v>
       </c>
       <c r="E734">
         <v>223</v>
@@ -14296,7 +14619,10 @@
         <v>667</v>
       </c>
       <c r="B735" t="s">
-        <v>896</v>
+        <v>895</v>
+      </c>
+      <c r="C735" t="s">
+        <v>1317</v>
       </c>
       <c r="E735">
         <v>224</v>
@@ -14307,7 +14633,7 @@
         <v>667</v>
       </c>
       <c r="B736" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C736" t="s">
         <v>446</v>
@@ -14321,10 +14647,10 @@
         <v>667</v>
       </c>
       <c r="B737" t="s">
+        <v>897</v>
+      </c>
+      <c r="C737" t="s">
         <v>898</v>
-      </c>
-      <c r="C737" t="s">
-        <v>899</v>
       </c>
       <c r="E737">
         <v>225</v>
@@ -14335,7 +14661,7 @@
         <v>667</v>
       </c>
       <c r="B738" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C738" t="s">
         <v>467</v>
@@ -14349,10 +14675,10 @@
         <v>667</v>
       </c>
       <c r="B739" t="s">
+        <v>900</v>
+      </c>
+      <c r="C739" t="s">
         <v>901</v>
-      </c>
-      <c r="C739" t="s">
-        <v>902</v>
       </c>
       <c r="E739">
         <v>226</v>
@@ -14363,7 +14689,7 @@
         <v>667</v>
       </c>
       <c r="B740" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C740" t="s">
         <v>469</v>
@@ -14377,10 +14703,10 @@
         <v>667</v>
       </c>
       <c r="B741" t="s">
+        <v>903</v>
+      </c>
+      <c r="C741" t="s">
         <v>904</v>
-      </c>
-      <c r="C741" t="s">
-        <v>905</v>
       </c>
       <c r="E741">
         <v>227</v>
@@ -14391,7 +14717,7 @@
         <v>667</v>
       </c>
       <c r="B742" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C742" t="s">
         <v>471</v>
@@ -14405,10 +14731,10 @@
         <v>667</v>
       </c>
       <c r="B743" t="s">
+        <v>906</v>
+      </c>
+      <c r="C743" t="s">
         <v>907</v>
-      </c>
-      <c r="C743" t="s">
-        <v>908</v>
       </c>
       <c r="E743">
         <v>228</v>
@@ -14419,7 +14745,7 @@
         <v>667</v>
       </c>
       <c r="B744" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C744" t="s">
         <v>473</v>
@@ -14433,10 +14759,10 @@
         <v>667</v>
       </c>
       <c r="B745" t="s">
+        <v>909</v>
+      </c>
+      <c r="C745" t="s">
         <v>910</v>
-      </c>
-      <c r="C745" t="s">
-        <v>911</v>
       </c>
       <c r="E745">
         <v>229</v>
@@ -14447,10 +14773,10 @@
         <v>667</v>
       </c>
       <c r="B746" t="s">
+        <v>911</v>
+      </c>
+      <c r="C746" t="s">
         <v>912</v>
-      </c>
-      <c r="C746" t="s">
-        <v>913</v>
       </c>
       <c r="E746">
         <v>229</v>
@@ -14461,7 +14787,7 @@
         <v>667</v>
       </c>
       <c r="B747" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C747" t="s">
         <v>475</v>
@@ -14475,10 +14801,10 @@
         <v>667</v>
       </c>
       <c r="B748" t="s">
+        <v>914</v>
+      </c>
+      <c r="C748" t="s">
         <v>915</v>
-      </c>
-      <c r="C748" t="s">
-        <v>916</v>
       </c>
       <c r="E748">
         <v>230</v>
@@ -14489,7 +14815,7 @@
         <v>667</v>
       </c>
       <c r="B749" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C749" t="s">
         <v>477</v>
@@ -14503,10 +14829,10 @@
         <v>667</v>
       </c>
       <c r="B750" t="s">
+        <v>917</v>
+      </c>
+      <c r="C750" t="s">
         <v>918</v>
-      </c>
-      <c r="C750" t="s">
-        <v>919</v>
       </c>
       <c r="E750">
         <v>231</v>
@@ -14517,7 +14843,7 @@
         <v>667</v>
       </c>
       <c r="B751" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C751" t="s">
         <v>479</v>
@@ -14531,10 +14857,10 @@
         <v>667</v>
       </c>
       <c r="B752" t="s">
+        <v>920</v>
+      </c>
+      <c r="C752" t="s">
         <v>921</v>
-      </c>
-      <c r="C752" t="s">
-        <v>922</v>
       </c>
       <c r="E752">
         <v>232</v>
@@ -14545,7 +14871,7 @@
         <v>667</v>
       </c>
       <c r="B753" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C753" t="s">
         <v>481</v>
@@ -14559,10 +14885,10 @@
         <v>667</v>
       </c>
       <c r="B754" t="s">
+        <v>923</v>
+      </c>
+      <c r="C754" t="s">
         <v>924</v>
-      </c>
-      <c r="C754" t="s">
-        <v>925</v>
       </c>
       <c r="E754">
         <v>233</v>
@@ -14573,7 +14899,7 @@
         <v>667</v>
       </c>
       <c r="B755" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C755" t="s">
         <v>483</v>
@@ -14587,10 +14913,10 @@
         <v>667</v>
       </c>
       <c r="B756" t="s">
+        <v>926</v>
+      </c>
+      <c r="C756" t="s">
         <v>927</v>
-      </c>
-      <c r="C756" t="s">
-        <v>928</v>
       </c>
       <c r="E756">
         <v>234</v>
@@ -14601,7 +14927,10 @@
         <v>667</v>
       </c>
       <c r="B757" t="s">
-        <v>929</v>
+        <v>928</v>
+      </c>
+      <c r="C757" t="s">
+        <v>1317</v>
       </c>
       <c r="E757">
         <v>235</v>
@@ -14612,7 +14941,10 @@
         <v>667</v>
       </c>
       <c r="B758" t="s">
-        <v>930</v>
+        <v>929</v>
+      </c>
+      <c r="C758" t="s">
+        <v>1317</v>
       </c>
       <c r="E758">
         <v>236</v>
@@ -14623,7 +14955,7 @@
         <v>667</v>
       </c>
       <c r="B759" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C759" t="s">
         <v>489</v>
@@ -14637,10 +14969,10 @@
         <v>667</v>
       </c>
       <c r="B760" t="s">
+        <v>931</v>
+      </c>
+      <c r="C760" t="s">
         <v>932</v>
-      </c>
-      <c r="C760" t="s">
-        <v>933</v>
       </c>
       <c r="E760">
         <v>237</v>
@@ -14651,7 +14983,10 @@
         <v>667</v>
       </c>
       <c r="B761" t="s">
-        <v>934</v>
+        <v>933</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1317</v>
       </c>
       <c r="E761">
         <v>238</v>
@@ -14662,7 +14997,10 @@
         <v>667</v>
       </c>
       <c r="B762" t="s">
-        <v>935</v>
+        <v>934</v>
+      </c>
+      <c r="C762" t="s">
+        <v>1317</v>
       </c>
       <c r="E762">
         <v>239</v>
@@ -14673,7 +15011,10 @@
         <v>667</v>
       </c>
       <c r="B763" t="s">
-        <v>936</v>
+        <v>935</v>
+      </c>
+      <c r="C763" t="s">
+        <v>1317</v>
       </c>
       <c r="E763">
         <v>240</v>
@@ -14684,7 +15025,10 @@
         <v>667</v>
       </c>
       <c r="B764" t="s">
-        <v>937</v>
+        <v>936</v>
+      </c>
+      <c r="C764" t="s">
+        <v>1317</v>
       </c>
       <c r="E764">
         <v>241</v>
@@ -14695,7 +15039,7 @@
         <v>667</v>
       </c>
       <c r="B765" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C765" t="s">
         <v>498</v>
@@ -14709,10 +15053,10 @@
         <v>667</v>
       </c>
       <c r="B766" t="s">
+        <v>938</v>
+      </c>
+      <c r="C766" t="s">
         <v>939</v>
-      </c>
-      <c r="C766" t="s">
-        <v>940</v>
       </c>
       <c r="E766">
         <v>242</v>
@@ -14723,10 +15067,10 @@
         <v>667</v>
       </c>
       <c r="B767" t="s">
+        <v>940</v>
+      </c>
+      <c r="C767" t="s">
         <v>941</v>
-      </c>
-      <c r="C767" t="s">
-        <v>942</v>
       </c>
       <c r="E767">
         <v>242</v>
@@ -14737,7 +15081,7 @@
         <v>667</v>
       </c>
       <c r="B768" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C768" t="s">
         <v>500</v>
@@ -14751,10 +15095,10 @@
         <v>667</v>
       </c>
       <c r="B769" t="s">
+        <v>943</v>
+      </c>
+      <c r="C769" t="s">
         <v>944</v>
-      </c>
-      <c r="C769" t="s">
-        <v>945</v>
       </c>
       <c r="E769">
         <v>243</v>
@@ -14765,7 +15109,10 @@
         <v>667</v>
       </c>
       <c r="B770" t="s">
-        <v>946</v>
+        <v>945</v>
+      </c>
+      <c r="C770" t="s">
+        <v>1317</v>
       </c>
       <c r="E770">
         <v>244</v>
@@ -14776,7 +15123,10 @@
         <v>667</v>
       </c>
       <c r="B771" t="s">
-        <v>947</v>
+        <v>946</v>
+      </c>
+      <c r="C771" t="s">
+        <v>1317</v>
       </c>
       <c r="E771">
         <v>245</v>
@@ -14787,7 +15137,7 @@
         <v>667</v>
       </c>
       <c r="B772" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C772" t="s">
         <v>506</v>
@@ -14801,10 +15151,10 @@
         <v>667</v>
       </c>
       <c r="B773" t="s">
+        <v>948</v>
+      </c>
+      <c r="C773" t="s">
         <v>949</v>
-      </c>
-      <c r="C773" t="s">
-        <v>950</v>
       </c>
       <c r="E773">
         <v>246</v>
@@ -14815,10 +15165,10 @@
         <v>667</v>
       </c>
       <c r="B774" t="s">
+        <v>950</v>
+      </c>
+      <c r="C774" t="s">
         <v>951</v>
-      </c>
-      <c r="C774" t="s">
-        <v>952</v>
       </c>
       <c r="E774">
         <v>246</v>
@@ -14829,7 +15179,7 @@
         <v>667</v>
       </c>
       <c r="B775" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C775" t="s">
         <v>508</v>
@@ -14843,10 +15193,10 @@
         <v>667</v>
       </c>
       <c r="B776" t="s">
+        <v>953</v>
+      </c>
+      <c r="C776" t="s">
         <v>954</v>
-      </c>
-      <c r="C776" t="s">
-        <v>955</v>
       </c>
       <c r="E776">
         <v>247</v>
@@ -14857,7 +15207,7 @@
         <v>667</v>
       </c>
       <c r="B777" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C777" t="s">
         <v>510</v>
@@ -14871,10 +15221,10 @@
         <v>667</v>
       </c>
       <c r="B778" t="s">
+        <v>956</v>
+      </c>
+      <c r="C778" t="s">
         <v>957</v>
-      </c>
-      <c r="C778" t="s">
-        <v>958</v>
       </c>
       <c r="E778">
         <v>248</v>
@@ -14885,7 +15235,10 @@
         <v>667</v>
       </c>
       <c r="B779" t="s">
-        <v>959</v>
+        <v>958</v>
+      </c>
+      <c r="C779" t="s">
+        <v>1317</v>
       </c>
       <c r="E779">
         <v>249</v>
@@ -14896,7 +15249,10 @@
         <v>667</v>
       </c>
       <c r="B780" t="s">
-        <v>960</v>
+        <v>959</v>
+      </c>
+      <c r="C780" t="s">
+        <v>1317</v>
       </c>
       <c r="E780">
         <v>250</v>
@@ -14907,7 +15263,10 @@
         <v>667</v>
       </c>
       <c r="B781" t="s">
-        <v>961</v>
+        <v>960</v>
+      </c>
+      <c r="C781" t="s">
+        <v>1317</v>
       </c>
       <c r="E781">
         <v>251</v>
@@ -14918,7 +15277,10 @@
         <v>667</v>
       </c>
       <c r="B782" t="s">
-        <v>962</v>
+        <v>961</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1317</v>
       </c>
       <c r="E782">
         <v>252</v>
@@ -14929,7 +15291,10 @@
         <v>667</v>
       </c>
       <c r="B783" t="s">
-        <v>963</v>
+        <v>962</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1317</v>
       </c>
       <c r="E783">
         <v>253</v>
@@ -14940,7 +15305,10 @@
         <v>667</v>
       </c>
       <c r="B784" t="s">
-        <v>964</v>
+        <v>963</v>
+      </c>
+      <c r="C784" t="s">
+        <v>1317</v>
       </c>
       <c r="E784">
         <v>254</v>
@@ -14951,7 +15319,10 @@
         <v>667</v>
       </c>
       <c r="B785" t="s">
-        <v>965</v>
+        <v>964</v>
+      </c>
+      <c r="C785" t="s">
+        <v>1317</v>
       </c>
       <c r="E785">
         <v>255</v>
@@ -14962,7 +15333,10 @@
         <v>667</v>
       </c>
       <c r="B786" t="s">
-        <v>966</v>
+        <v>965</v>
+      </c>
+      <c r="C786" t="s">
+        <v>1317</v>
       </c>
       <c r="E786">
         <v>256</v>
@@ -14973,7 +15347,10 @@
         <v>667</v>
       </c>
       <c r="B787" t="s">
-        <v>967</v>
+        <v>966</v>
+      </c>
+      <c r="C787" t="s">
+        <v>1317</v>
       </c>
       <c r="E787">
         <v>257</v>
@@ -14984,7 +15361,10 @@
         <v>667</v>
       </c>
       <c r="B788" t="s">
-        <v>968</v>
+        <v>967</v>
+      </c>
+      <c r="C788" t="s">
+        <v>1317</v>
       </c>
       <c r="E788">
         <v>258</v>
@@ -14995,7 +15375,10 @@
         <v>667</v>
       </c>
       <c r="B789" t="s">
-        <v>969</v>
+        <v>968</v>
+      </c>
+      <c r="C789" t="s">
+        <v>1317</v>
       </c>
       <c r="E789">
         <v>259</v>
@@ -15006,7 +15389,10 @@
         <v>667</v>
       </c>
       <c r="B790" t="s">
-        <v>970</v>
+        <v>969</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1317</v>
       </c>
       <c r="E790">
         <v>260</v>
@@ -15017,7 +15403,10 @@
         <v>667</v>
       </c>
       <c r="B791" t="s">
-        <v>971</v>
+        <v>970</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1317</v>
       </c>
       <c r="E791">
         <v>261</v>
@@ -15028,7 +15417,10 @@
         <v>667</v>
       </c>
       <c r="B792" t="s">
-        <v>972</v>
+        <v>971</v>
+      </c>
+      <c r="C792" t="s">
+        <v>1317</v>
       </c>
       <c r="E792">
         <v>262</v>
@@ -15039,7 +15431,7 @@
         <v>667</v>
       </c>
       <c r="B793" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C793" t="s">
         <v>540</v>
@@ -15053,10 +15445,10 @@
         <v>667</v>
       </c>
       <c r="B794" t="s">
+        <v>973</v>
+      </c>
+      <c r="C794" t="s">
         <v>974</v>
-      </c>
-      <c r="C794" t="s">
-        <v>975</v>
       </c>
       <c r="E794">
         <v>263</v>
@@ -15067,10 +15459,10 @@
         <v>667</v>
       </c>
       <c r="B795" t="s">
+        <v>975</v>
+      </c>
+      <c r="C795" t="s">
         <v>976</v>
-      </c>
-      <c r="C795" t="s">
-        <v>977</v>
       </c>
       <c r="E795">
         <v>263</v>
@@ -15081,10 +15473,10 @@
         <v>667</v>
       </c>
       <c r="B796" t="s">
+        <v>977</v>
+      </c>
+      <c r="C796" t="s">
         <v>978</v>
-      </c>
-      <c r="C796" t="s">
-        <v>979</v>
       </c>
       <c r="E796">
         <v>263</v>
@@ -15095,7 +15487,7 @@
         <v>667</v>
       </c>
       <c r="B797" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C797" t="s">
         <v>542</v>
@@ -15109,10 +15501,10 @@
         <v>667</v>
       </c>
       <c r="B798" t="s">
+        <v>980</v>
+      </c>
+      <c r="C798" t="s">
         <v>981</v>
-      </c>
-      <c r="C798" t="s">
-        <v>982</v>
       </c>
       <c r="E798">
         <v>264</v>
@@ -15123,7 +15515,7 @@
         <v>667</v>
       </c>
       <c r="B799" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C799" t="s">
         <v>544</v>
@@ -15137,10 +15529,10 @@
         <v>667</v>
       </c>
       <c r="B800" t="s">
+        <v>983</v>
+      </c>
+      <c r="C800" t="s">
         <v>984</v>
-      </c>
-      <c r="C800" t="s">
-        <v>985</v>
       </c>
       <c r="E800">
         <v>265</v>
@@ -15151,10 +15543,10 @@
         <v>667</v>
       </c>
       <c r="B801" t="s">
+        <v>985</v>
+      </c>
+      <c r="C801" t="s">
         <v>986</v>
-      </c>
-      <c r="C801" t="s">
-        <v>987</v>
       </c>
       <c r="E801">
         <v>265</v>
@@ -15165,7 +15557,7 @@
         <v>667</v>
       </c>
       <c r="B802" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C802" t="s">
         <v>546</v>
@@ -15179,10 +15571,10 @@
         <v>667</v>
       </c>
       <c r="B803" t="s">
+        <v>988</v>
+      </c>
+      <c r="C803" t="s">
         <v>989</v>
-      </c>
-      <c r="C803" t="s">
-        <v>990</v>
       </c>
       <c r="E803">
         <v>266</v>
@@ -15193,7 +15585,10 @@
         <v>667</v>
       </c>
       <c r="B804" t="s">
-        <v>991</v>
+        <v>990</v>
+      </c>
+      <c r="C804" t="s">
+        <v>1317</v>
       </c>
       <c r="E804">
         <v>267</v>
@@ -15204,7 +15599,10 @@
         <v>667</v>
       </c>
       <c r="B805" t="s">
-        <v>992</v>
+        <v>991</v>
+      </c>
+      <c r="C805" t="s">
+        <v>1317</v>
       </c>
       <c r="E805">
         <v>268</v>
@@ -15215,7 +15613,10 @@
         <v>667</v>
       </c>
       <c r="B806" t="s">
-        <v>993</v>
+        <v>992</v>
+      </c>
+      <c r="C806" t="s">
+        <v>1317</v>
       </c>
       <c r="E806">
         <v>269</v>
@@ -15226,7 +15627,7 @@
         <v>667</v>
       </c>
       <c r="B807" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C807" t="s">
         <v>554</v>
@@ -15240,10 +15641,10 @@
         <v>667</v>
       </c>
       <c r="B808" t="s">
+        <v>994</v>
+      </c>
+      <c r="C808" t="s">
         <v>995</v>
-      </c>
-      <c r="C808" t="s">
-        <v>996</v>
       </c>
       <c r="E808">
         <v>270</v>
@@ -15254,10 +15655,10 @@
         <v>667</v>
       </c>
       <c r="B809" t="s">
+        <v>996</v>
+      </c>
+      <c r="C809" t="s">
         <v>997</v>
-      </c>
-      <c r="C809" t="s">
-        <v>998</v>
       </c>
       <c r="E809">
         <v>270</v>
@@ -15268,10 +15669,10 @@
         <v>667</v>
       </c>
       <c r="B810" t="s">
+        <v>998</v>
+      </c>
+      <c r="C810" t="s">
         <v>999</v>
-      </c>
-      <c r="C810" t="s">
-        <v>1000</v>
       </c>
       <c r="E810">
         <v>270</v>
@@ -15282,10 +15683,10 @@
         <v>667</v>
       </c>
       <c r="B811" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C811" t="s">
         <v>1001</v>
-      </c>
-      <c r="C811" t="s">
-        <v>1002</v>
       </c>
       <c r="E811">
         <v>271</v>
@@ -15296,10 +15697,10 @@
         <v>667</v>
       </c>
       <c r="B812" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C812" t="s">
         <v>1003</v>
-      </c>
-      <c r="C812" t="s">
-        <v>1004</v>
       </c>
       <c r="E812">
         <v>271</v>
@@ -15310,7 +15711,10 @@
         <v>667</v>
       </c>
       <c r="B813" t="s">
-        <v>1005</v>
+        <v>1004</v>
+      </c>
+      <c r="C813" t="s">
+        <v>1317</v>
       </c>
       <c r="E813">
         <v>272</v>
@@ -15321,7 +15725,7 @@
         <v>667</v>
       </c>
       <c r="B814" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C814" t="s">
         <v>560</v>
@@ -15335,7 +15739,7 @@
         <v>667</v>
       </c>
       <c r="B815" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C815" t="s">
         <v>36</v>
@@ -15349,7 +15753,10 @@
         <v>667</v>
       </c>
       <c r="B816" t="s">
-        <v>1008</v>
+        <v>1007</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1317</v>
       </c>
       <c r="E816">
         <v>274</v>
@@ -15360,7 +15767,10 @@
         <v>667</v>
       </c>
       <c r="B817" t="s">
-        <v>1009</v>
+        <v>1008</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1317</v>
       </c>
       <c r="E817">
         <v>275</v>
@@ -15371,7 +15781,7 @@
         <v>667</v>
       </c>
       <c r="B818" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C818" t="s">
         <v>566</v>
@@ -15385,10 +15795,10 @@
         <v>667</v>
       </c>
       <c r="B819" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C819" t="s">
         <v>1011</v>
-      </c>
-      <c r="C819" t="s">
-        <v>1012</v>
       </c>
       <c r="E819">
         <v>276</v>
@@ -15399,7 +15809,7 @@
         <v>667</v>
       </c>
       <c r="B820" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C820" t="s">
         <v>568</v>
@@ -15413,10 +15823,10 @@
         <v>667</v>
       </c>
       <c r="B821" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C821" t="s">
         <v>1014</v>
-      </c>
-      <c r="C821" t="s">
-        <v>1015</v>
       </c>
       <c r="E821">
         <v>277</v>
@@ -15427,10 +15837,10 @@
         <v>667</v>
       </c>
       <c r="B822" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C822" t="s">
         <v>1016</v>
-      </c>
-      <c r="C822" t="s">
-        <v>1017</v>
       </c>
       <c r="E822">
         <v>277</v>
@@ -15441,7 +15851,7 @@
         <v>667</v>
       </c>
       <c r="B823" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C823" t="s">
         <v>570</v>
@@ -15455,10 +15865,10 @@
         <v>667</v>
       </c>
       <c r="B824" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C824" t="s">
         <v>1019</v>
-      </c>
-      <c r="C824" t="s">
-        <v>1020</v>
       </c>
       <c r="E824">
         <v>278</v>
@@ -15469,10 +15879,10 @@
         <v>667</v>
       </c>
       <c r="B825" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C825" t="s">
         <v>1021</v>
-      </c>
-      <c r="C825" t="s">
-        <v>1022</v>
       </c>
       <c r="E825">
         <v>278</v>
@@ -15483,7 +15893,10 @@
         <v>667</v>
       </c>
       <c r="B826" t="s">
-        <v>1023</v>
+        <v>1022</v>
+      </c>
+      <c r="C826" t="s">
+        <v>1317</v>
       </c>
       <c r="E826">
         <v>279</v>
@@ -15494,7 +15907,7 @@
         <v>667</v>
       </c>
       <c r="B827" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C827" t="s">
         <v>574</v>
@@ -15508,10 +15921,10 @@
         <v>667</v>
       </c>
       <c r="B828" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C828" t="s">
         <v>1025</v>
-      </c>
-      <c r="C828" t="s">
-        <v>1026</v>
       </c>
       <c r="E828">
         <v>280</v>
@@ -15522,7 +15935,7 @@
         <v>667</v>
       </c>
       <c r="B829" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C829" t="s">
         <v>576</v>
@@ -15536,10 +15949,10 @@
         <v>667</v>
       </c>
       <c r="B830" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C830" t="s">
         <v>1028</v>
-      </c>
-      <c r="C830" t="s">
-        <v>1029</v>
       </c>
       <c r="E830">
         <v>281</v>
@@ -15550,7 +15963,7 @@
         <v>667</v>
       </c>
       <c r="B831" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C831" t="s">
         <v>578</v>
@@ -15564,10 +15977,10 @@
         <v>667</v>
       </c>
       <c r="B832" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C832" t="s">
         <v>1031</v>
-      </c>
-      <c r="C832" t="s">
-        <v>1032</v>
       </c>
       <c r="E832">
         <v>282</v>
@@ -15578,7 +15991,7 @@
         <v>667</v>
       </c>
       <c r="B833" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C833" t="s">
         <v>580</v>
@@ -15592,10 +16005,10 @@
         <v>667</v>
       </c>
       <c r="B834" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C834" t="s">
         <v>1034</v>
-      </c>
-      <c r="C834" t="s">
-        <v>1035</v>
       </c>
       <c r="E834">
         <v>283</v>
@@ -15606,7 +16019,10 @@
         <v>667</v>
       </c>
       <c r="B835" t="s">
-        <v>1036</v>
+        <v>1035</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1317</v>
       </c>
       <c r="E835">
         <v>284</v>
@@ -15617,7 +16033,10 @@
         <v>667</v>
       </c>
       <c r="B836" t="s">
-        <v>1037</v>
+        <v>1036</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1317</v>
       </c>
       <c r="E836">
         <v>285</v>
@@ -15628,7 +16047,7 @@
         <v>667</v>
       </c>
       <c r="B837" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C837" t="s">
         <v>586</v>
@@ -15642,10 +16061,10 @@
         <v>667</v>
       </c>
       <c r="B838" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C838" t="s">
         <v>1039</v>
-      </c>
-      <c r="C838" t="s">
-        <v>1040</v>
       </c>
       <c r="E838">
         <v>286</v>
@@ -15656,7 +16075,10 @@
         <v>667</v>
       </c>
       <c r="B839" t="s">
-        <v>1041</v>
+        <v>1040</v>
+      </c>
+      <c r="C839" t="s">
+        <v>1317</v>
       </c>
       <c r="E839">
         <v>287</v>
@@ -15667,7 +16089,7 @@
         <v>667</v>
       </c>
       <c r="B840" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C840" t="s">
         <v>590</v>
@@ -15681,10 +16103,10 @@
         <v>667</v>
       </c>
       <c r="B841" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C841" t="s">
         <v>1043</v>
-      </c>
-      <c r="C841" t="s">
-        <v>1044</v>
       </c>
       <c r="E841">
         <v>288</v>
@@ -15695,7 +16117,10 @@
         <v>667</v>
       </c>
       <c r="B842" t="s">
-        <v>1045</v>
+        <v>1044</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1317</v>
       </c>
       <c r="E842">
         <v>289</v>
@@ -15706,7 +16131,10 @@
         <v>667</v>
       </c>
       <c r="B843" t="s">
-        <v>1046</v>
+        <v>1045</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1317</v>
       </c>
       <c r="E843">
         <v>290</v>
@@ -15717,7 +16145,10 @@
         <v>667</v>
       </c>
       <c r="B844" t="s">
-        <v>1047</v>
+        <v>1046</v>
+      </c>
+      <c r="C844" t="s">
+        <v>1317</v>
       </c>
       <c r="E844">
         <v>291</v>
@@ -15728,7 +16159,10 @@
         <v>667</v>
       </c>
       <c r="B845" t="s">
-        <v>1048</v>
+        <v>1047</v>
+      </c>
+      <c r="C845" t="s">
+        <v>1317</v>
       </c>
       <c r="E845">
         <v>292</v>
@@ -15739,10 +16173,10 @@
         <v>667</v>
       </c>
       <c r="B846" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C846" t="s">
         <v>1049</v>
-      </c>
-      <c r="C846" t="s">
-        <v>1050</v>
       </c>
       <c r="E846">
         <v>293</v>
@@ -15753,10 +16187,10 @@
         <v>667</v>
       </c>
       <c r="B847" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C847" t="s">
         <v>1051</v>
-      </c>
-      <c r="C847" t="s">
-        <v>1052</v>
       </c>
       <c r="E847">
         <v>293</v>
@@ -15767,10 +16201,10 @@
         <v>667</v>
       </c>
       <c r="B848" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C848" t="s">
         <v>1053</v>
-      </c>
-      <c r="C848" t="s">
-        <v>1054</v>
       </c>
       <c r="E848">
         <v>294</v>
@@ -15781,10 +16215,10 @@
         <v>667</v>
       </c>
       <c r="B849" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C849" t="s">
         <v>1055</v>
-      </c>
-      <c r="C849" t="s">
-        <v>1056</v>
       </c>
       <c r="E849">
         <v>294</v>
@@ -15795,7 +16229,10 @@
         <v>667</v>
       </c>
       <c r="B850" t="s">
-        <v>1057</v>
+        <v>1056</v>
+      </c>
+      <c r="C850" t="s">
+        <v>1317</v>
       </c>
       <c r="E850">
         <v>295</v>
@@ -15806,7 +16243,7 @@
         <v>667</v>
       </c>
       <c r="B851" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C851" t="s">
         <v>606</v>
@@ -15820,10 +16257,10 @@
         <v>667</v>
       </c>
       <c r="B852" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C852" t="s">
         <v>1059</v>
-      </c>
-      <c r="C852" t="s">
-        <v>1060</v>
       </c>
       <c r="E852">
         <v>295</v>
@@ -15834,7 +16271,10 @@
         <v>667</v>
       </c>
       <c r="B853" t="s">
-        <v>1061</v>
+        <v>1060</v>
+      </c>
+      <c r="C853" t="s">
+        <v>1317</v>
       </c>
       <c r="E853">
         <v>297</v>
@@ -15845,7 +16285,10 @@
         <v>667</v>
       </c>
       <c r="B854" t="s">
-        <v>1062</v>
+        <v>1061</v>
+      </c>
+      <c r="C854" t="s">
+        <v>1317</v>
       </c>
       <c r="E854">
         <v>298</v>
@@ -15856,7 +16299,10 @@
         <v>667</v>
       </c>
       <c r="B855" t="s">
-        <v>1063</v>
+        <v>1062</v>
+      </c>
+      <c r="C855" t="s">
+        <v>1317</v>
       </c>
       <c r="E855">
         <v>299</v>
@@ -15867,7 +16313,7 @@
         <v>667</v>
       </c>
       <c r="B856" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C856" t="s">
         <v>614</v>
@@ -15881,10 +16327,10 @@
         <v>667</v>
       </c>
       <c r="B857" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C857" t="s">
         <v>1065</v>
-      </c>
-      <c r="C857" t="s">
-        <v>1066</v>
       </c>
       <c r="E857">
         <v>300</v>
@@ -15895,10 +16341,10 @@
         <v>667</v>
       </c>
       <c r="B858" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C858" t="s">
         <v>1067</v>
-      </c>
-      <c r="C858" t="s">
-        <v>1068</v>
       </c>
       <c r="E858">
         <v>301</v>
@@ -15909,7 +16355,7 @@
         <v>667</v>
       </c>
       <c r="B859" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C859" t="s">
         <v>616</v>
@@ -15923,7 +16369,10 @@
         <v>667</v>
       </c>
       <c r="B860" t="s">
-        <v>1070</v>
+        <v>1069</v>
+      </c>
+      <c r="C860" t="s">
+        <v>1317</v>
       </c>
       <c r="E860">
         <v>302</v>
@@ -15934,7 +16383,10 @@
         <v>667</v>
       </c>
       <c r="B861" t="s">
-        <v>1071</v>
+        <v>1070</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1317</v>
       </c>
       <c r="E861">
         <v>303</v>
@@ -15945,7 +16397,10 @@
         <v>667</v>
       </c>
       <c r="B862" t="s">
-        <v>1072</v>
+        <v>1071</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1317</v>
       </c>
       <c r="E862">
         <v>304</v>
@@ -15956,7 +16411,10 @@
         <v>667</v>
       </c>
       <c r="B863" t="s">
-        <v>1073</v>
+        <v>1072</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1317</v>
       </c>
       <c r="E863">
         <v>305</v>
@@ -15967,7 +16425,10 @@
         <v>667</v>
       </c>
       <c r="B864" t="s">
-        <v>1074</v>
+        <v>1073</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1317</v>
       </c>
       <c r="E864">
         <v>306</v>
@@ -15978,7 +16439,10 @@
         <v>667</v>
       </c>
       <c r="B865" t="s">
-        <v>1075</v>
+        <v>1074</v>
+      </c>
+      <c r="C865" t="s">
+        <v>1317</v>
       </c>
       <c r="E865">
         <v>307</v>
@@ -15989,7 +16453,10 @@
         <v>667</v>
       </c>
       <c r="B866" t="s">
-        <v>1076</v>
+        <v>1075</v>
+      </c>
+      <c r="C866" t="s">
+        <v>1317</v>
       </c>
       <c r="E866">
         <v>308</v>
@@ -16000,7 +16467,10 @@
         <v>667</v>
       </c>
       <c r="B867" t="s">
-        <v>1077</v>
+        <v>1076</v>
+      </c>
+      <c r="C867" t="s">
+        <v>1317</v>
       </c>
       <c r="E867">
         <v>309</v>
@@ -16011,7 +16481,7 @@
         <v>667</v>
       </c>
       <c r="B868" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C868" t="s">
         <v>634</v>
@@ -16025,10 +16495,10 @@
         <v>667</v>
       </c>
       <c r="B869" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C869" t="s">
         <v>1079</v>
-      </c>
-      <c r="C869" t="s">
-        <v>1080</v>
       </c>
       <c r="E869">
         <v>310</v>
@@ -16039,7 +16509,10 @@
         <v>667</v>
       </c>
       <c r="B870" t="s">
-        <v>1081</v>
+        <v>1080</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1317</v>
       </c>
       <c r="E870">
         <v>311</v>
@@ -16050,7 +16523,7 @@
         <v>667</v>
       </c>
       <c r="B871" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C871" t="s">
         <v>638</v>
@@ -16064,10 +16537,10 @@
         <v>667</v>
       </c>
       <c r="B872" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C872" t="s">
         <v>1083</v>
-      </c>
-      <c r="C872" t="s">
-        <v>1084</v>
       </c>
       <c r="E872">
         <v>312</v>
@@ -16078,7 +16551,7 @@
         <v>667</v>
       </c>
       <c r="B873" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C873" t="s">
         <v>640</v>
@@ -16092,10 +16565,10 @@
         <v>667</v>
       </c>
       <c r="B874" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C874" t="s">
         <v>1086</v>
-      </c>
-      <c r="C874" t="s">
-        <v>1087</v>
       </c>
       <c r="E874">
         <v>313</v>
@@ -16106,7 +16579,7 @@
         <v>667</v>
       </c>
       <c r="B875" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C875" t="s">
         <v>642</v>
@@ -16120,10 +16593,10 @@
         <v>667</v>
       </c>
       <c r="B876" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C876" t="s">
         <v>1089</v>
-      </c>
-      <c r="C876" t="s">
-        <v>1090</v>
       </c>
       <c r="E876">
         <v>314</v>
@@ -16134,7 +16607,7 @@
         <v>667</v>
       </c>
       <c r="B877" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C877" t="s">
         <v>644</v>
@@ -16148,10 +16621,10 @@
         <v>667</v>
       </c>
       <c r="B878" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C878" t="s">
         <v>1092</v>
-      </c>
-      <c r="C878" t="s">
-        <v>1093</v>
       </c>
       <c r="E878">
         <v>315</v>
@@ -16162,7 +16635,10 @@
         <v>667</v>
       </c>
       <c r="B879" t="s">
-        <v>1094</v>
+        <v>1093</v>
+      </c>
+      <c r="C879" t="s">
+        <v>1317</v>
       </c>
       <c r="E879">
         <v>316</v>
@@ -16173,7 +16649,7 @@
         <v>667</v>
       </c>
       <c r="B880" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C880" t="s">
         <v>648</v>
@@ -16187,10 +16663,10 @@
         <v>667</v>
       </c>
       <c r="B881" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C881" t="s">
         <v>1096</v>
-      </c>
-      <c r="C881" t="s">
-        <v>1097</v>
       </c>
       <c r="E881">
         <v>317</v>
@@ -16201,7 +16677,7 @@
         <v>667</v>
       </c>
       <c r="B882" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C882" t="s">
         <v>650</v>
@@ -16215,10 +16691,10 @@
         <v>667</v>
       </c>
       <c r="B883" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C883" t="s">
         <v>1099</v>
-      </c>
-      <c r="C883" t="s">
-        <v>1100</v>
       </c>
       <c r="E883">
         <v>318</v>
@@ -16229,7 +16705,7 @@
         <v>667</v>
       </c>
       <c r="B884" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C884" t="s">
         <v>652</v>
@@ -16243,10 +16719,10 @@
         <v>667</v>
       </c>
       <c r="B885" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C885" t="s">
         <v>1102</v>
-      </c>
-      <c r="C885" t="s">
-        <v>1103</v>
       </c>
       <c r="E885">
         <v>319</v>
@@ -16257,7 +16733,10 @@
         <v>667</v>
       </c>
       <c r="B886" t="s">
-        <v>1104</v>
+        <v>1103</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1317</v>
       </c>
       <c r="E886">
         <v>320</v>
@@ -16268,7 +16747,10 @@
         <v>667</v>
       </c>
       <c r="B887" t="s">
-        <v>1105</v>
+        <v>1104</v>
+      </c>
+      <c r="C887" t="s">
+        <v>1317</v>
       </c>
       <c r="E887">
         <v>321</v>
@@ -16279,7 +16761,10 @@
         <v>667</v>
       </c>
       <c r="B888" t="s">
-        <v>1106</v>
+        <v>1105</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1317</v>
       </c>
       <c r="E888">
         <v>322</v>
@@ -16290,10 +16775,10 @@
         <v>667</v>
       </c>
       <c r="B889" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C889" t="s">
         <v>1107</v>
-      </c>
-      <c r="C889" t="s">
-        <v>1108</v>
       </c>
       <c r="E889">
         <v>323</v>
@@ -16304,10 +16789,10 @@
         <v>667</v>
       </c>
       <c r="B890" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C890" t="s">
         <v>1109</v>
-      </c>
-      <c r="C890" t="s">
-        <v>1110</v>
       </c>
       <c r="E890">
         <v>323</v>
@@ -16318,7 +16803,10 @@
         <v>667</v>
       </c>
       <c r="B891" t="s">
-        <v>1111</v>
+        <v>1110</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1317</v>
       </c>
       <c r="E891">
         <v>324</v>
@@ -16329,7 +16817,10 @@
         <v>667</v>
       </c>
       <c r="B892" t="s">
-        <v>1112</v>
+        <v>1111</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1317</v>
       </c>
       <c r="E892">
         <v>325</v>
@@ -16340,51 +16831,54 @@
         <v>667</v>
       </c>
       <c r="B893" t="s">
-        <v>1113</v>
+        <v>1112</v>
+      </c>
+      <c r="C893" t="s">
+        <v>1317</v>
       </c>
       <c r="E893">
         <v>326</v>
       </c>
       <c r="F893" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B894" t="s">
         <v>8</v>
       </c>
       <c r="C894" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B895" t="s">
         <v>10</v>
       </c>
       <c r="C895" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B896" t="s">
         <v>12</v>
       </c>
       <c r="C896" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B897" t="s">
         <v>8</v>
@@ -16395,597 +16889,594 @@
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B898" t="s">
         <v>10</v>
       </c>
       <c r="C898" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B899" t="s">
         <v>8</v>
       </c>
       <c r="C899" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B900" t="s">
         <v>10</v>
       </c>
       <c r="C900" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B901" t="s">
         <v>8</v>
       </c>
       <c r="C901" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B902" t="s">
         <v>10</v>
       </c>
       <c r="C902" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B903" t="s">
         <v>12</v>
       </c>
       <c r="C903" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B904" t="s">
         <v>17</v>
       </c>
       <c r="C904" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B905" t="s">
         <v>19</v>
       </c>
       <c r="C905" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B906" t="s">
         <v>20</v>
       </c>
       <c r="C906" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B907" t="s">
         <v>21</v>
       </c>
       <c r="C907" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B908" t="s">
         <v>1133</v>
       </c>
-      <c r="B908" t="s">
+      <c r="C908" t="s">
         <v>1134</v>
-      </c>
-      <c r="C908" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B909" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C909" t="s">
         <v>1136</v>
-      </c>
-      <c r="C909" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B910" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C910" t="s">
         <v>1138</v>
-      </c>
-      <c r="C910" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B911" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C911" t="s">
         <v>1140</v>
-      </c>
-      <c r="C911" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B912" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C912" t="s">
         <v>1142</v>
-      </c>
-      <c r="C912" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B913" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C913" t="s">
         <v>1144</v>
-      </c>
-      <c r="C913" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B914" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C914" t="s">
         <v>1146</v>
-      </c>
-      <c r="C914" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B915" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C915" t="s">
         <v>1148</v>
-      </c>
-      <c r="C915" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B916" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C916" t="s">
         <v>1150</v>
-      </c>
-      <c r="C916" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B917" t="s">
         <v>1152</v>
       </c>
-      <c r="B917" t="s">
-        <v>1208</v>
-      </c>
       <c r="C917" t="s">
-        <v>1209</v>
+        <v>1153</v>
       </c>
       <c r="F917" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="918" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A918" s="4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B918" s="4" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C918" s="4" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B918" t="s">
         <v>1154</v>
       </c>
-      <c r="F918" s="4" t="s">
-        <v>1134</v>
+      <c r="C918" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F918" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B919" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C919" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F919" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B920" t="s">
-        <v>1157</v>
+        <v>1207</v>
       </c>
       <c r="C920" t="s">
-        <v>1158</v>
+        <v>1208</v>
       </c>
       <c r="F920" t="s">
-        <v>1134</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B921" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C921" t="s">
         <v>1159</v>
       </c>
-      <c r="C921" t="s">
+      <c r="F921" t="s">
         <v>1160</v>
-      </c>
-      <c r="F921" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B922" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C922" t="s">
         <v>1162</v>
       </c>
-      <c r="C922" t="s">
+      <c r="F922" t="s">
         <v>1163</v>
-      </c>
-      <c r="F922" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B923" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C923" t="s">
         <v>1165</v>
       </c>
-      <c r="C923" t="s">
-        <v>1166</v>
-      </c>
       <c r="F923" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B924" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C924" t="s">
         <v>1167</v>
       </c>
-      <c r="C924" t="s">
-        <v>1168</v>
-      </c>
       <c r="F924" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B925" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C925" t="s">
         <v>1169</v>
       </c>
-      <c r="C925" t="s">
-        <v>1170</v>
-      </c>
       <c r="F925" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B926" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C926" t="s">
         <v>1171</v>
       </c>
-      <c r="C926" t="s">
-        <v>1172</v>
-      </c>
       <c r="F926" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B927" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C927" t="s">
         <v>1173</v>
       </c>
-      <c r="C927" t="s">
-        <v>1174</v>
-      </c>
       <c r="F927" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B928" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C928" t="s">
         <v>1175</v>
       </c>
-      <c r="C928" t="s">
-        <v>1176</v>
-      </c>
       <c r="F928" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B929" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C929" t="s">
         <v>1177</v>
       </c>
-      <c r="C929" t="s">
-        <v>1178</v>
-      </c>
       <c r="F929" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B930" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C930" t="s">
         <v>1179</v>
       </c>
-      <c r="C930" t="s">
-        <v>1180</v>
-      </c>
       <c r="F930" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B931" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C931" t="s">
         <v>1181</v>
       </c>
-      <c r="C931" t="s">
+      <c r="F931" t="s">
         <v>1182</v>
-      </c>
-      <c r="F931" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B932" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C932" t="s">
         <v>1184</v>
       </c>
-      <c r="C932" t="s">
-        <v>1185</v>
-      </c>
       <c r="F932" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B933" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C933" t="s">
         <v>1186</v>
       </c>
-      <c r="C933" t="s">
-        <v>1187</v>
-      </c>
       <c r="F933" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B934" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C934" t="s">
         <v>1188</v>
       </c>
-      <c r="C934" t="s">
+      <c r="F934" t="s">
         <v>1189</v>
-      </c>
-      <c r="F934" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B935" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C935" t="s">
         <v>1191</v>
       </c>
-      <c r="C935" t="s">
-        <v>1192</v>
-      </c>
       <c r="F935" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B936" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C936" t="s">
         <v>1193</v>
       </c>
-      <c r="C936" t="s">
-        <v>1194</v>
-      </c>
       <c r="F936" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B937" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C937" t="s">
         <v>1195</v>
       </c>
-      <c r="C937" t="s">
+      <c r="F937" t="s">
         <v>1196</v>
-      </c>
-      <c r="F937" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B938" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C938" t="s">
         <v>1198</v>
       </c>
-      <c r="C938" t="s">
-        <v>1199</v>
-      </c>
       <c r="F938" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B939" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C939" t="s">
         <v>1200</v>
       </c>
-      <c r="C939" t="s">
-        <v>1201</v>
-      </c>
       <c r="F939" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B940" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C940" t="s">
         <v>1202</v>
       </c>
-      <c r="C940" t="s">
-        <v>1203</v>
-      </c>
       <c r="F940" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B941" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C941" t="s">
         <v>1204</v>
       </c>
-      <c r="C941" t="s">
-        <v>1205</v>
-      </c>
       <c r="F941" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B942" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C942" t="s">
         <v>1206</v>
       </c>
-      <c r="C942" t="s">
-        <v>1207</v>
-      </c>
       <c r="F942" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
-        <v>1152</v>
+        <v>1294</v>
       </c>
       <c r="B943" t="s">
-        <v>1208</v>
+        <v>8</v>
       </c>
       <c r="C943" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F943" t="s">
-        <v>1150</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B944" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C944" t="s">
         <v>1211</v>
@@ -16993,21 +17484,21 @@
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
-        <v>1295</v>
+        <v>1209</v>
       </c>
       <c r="B945" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C945" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B946" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C946" t="s">
         <v>1211</v>
@@ -17015,21 +17506,21 @@
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="B947" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C947" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B948" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C948" t="s">
         <v>1214</v>
@@ -17037,10 +17528,10 @@
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B949" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C949" t="s">
         <v>1215</v>
@@ -17048,10 +17539,10 @@
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B950" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C950" t="s">
         <v>1216</v>
@@ -17059,10 +17550,10 @@
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B951" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C951" t="s">
         <v>1217</v>
@@ -17070,10 +17561,10 @@
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B952" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C952" t="s">
         <v>1218</v>
@@ -17081,32 +17572,32 @@
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B953" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C953" t="s">
-        <v>1219</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B954" t="s">
+        <v>8</v>
+      </c>
+      <c r="C954" t="s">
         <v>1213</v>
-      </c>
-      <c r="B954" t="s">
-        <v>21</v>
-      </c>
-      <c r="C954" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B955" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C955" t="s">
         <v>1214</v>
@@ -17114,10 +17605,10 @@
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B956" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C956" t="s">
         <v>1215</v>
@@ -17125,10 +17616,10 @@
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B957" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C957" t="s">
         <v>1216</v>
@@ -17136,10 +17627,10 @@
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B958" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C958" t="s">
         <v>1217</v>
@@ -17147,10 +17638,10 @@
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B959" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C959" t="s">
         <v>1218</v>
@@ -17158,13 +17649,13 @@
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B960" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C960" t="s">
-        <v>1219</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.3">
@@ -17172,18 +17663,18 @@
         <v>1220</v>
       </c>
       <c r="B961" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C961" t="s">
-        <v>2</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B962" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C962" t="s">
         <v>1211</v>
@@ -17194,18 +17685,18 @@
         <v>1221</v>
       </c>
       <c r="B963" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C963" t="s">
-        <v>1212</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B964" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C964" t="s">
         <v>1223</v>
@@ -17213,10 +17704,10 @@
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B965" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C965" t="s">
         <v>1224</v>
@@ -17224,10 +17715,10 @@
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B966" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C966" t="s">
         <v>1225</v>
@@ -17235,10 +17726,10 @@
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B967" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C967" t="s">
         <v>1226</v>
@@ -17246,10 +17737,10 @@
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B968" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C968" t="s">
         <v>1227</v>
@@ -17257,10 +17748,10 @@
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B969" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C969" t="s">
         <v>1228</v>
@@ -17268,10 +17759,10 @@
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B970" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C970" t="s">
         <v>1229</v>
@@ -17279,32 +17770,32 @@
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B971" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C971" t="s">
-        <v>1230</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
-        <v>1222</v>
+        <v>1230</v>
       </c>
       <c r="B972" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C972" t="s">
-        <v>2</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B973" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C973" t="s">
         <v>1232</v>
@@ -17312,10 +17803,10 @@
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B974" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C974" t="s">
         <v>1233</v>
@@ -17323,10 +17814,10 @@
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B975" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C975" t="s">
         <v>1234</v>
@@ -17334,10 +17825,10 @@
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B976" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C976" t="s">
         <v>1235</v>
@@ -17345,10 +17836,10 @@
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B977" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C977" t="s">
         <v>1236</v>
@@ -17356,10 +17847,10 @@
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B978" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C978" t="s">
         <v>1237</v>
@@ -17367,32 +17858,32 @@
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B979" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C979" t="s">
-        <v>1238</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
-        <v>1231</v>
+        <v>1238</v>
       </c>
       <c r="B980" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C980" t="s">
-        <v>2</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B981" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C981" t="s">
         <v>1211</v>
@@ -17403,18 +17894,18 @@
         <v>1239</v>
       </c>
       <c r="B982" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C982" t="s">
-        <v>1212</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B983" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C983" t="s">
         <v>1241</v>
@@ -17422,10 +17913,10 @@
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B984" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C984" t="s">
         <v>1242</v>
@@ -17433,32 +17924,32 @@
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B985" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C985" t="s">
-        <v>1243</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="B986" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C986" t="s">
-        <v>668</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B987" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C987" t="s">
         <v>1245</v>
@@ -17466,10 +17957,10 @@
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B988" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C988" t="s">
         <v>1246</v>
@@ -17477,10 +17968,10 @@
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B989" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C989" t="s">
         <v>1247</v>
@@ -17488,10 +17979,10 @@
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B990" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C990" t="s">
         <v>1248</v>
@@ -17499,10 +17990,10 @@
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B991" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C991" t="s">
         <v>1249</v>
@@ -17510,10 +18001,10 @@
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B992" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C992" t="s">
         <v>1250</v>
@@ -17521,10 +18012,10 @@
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B993" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C993" t="s">
         <v>1251</v>
@@ -17532,10 +18023,10 @@
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B994" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C994" t="s">
         <v>1252</v>
@@ -17543,21 +18034,21 @@
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
-        <v>1244</v>
+        <v>1253</v>
       </c>
       <c r="B995" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C995" t="s">
-        <v>1253</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B996" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C996" t="s">
         <v>1211</v>
@@ -17568,18 +18059,18 @@
         <v>1254</v>
       </c>
       <c r="B997" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C997" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B998" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C998" t="s">
         <v>1211</v>
@@ -17590,18 +18081,18 @@
         <v>1255</v>
       </c>
       <c r="B999" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C999" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1000" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1000" t="s">
         <v>1211</v>
@@ -17612,18 +18103,18 @@
         <v>1256</v>
       </c>
       <c r="B1001" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1001" t="s">
-        <v>1212</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1002" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1002" t="s">
         <v>1258</v>
@@ -17631,10 +18122,10 @@
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1003" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1003" t="s">
         <v>1259</v>
@@ -17642,10 +18133,10 @@
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1004" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C1004" t="s">
         <v>1260</v>
@@ -17653,10 +18144,10 @@
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1005" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1005" t="s">
         <v>1261</v>
@@ -17664,10 +18155,10 @@
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1006" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1006" t="s">
         <v>1262</v>
@@ -17675,10 +18166,10 @@
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1007" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1007" t="s">
         <v>1263</v>
@@ -17686,21 +18177,21 @@
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="B1008" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C1008" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1009" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1009" t="s">
         <v>1266</v>
@@ -17708,10 +18199,10 @@
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1010" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1010" t="s">
         <v>1267</v>
@@ -17719,10 +18210,10 @@
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1011" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C1011" t="s">
         <v>1268</v>
@@ -17730,71 +18221,71 @@
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1012" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1012" t="s">
-        <v>1269</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="B1013" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C1013" t="s">
-        <v>2</v>
+        <v>1210</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B1014" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1014" t="s">
         <v>1211</v>
       </c>
-      <c r="D1014" t="s">
-        <v>1271</v>
-      </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D1015" t="s">
         <v>1270</v>
-      </c>
-      <c r="B1015" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1015" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1016" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1016" t="s">
         <v>1273</v>
       </c>
-      <c r="D1016" t="s">
-        <v>1271</v>
-      </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1017" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1017" t="s">
         <v>1274</v>
@@ -17802,10 +18293,10 @@
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1018" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C1018" t="s">
         <v>1275</v>
@@ -17813,46 +18304,46 @@
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1019" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1019" t="s">
-        <v>1276</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="B1020" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C1020" t="s">
-        <v>2</v>
+        <v>1277</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B1021" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1021" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D1021" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B1022" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1022" t="s">
         <v>1280</v>
@@ -17860,43 +18351,43 @@
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B1023" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C1023" t="s">
-        <v>1281</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="B1024" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C1024" t="s">
-        <v>2</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1025" t="s">
         <v>1282</v>
-      </c>
-      <c r="B1025" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1025" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1026" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1026" t="s">
         <v>1283</v>
@@ -17904,10 +18395,10 @@
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1027" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C1027" t="s">
         <v>1284</v>
@@ -17915,10 +18406,10 @@
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1028" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1028" t="s">
         <v>1285</v>
@@ -17926,32 +18417,32 @@
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1029" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1029" t="s">
-        <v>1286</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="B1030" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C1030" t="s">
-        <v>2</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B1031" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1031" t="s">
         <v>1211</v>
@@ -17962,18 +18453,18 @@
         <v>1287</v>
       </c>
       <c r="B1032" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1032" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B1033" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1033" t="s">
         <v>1211</v>
@@ -17984,18 +18475,18 @@
         <v>1288</v>
       </c>
       <c r="B1034" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1034" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1035" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1035" t="s">
         <v>1211</v>
@@ -18006,18 +18497,18 @@
         <v>1289</v>
       </c>
       <c r="B1036" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1036" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1037" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1037" t="s">
         <v>1211</v>
@@ -18028,18 +18519,18 @@
         <v>1290</v>
       </c>
       <c r="B1038" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1038" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1039" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1039" t="s">
         <v>1211</v>
@@ -18050,18 +18541,18 @@
         <v>1291</v>
       </c>
       <c r="B1040" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1040" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1041" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1041" t="s">
         <v>1211</v>
@@ -18072,18 +18563,18 @@
         <v>1292</v>
       </c>
       <c r="B1042" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1042" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B1043" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1043" t="s">
         <v>1211</v>
@@ -18094,18 +18585,18 @@
         <v>1293</v>
       </c>
       <c r="B1044" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1044" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B1045" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1045" t="s">
         <v>1211</v>
@@ -18113,13 +18604,24 @@
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B1046" t="s">
-        <v>10</v>
+        <v>1318</v>
+      </c>
+      <c r="B1046">
+        <v>1</v>
       </c>
       <c r="C1046" t="s">
-        <v>1212</v>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1047">
+        <v>2</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>1319</v>
       </c>
     </row>
   </sheetData>
@@ -18148,7 +18650,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>115</v>
@@ -18156,102 +18658,102 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
   </sheetData>

--- a/Choices.xlsx
+++ b/Choices.xlsx
@@ -1,37 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Documents\OCHILI\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBE248A-E029-450F-A447-B9EE43C1384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="choices" sheetId="2" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">choices!$A$1:$F$1046</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="1347">
   <si>
     <t>list_name</t>
   </si>
@@ -3994,19 +3987,91 @@
   </si>
   <si>
     <t>Escola inclusiva</t>
+  </si>
+  <si>
+    <t>121  Calandula</t>
+  </si>
+  <si>
+    <t>128  Cangandala</t>
+  </si>
+  <si>
+    <t>123  Cacuso</t>
+  </si>
+  <si>
+    <t>132  Caculama</t>
+  </si>
+  <si>
+    <t>145  Capunda</t>
+  </si>
+  <si>
+    <t>136  Cateco Cangola</t>
+  </si>
+  <si>
+    <t>137  Cuale</t>
+  </si>
+  <si>
+    <t>122  Malanje</t>
+  </si>
+  <si>
+    <t>135  Mbanji ya Ngola</t>
+  </si>
+  <si>
+    <t>125  Marimba</t>
+  </si>
+  <si>
+    <t>124  Massango</t>
+  </si>
+  <si>
+    <t>143  Milando</t>
+  </si>
+  <si>
+    <t>146  Muquixe</t>
+  </si>
+  <si>
+    <t>130  Kunda dya Baze</t>
+  </si>
+  <si>
+    <t>134  Luquembo</t>
+  </si>
+  <si>
+    <t>131  Cambundi Catembo</t>
+  </si>
+  <si>
+    <t>133  Kiwaba Nzoji</t>
+  </si>
+  <si>
+    <t>129  Cahombo</t>
+  </si>
+  <si>
+    <t>140  Quihuhu</t>
+  </si>
+  <si>
+    <t>141  Xandel</t>
+  </si>
+  <si>
+    <t>127  Quirima</t>
+  </si>
+  <si>
+    <t>126  Quela</t>
+  </si>
+  <si>
+    <t>139  Ngola Luiji</t>
+  </si>
+  <si>
+    <t>144  Quitapa</t>
+  </si>
+  <si>
+    <t>147  Quêssua</t>
+  </si>
+  <si>
+    <t>138  Pungu a Ndongo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4014,365 +4079,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -4380,336 +4096,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
-    <cellStyle name="Observação" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Saída" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
-    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Bom" xfId="22" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
-    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
-    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
-    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
-    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
-    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -4727,6 +4125,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5013,25 +4414,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1047"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A964" workbookViewId="0">
-      <selection activeCell="C968" sqref="C968"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="C350" sqref="C350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.552380952381" customWidth="1"/>
-    <col min="3" max="3" width="68.4380952380952" customWidth="1"/>
-    <col min="4" max="4" width="43.4380952380952" customWidth="1"/>
-    <col min="5" max="5" width="17.4380952380952" customWidth="1"/>
-    <col min="6" max="6" width="19.8857142857143" customWidth="1"/>
+    <col min="1" max="1" width="88.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5054,7 +4456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5065,7 +4467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5076,7 +4478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5087,7 +4489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5098,7 +4500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -5109,7 +4511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5120,7 +4522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5131,7 +4533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5142,7 +4544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -5153,7 +4555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -5164,7 +4566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5175,7 +4577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5186,7 +4588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5197,7 +4599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5208,7 +4610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -5219,7 +4621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -5230,7 +4632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -5241,7 +4643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -5252,7 +4654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -5263,7 +4665,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -5274,7 +4676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -5285,7 +4687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -5296,7 +4698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -5307,7 +4709,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -5322,11 +4724,11 @@
       <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
+      <c r="B26">
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -5336,11 +4738,11 @@
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
-        <v>9</v>
+      <c r="B27">
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -5350,11 +4752,11 @@
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
-        <v>11</v>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -5364,11 +4766,11 @@
       <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
-        <v>39</v>
+      <c r="B29">
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -5378,11 +4780,11 @@
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="s">
-        <v>41</v>
+      <c r="B30">
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -5392,8 +4794,8 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
-        <v>43</v>
+      <c r="B31">
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -5406,11 +4808,11 @@
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="s">
-        <v>45</v>
+      <c r="B32">
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -5420,11 +4822,11 @@
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" t="s">
-        <v>47</v>
+      <c r="B33">
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -5434,11 +4836,11 @@
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
-        <v>49</v>
+      <c r="B34">
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -5448,11 +4850,11 @@
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>51</v>
+      <c r="B35">
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -5462,11 +4864,11 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>53</v>
+      <c r="B36">
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -5476,11 +4878,11 @@
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>55</v>
+      <c r="B37">
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -5490,11 +4892,11 @@
       <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
-        <v>57</v>
+      <c r="B38">
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -5504,11 +4906,11 @@
       <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="B39" t="s">
-        <v>59</v>
+      <c r="B39">
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -5518,11 +4920,11 @@
       <c r="A40" t="s">
         <v>35</v>
       </c>
-      <c r="B40" t="s">
-        <v>61</v>
+      <c r="B40">
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -5532,11 +4934,11 @@
       <c r="A41" t="s">
         <v>35</v>
       </c>
-      <c r="B41" t="s">
-        <v>63</v>
+      <c r="B41">
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -5546,11 +4948,11 @@
       <c r="A42" t="s">
         <v>35</v>
       </c>
-      <c r="B42" t="s">
-        <v>65</v>
+      <c r="B42">
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -5560,11 +4962,11 @@
       <c r="A43" t="s">
         <v>35</v>
       </c>
-      <c r="B43" t="s">
-        <v>67</v>
+      <c r="B43">
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -5574,11 +4976,11 @@
       <c r="A44" t="s">
         <v>35</v>
       </c>
-      <c r="B44" t="s">
-        <v>69</v>
+      <c r="B44">
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -5588,11 +4990,11 @@
       <c r="A45" t="s">
         <v>35</v>
       </c>
-      <c r="B45" t="s">
-        <v>71</v>
+      <c r="B45">
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -5602,11 +5004,11 @@
       <c r="A46" t="s">
         <v>35</v>
       </c>
-      <c r="B46" t="s">
-        <v>73</v>
+      <c r="B46">
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -5616,11 +5018,11 @@
       <c r="A47" t="s">
         <v>35</v>
       </c>
-      <c r="B47" t="s">
-        <v>75</v>
+      <c r="B47">
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
@@ -5630,11 +5032,11 @@
       <c r="A48" t="s">
         <v>35</v>
       </c>
-      <c r="B48" t="s">
-        <v>77</v>
+      <c r="B48">
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -5644,11 +5046,11 @@
       <c r="A49" t="s">
         <v>35</v>
       </c>
-      <c r="B49" t="s">
-        <v>79</v>
+      <c r="B49">
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -5658,11 +5060,11 @@
       <c r="A50" t="s">
         <v>35</v>
       </c>
-      <c r="B50" t="s">
-        <v>81</v>
+      <c r="B50">
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
@@ -5672,11 +5074,11 @@
       <c r="A51" t="s">
         <v>35</v>
       </c>
-      <c r="B51" t="s">
-        <v>83</v>
+      <c r="B51">
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
@@ -5686,11 +5088,11 @@
       <c r="A52" t="s">
         <v>35</v>
       </c>
-      <c r="B52" t="s">
-        <v>85</v>
+      <c r="B52">
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -5700,8 +5102,8 @@
       <c r="A53" t="s">
         <v>35</v>
       </c>
-      <c r="B53" t="s">
-        <v>87</v>
+      <c r="B53">
+        <v>28</v>
       </c>
       <c r="C53" t="s">
         <v>88</v>
@@ -5714,11 +5116,11 @@
       <c r="A54" t="s">
         <v>35</v>
       </c>
-      <c r="B54" t="s">
-        <v>89</v>
+      <c r="B54">
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -5728,11 +5130,11 @@
       <c r="A55" t="s">
         <v>35</v>
       </c>
-      <c r="B55" t="s">
-        <v>91</v>
+      <c r="B55">
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -5742,11 +5144,11 @@
       <c r="A56" t="s">
         <v>35</v>
       </c>
-      <c r="B56" t="s">
-        <v>93</v>
+      <c r="B56">
+        <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -5756,11 +5158,11 @@
       <c r="A57" t="s">
         <v>35</v>
       </c>
-      <c r="B57" t="s">
-        <v>95</v>
+      <c r="B57">
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -5770,11 +5172,11 @@
       <c r="A58" t="s">
         <v>35</v>
       </c>
-      <c r="B58" t="s">
-        <v>97</v>
+      <c r="B58">
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
@@ -5784,11 +5186,11 @@
       <c r="A59" t="s">
         <v>35</v>
       </c>
-      <c r="B59" t="s">
-        <v>99</v>
+      <c r="B59">
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
@@ -5798,11 +5200,11 @@
       <c r="A60" t="s">
         <v>35</v>
       </c>
-      <c r="B60" t="s">
-        <v>101</v>
+      <c r="B60">
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
@@ -5812,11 +5214,11 @@
       <c r="A61" t="s">
         <v>35</v>
       </c>
-      <c r="B61" t="s">
-        <v>103</v>
+      <c r="B61">
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
@@ -5826,11 +5228,11 @@
       <c r="A62" t="s">
         <v>35</v>
       </c>
-      <c r="B62" t="s">
-        <v>105</v>
+      <c r="B62">
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
@@ -5840,11 +5242,11 @@
       <c r="A63" t="s">
         <v>35</v>
       </c>
-      <c r="B63" t="s">
-        <v>107</v>
+      <c r="B63">
+        <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
@@ -5854,11 +5256,11 @@
       <c r="A64" t="s">
         <v>35</v>
       </c>
-      <c r="B64" t="s">
-        <v>109</v>
+      <c r="B64">
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
@@ -5868,11 +5270,11 @@
       <c r="A65" t="s">
         <v>35</v>
       </c>
-      <c r="B65" t="s">
-        <v>111</v>
+      <c r="B65">
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
@@ -5882,11 +5284,11 @@
       <c r="A66" t="s">
         <v>35</v>
       </c>
-      <c r="B66" t="s">
-        <v>113</v>
+      <c r="B66">
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
         <v>11</v>
@@ -5896,11 +5298,11 @@
       <c r="A67" t="s">
         <v>35</v>
       </c>
-      <c r="B67" t="s">
-        <v>115</v>
+      <c r="B67">
+        <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
@@ -5910,8 +5312,8 @@
       <c r="A68" t="s">
         <v>35</v>
       </c>
-      <c r="B68" t="s">
-        <v>117</v>
+      <c r="B68">
+        <v>43</v>
       </c>
       <c r="C68" t="s">
         <v>118</v>
@@ -5924,11 +5326,11 @@
       <c r="A69" t="s">
         <v>35</v>
       </c>
-      <c r="B69" t="s">
-        <v>119</v>
+      <c r="B69">
+        <v>35</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D69" t="s">
         <v>11</v>
@@ -5938,11 +5340,11 @@
       <c r="A70" t="s">
         <v>35</v>
       </c>
-      <c r="B70" t="s">
-        <v>121</v>
+      <c r="B70">
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D70" t="s">
         <v>39</v>
@@ -5952,11 +5354,11 @@
       <c r="A71" t="s">
         <v>35</v>
       </c>
-      <c r="B71" t="s">
-        <v>123</v>
+      <c r="B71">
+        <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D71" t="s">
         <v>39</v>
@@ -5966,11 +5368,11 @@
       <c r="A72" t="s">
         <v>35</v>
       </c>
-      <c r="B72" t="s">
-        <v>125</v>
+      <c r="B72">
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D72" t="s">
         <v>39</v>
@@ -5980,11 +5382,11 @@
       <c r="A73" t="s">
         <v>35</v>
       </c>
-      <c r="B73" t="s">
-        <v>127</v>
+      <c r="B73">
+        <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
         <v>39</v>
@@ -5994,11 +5396,11 @@
       <c r="A74" t="s">
         <v>35</v>
       </c>
-      <c r="B74" t="s">
-        <v>129</v>
+      <c r="B74">
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D74" t="s">
         <v>39</v>
@@ -6008,11 +5410,11 @@
       <c r="A75" t="s">
         <v>35</v>
       </c>
-      <c r="B75" t="s">
-        <v>131</v>
+      <c r="B75">
+        <v>54</v>
       </c>
       <c r="C75" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D75" t="s">
         <v>39</v>
@@ -6022,11 +5424,11 @@
       <c r="A76" t="s">
         <v>35</v>
       </c>
-      <c r="B76" t="s">
-        <v>133</v>
+      <c r="B76">
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D76" t="s">
         <v>39</v>
@@ -6036,11 +5438,11 @@
       <c r="A77" t="s">
         <v>35</v>
       </c>
-      <c r="B77" t="s">
-        <v>135</v>
+      <c r="B77">
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
@@ -6050,11 +5452,11 @@
       <c r="A78" t="s">
         <v>35</v>
       </c>
-      <c r="B78" t="s">
-        <v>137</v>
+      <c r="B78">
+        <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D78" t="s">
         <v>39</v>
@@ -6064,11 +5466,11 @@
       <c r="A79" t="s">
         <v>35</v>
       </c>
-      <c r="B79" t="s">
-        <v>139</v>
+      <c r="B79">
+        <v>46</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
         <v>39</v>
@@ -6078,11 +5480,11 @@
       <c r="A80" t="s">
         <v>35</v>
       </c>
-      <c r="B80" t="s">
-        <v>141</v>
+      <c r="B80">
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D80" t="s">
         <v>39</v>
@@ -6092,11 +5494,11 @@
       <c r="A81" t="s">
         <v>35</v>
       </c>
-      <c r="B81" t="s">
-        <v>143</v>
+      <c r="B81">
+        <v>55</v>
       </c>
       <c r="C81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D81" t="s">
         <v>39</v>
@@ -6106,11 +5508,11 @@
       <c r="A82" t="s">
         <v>35</v>
       </c>
-      <c r="B82" t="s">
-        <v>145</v>
+      <c r="B82">
+        <v>61</v>
       </c>
       <c r="C82" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D82" t="s">
         <v>41</v>
@@ -6120,11 +5522,11 @@
       <c r="A83" t="s">
         <v>35</v>
       </c>
-      <c r="B83" t="s">
-        <v>147</v>
+      <c r="B83">
+        <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D83" t="s">
         <v>41</v>
@@ -6134,11 +5536,11 @@
       <c r="A84" t="s">
         <v>35</v>
       </c>
-      <c r="B84" t="s">
-        <v>149</v>
+      <c r="B84">
+        <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D84" t="s">
         <v>41</v>
@@ -6148,11 +5550,11 @@
       <c r="A85" t="s">
         <v>35</v>
       </c>
-      <c r="B85" t="s">
-        <v>151</v>
+      <c r="B85">
+        <v>59</v>
       </c>
       <c r="C85" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D85" t="s">
         <v>41</v>
@@ -6162,11 +5564,11 @@
       <c r="A86" t="s">
         <v>35</v>
       </c>
-      <c r="B86" t="s">
-        <v>153</v>
+      <c r="B86">
+        <v>72</v>
       </c>
       <c r="C86" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D86" t="s">
         <v>41</v>
@@ -6176,11 +5578,11 @@
       <c r="A87" t="s">
         <v>35</v>
       </c>
-      <c r="B87" t="s">
-        <v>155</v>
+      <c r="B87">
+        <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D87" t="s">
         <v>41</v>
@@ -6190,11 +5592,11 @@
       <c r="A88" t="s">
         <v>35</v>
       </c>
-      <c r="B88" t="s">
-        <v>157</v>
+      <c r="B88">
+        <v>71</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D88" t="s">
         <v>41</v>
@@ -6204,11 +5606,11 @@
       <c r="A89" t="s">
         <v>35</v>
       </c>
-      <c r="B89" t="s">
-        <v>159</v>
+      <c r="B89">
+        <v>62</v>
       </c>
       <c r="C89" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D89" t="s">
         <v>41</v>
@@ -6218,11 +5620,11 @@
       <c r="A90" t="s">
         <v>35</v>
       </c>
-      <c r="B90" t="s">
-        <v>161</v>
+      <c r="B90">
+        <v>67</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D90" t="s">
         <v>41</v>
@@ -6232,11 +5634,11 @@
       <c r="A91" t="s">
         <v>35</v>
       </c>
-      <c r="B91" t="s">
-        <v>163</v>
+      <c r="B91">
+        <v>70</v>
       </c>
       <c r="C91" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D91" t="s">
         <v>41</v>
@@ -6246,11 +5648,11 @@
       <c r="A92" t="s">
         <v>35</v>
       </c>
-      <c r="B92" t="s">
-        <v>165</v>
+      <c r="B92">
+        <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D92" t="s">
         <v>41</v>
@@ -6260,11 +5662,11 @@
       <c r="A93" t="s">
         <v>35</v>
       </c>
-      <c r="B93" t="s">
-        <v>167</v>
+      <c r="B93">
+        <v>66</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D93" t="s">
         <v>41</v>
@@ -6274,11 +5676,11 @@
       <c r="A94" t="s">
         <v>35</v>
       </c>
-      <c r="B94" t="s">
-        <v>169</v>
+      <c r="B94">
+        <v>68</v>
       </c>
       <c r="C94" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D94" t="s">
         <v>41</v>
@@ -6288,11 +5690,11 @@
       <c r="A95" t="s">
         <v>35</v>
       </c>
-      <c r="B95" t="s">
-        <v>171</v>
+      <c r="B95">
+        <v>65</v>
       </c>
       <c r="C95" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D95" t="s">
         <v>41</v>
@@ -6302,11 +5704,11 @@
       <c r="A96" t="s">
         <v>35</v>
       </c>
-      <c r="B96" t="s">
-        <v>173</v>
+      <c r="B96">
+        <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D96" t="s">
         <v>41</v>
@@ -6316,11 +5718,11 @@
       <c r="A97" t="s">
         <v>35</v>
       </c>
-      <c r="B97" t="s">
-        <v>175</v>
+      <c r="B97">
+        <v>60</v>
       </c>
       <c r="C97" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D97" t="s">
         <v>41</v>
@@ -6330,11 +5732,11 @@
       <c r="A98" t="s">
         <v>35</v>
       </c>
-      <c r="B98" t="s">
-        <v>177</v>
+      <c r="B98">
+        <v>78</v>
       </c>
       <c r="C98" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D98" t="s">
         <v>43</v>
@@ -6344,11 +5746,11 @@
       <c r="A99" t="s">
         <v>35</v>
       </c>
-      <c r="B99" t="s">
-        <v>179</v>
+      <c r="B99">
+        <v>76</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D99" t="s">
         <v>43</v>
@@ -6358,11 +5760,11 @@
       <c r="A100" t="s">
         <v>35</v>
       </c>
-      <c r="B100" t="s">
-        <v>181</v>
+      <c r="B100">
+        <v>77</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D100" t="s">
         <v>43</v>
@@ -6372,11 +5774,11 @@
       <c r="A101" t="s">
         <v>35</v>
       </c>
-      <c r="B101" t="s">
-        <v>183</v>
+      <c r="B101">
+        <v>75</v>
       </c>
       <c r="C101" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D101" t="s">
         <v>43</v>
@@ -6386,11 +5788,11 @@
       <c r="A102" t="s">
         <v>35</v>
       </c>
-      <c r="B102" t="s">
-        <v>185</v>
+      <c r="B102">
+        <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D102" t="s">
         <v>43</v>
@@ -6400,11 +5802,11 @@
       <c r="A103" t="s">
         <v>35</v>
       </c>
-      <c r="B103" t="s">
-        <v>187</v>
+      <c r="B103">
+        <v>74</v>
       </c>
       <c r="C103" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D103" t="s">
         <v>43</v>
@@ -6414,8 +5816,8 @@
       <c r="A104" t="s">
         <v>35</v>
       </c>
-      <c r="B104" t="s">
-        <v>189</v>
+      <c r="B104">
+        <v>79</v>
       </c>
       <c r="C104" t="s">
         <v>190</v>
@@ -6428,11 +5830,11 @@
       <c r="A105" t="s">
         <v>35</v>
       </c>
-      <c r="B105" t="s">
-        <v>191</v>
+      <c r="B105">
+        <v>94</v>
       </c>
       <c r="C105" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="D105" t="s">
         <v>45</v>
@@ -6442,11 +5844,11 @@
       <c r="A106" t="s">
         <v>35</v>
       </c>
-      <c r="B106" t="s">
-        <v>193</v>
+      <c r="B106">
+        <v>84</v>
       </c>
       <c r="C106" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D106" t="s">
         <v>45</v>
@@ -6456,11 +5858,11 @@
       <c r="A107" t="s">
         <v>35</v>
       </c>
-      <c r="B107" t="s">
-        <v>195</v>
+      <c r="B107">
+        <v>86</v>
       </c>
       <c r="C107" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D107" t="s">
         <v>45</v>
@@ -6470,11 +5872,11 @@
       <c r="A108" t="s">
         <v>35</v>
       </c>
-      <c r="B108" t="s">
-        <v>197</v>
+      <c r="B108">
+        <v>87</v>
       </c>
       <c r="C108" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D108" t="s">
         <v>45</v>
@@ -6484,11 +5886,11 @@
       <c r="A109" t="s">
         <v>35</v>
       </c>
-      <c r="B109" t="s">
-        <v>199</v>
+      <c r="B109">
+        <v>82</v>
       </c>
       <c r="C109" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D109" t="s">
         <v>45</v>
@@ -6498,11 +5900,11 @@
       <c r="A110" t="s">
         <v>35</v>
       </c>
-      <c r="B110" t="s">
-        <v>201</v>
+      <c r="B110">
+        <v>91</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D110" t="s">
         <v>45</v>
@@ -6512,11 +5914,11 @@
       <c r="A111" t="s">
         <v>35</v>
       </c>
-      <c r="B111" t="s">
-        <v>203</v>
+      <c r="B111">
+        <v>80</v>
       </c>
       <c r="C111" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D111" t="s">
         <v>45</v>
@@ -6526,11 +5928,11 @@
       <c r="A112" t="s">
         <v>35</v>
       </c>
-      <c r="B112" t="s">
-        <v>205</v>
+      <c r="B112">
+        <v>95</v>
       </c>
       <c r="C112" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D112" t="s">
         <v>45</v>
@@ -6540,11 +5942,11 @@
       <c r="A113" t="s">
         <v>35</v>
       </c>
-      <c r="B113" t="s">
-        <v>207</v>
+      <c r="B113">
+        <v>85</v>
       </c>
       <c r="C113" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D113" t="s">
         <v>45</v>
@@ -6554,11 +5956,11 @@
       <c r="A114" t="s">
         <v>35</v>
       </c>
-      <c r="B114" t="s">
-        <v>209</v>
+      <c r="B114">
+        <v>96</v>
       </c>
       <c r="C114" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D114" t="s">
         <v>45</v>
@@ -6568,8 +5970,8 @@
       <c r="A115" t="s">
         <v>35</v>
       </c>
-      <c r="B115" t="s">
-        <v>211</v>
+      <c r="B115">
+        <v>90</v>
       </c>
       <c r="C115" t="s">
         <v>212</v>
@@ -6582,11 +5984,11 @@
       <c r="A116" t="s">
         <v>35</v>
       </c>
-      <c r="B116" t="s">
-        <v>213</v>
+      <c r="B116">
+        <v>89</v>
       </c>
       <c r="C116" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D116" t="s">
         <v>45</v>
@@ -6596,11 +5998,11 @@
       <c r="A117" t="s">
         <v>35</v>
       </c>
-      <c r="B117" t="s">
-        <v>215</v>
+      <c r="B117">
+        <v>88</v>
       </c>
       <c r="C117" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D117" t="s">
         <v>45</v>
@@ -6610,11 +6012,11 @@
       <c r="A118" t="s">
         <v>35</v>
       </c>
-      <c r="B118" t="s">
-        <v>217</v>
+      <c r="B118">
+        <v>83</v>
       </c>
       <c r="C118" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D118" t="s">
         <v>45</v>
@@ -6624,11 +6026,11 @@
       <c r="A119" t="s">
         <v>35</v>
       </c>
-      <c r="B119" t="s">
-        <v>219</v>
+      <c r="B119">
+        <v>92</v>
       </c>
       <c r="C119" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D119" t="s">
         <v>45</v>
@@ -6638,11 +6040,11 @@
       <c r="A120" t="s">
         <v>35</v>
       </c>
-      <c r="B120" t="s">
-        <v>221</v>
+      <c r="B120">
+        <v>93</v>
       </c>
       <c r="C120" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D120" t="s">
         <v>45</v>
@@ -6652,11 +6054,11 @@
       <c r="A121" t="s">
         <v>35</v>
       </c>
-      <c r="B121" t="s">
-        <v>223</v>
+      <c r="B121">
+        <v>81</v>
       </c>
       <c r="C121" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="D121" t="s">
         <v>45</v>
@@ -6666,11 +6068,11 @@
       <c r="A122" t="s">
         <v>35</v>
       </c>
-      <c r="B122" t="s">
-        <v>225</v>
+      <c r="B122">
+        <v>117</v>
       </c>
       <c r="C122" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="D122" t="s">
         <v>47</v>
@@ -6680,11 +6082,11 @@
       <c r="A123" t="s">
         <v>35</v>
       </c>
-      <c r="B123" t="s">
-        <v>227</v>
+      <c r="B123">
+        <v>120</v>
       </c>
       <c r="C123" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="D123" t="s">
         <v>47</v>
@@ -6694,11 +6096,11 @@
       <c r="A124" t="s">
         <v>35</v>
       </c>
-      <c r="B124" t="s">
-        <v>229</v>
+      <c r="B124">
+        <v>98</v>
       </c>
       <c r="C124" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D124" t="s">
         <v>47</v>
@@ -6708,8 +6110,8 @@
       <c r="A125" t="s">
         <v>35</v>
       </c>
-      <c r="B125" t="s">
-        <v>231</v>
+      <c r="B125">
+        <v>100</v>
       </c>
       <c r="C125" t="s">
         <v>232</v>
@@ -6722,11 +6124,11 @@
       <c r="A126" t="s">
         <v>35</v>
       </c>
-      <c r="B126" t="s">
-        <v>233</v>
+      <c r="B126">
+        <v>108</v>
       </c>
       <c r="C126" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="D126" t="s">
         <v>47</v>
@@ -6736,11 +6138,11 @@
       <c r="A127" t="s">
         <v>35</v>
       </c>
-      <c r="B127" t="s">
-        <v>235</v>
+      <c r="B127">
+        <v>116</v>
       </c>
       <c r="C127" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="D127" t="s">
         <v>47</v>
@@ -6750,11 +6152,11 @@
       <c r="A128" t="s">
         <v>35</v>
       </c>
-      <c r="B128" t="s">
-        <v>237</v>
+      <c r="B128">
+        <v>107</v>
       </c>
       <c r="C128" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D128" t="s">
         <v>47</v>
@@ -6764,11 +6166,11 @@
       <c r="A129" t="s">
         <v>35</v>
       </c>
-      <c r="B129" t="s">
-        <v>239</v>
+      <c r="B129">
+        <v>99</v>
       </c>
       <c r="C129" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D129" t="s">
         <v>47</v>
@@ -6778,11 +6180,11 @@
       <c r="A130" t="s">
         <v>35</v>
       </c>
-      <c r="B130" t="s">
-        <v>241</v>
+      <c r="B130">
+        <v>114</v>
       </c>
       <c r="C130" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D130" t="s">
         <v>47</v>
@@ -6792,11 +6194,11 @@
       <c r="A131" t="s">
         <v>35</v>
       </c>
-      <c r="B131" t="s">
-        <v>243</v>
+      <c r="B131">
+        <v>112</v>
       </c>
       <c r="C131" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D131" t="s">
         <v>47</v>
@@ -6806,11 +6208,11 @@
       <c r="A132" t="s">
         <v>35</v>
       </c>
-      <c r="B132" t="s">
-        <v>245</v>
+      <c r="B132">
+        <v>118</v>
       </c>
       <c r="C132" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="D132" t="s">
         <v>47</v>
@@ -6820,11 +6222,11 @@
       <c r="A133" t="s">
         <v>35</v>
       </c>
-      <c r="B133" t="s">
-        <v>247</v>
+      <c r="B133">
+        <v>110</v>
       </c>
       <c r="C133" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D133" t="s">
         <v>47</v>
@@ -6834,11 +6236,11 @@
       <c r="A134" t="s">
         <v>35</v>
       </c>
-      <c r="B134" t="s">
-        <v>249</v>
+      <c r="B134">
+        <v>105</v>
       </c>
       <c r="C134" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D134" t="s">
         <v>47</v>
@@ -6848,11 +6250,11 @@
       <c r="A135" t="s">
         <v>35</v>
       </c>
-      <c r="B135" t="s">
-        <v>251</v>
+      <c r="B135">
+        <v>115</v>
       </c>
       <c r="C135" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D135" t="s">
         <v>47</v>
@@ -6862,11 +6264,11 @@
       <c r="A136" t="s">
         <v>35</v>
       </c>
-      <c r="B136" t="s">
-        <v>253</v>
+      <c r="B136">
+        <v>101</v>
       </c>
       <c r="C136" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="D136" t="s">
         <v>47</v>
@@ -6876,11 +6278,11 @@
       <c r="A137" t="s">
         <v>35</v>
       </c>
-      <c r="B137" t="s">
-        <v>255</v>
+      <c r="B137">
+        <v>119</v>
       </c>
       <c r="C137" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D137" t="s">
         <v>47</v>
@@ -6890,11 +6292,11 @@
       <c r="A138" t="s">
         <v>35</v>
       </c>
-      <c r="B138" t="s">
-        <v>257</v>
+      <c r="B138">
+        <v>102</v>
       </c>
       <c r="C138" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="D138" t="s">
         <v>47</v>
@@ -6904,11 +6306,11 @@
       <c r="A139" t="s">
         <v>35</v>
       </c>
-      <c r="B139" t="s">
-        <v>259</v>
+      <c r="B139">
+        <v>106</v>
       </c>
       <c r="C139" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D139" t="s">
         <v>47</v>
@@ -6918,11 +6320,11 @@
       <c r="A140" t="s">
         <v>35</v>
       </c>
-      <c r="B140" t="s">
-        <v>261</v>
+      <c r="B140">
+        <v>109</v>
       </c>
       <c r="C140" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D140" t="s">
         <v>47</v>
@@ -6932,11 +6334,11 @@
       <c r="A141" t="s">
         <v>35</v>
       </c>
-      <c r="B141" t="s">
-        <v>263</v>
+      <c r="B141">
+        <v>111</v>
       </c>
       <c r="C141" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D141" t="s">
         <v>47</v>
@@ -6946,11 +6348,11 @@
       <c r="A142" t="s">
         <v>35</v>
       </c>
-      <c r="B142" t="s">
-        <v>265</v>
+      <c r="B142">
+        <v>113</v>
       </c>
       <c r="C142" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D142" t="s">
         <v>47</v>
@@ -6960,11 +6362,11 @@
       <c r="A143" t="s">
         <v>35</v>
       </c>
-      <c r="B143" t="s">
-        <v>267</v>
+      <c r="B143">
+        <v>103</v>
       </c>
       <c r="C143" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="D143" t="s">
         <v>47</v>
@@ -6974,11 +6376,11 @@
       <c r="A144" t="s">
         <v>35</v>
       </c>
-      <c r="B144" t="s">
-        <v>269</v>
+      <c r="B144">
+        <v>97</v>
       </c>
       <c r="C144" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="D144" t="s">
         <v>47</v>
@@ -6988,11 +6390,11 @@
       <c r="A145" t="s">
         <v>35</v>
       </c>
-      <c r="B145" t="s">
-        <v>271</v>
+      <c r="B145">
+        <v>104</v>
       </c>
       <c r="C145" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="D145" t="s">
         <v>47</v>
@@ -7002,8 +6404,8 @@
       <c r="A146" t="s">
         <v>35</v>
       </c>
-      <c r="B146" t="s">
-        <v>273</v>
+      <c r="B146">
+        <v>121</v>
       </c>
       <c r="C146" t="s">
         <v>274</v>
@@ -7016,11 +6418,11 @@
       <c r="A147" t="s">
         <v>35</v>
       </c>
-      <c r="B147" t="s">
-        <v>275</v>
+      <c r="B147">
+        <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="D147" t="s">
         <v>49</v>
@@ -7030,11 +6432,11 @@
       <c r="A148" t="s">
         <v>35</v>
       </c>
-      <c r="B148" t="s">
-        <v>277</v>
+      <c r="B148">
+        <v>132</v>
       </c>
       <c r="C148" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="D148" t="s">
         <v>49</v>
@@ -7044,11 +6446,11 @@
       <c r="A149" t="s">
         <v>35</v>
       </c>
-      <c r="B149" t="s">
-        <v>279</v>
+      <c r="B149">
+        <v>123</v>
       </c>
       <c r="C149" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D149" t="s">
         <v>49</v>
@@ -7058,11 +6460,11 @@
       <c r="A150" t="s">
         <v>35</v>
       </c>
-      <c r="B150" t="s">
-        <v>281</v>
+      <c r="B150">
+        <v>128</v>
       </c>
       <c r="C150" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D150" t="s">
         <v>49</v>
@@ -7072,11 +6474,11 @@
       <c r="A151" t="s">
         <v>35</v>
       </c>
-      <c r="B151" t="s">
-        <v>283</v>
+      <c r="B151">
+        <v>129</v>
       </c>
       <c r="C151" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D151" t="s">
         <v>49</v>
@@ -7086,11 +6488,11 @@
       <c r="A152" t="s">
         <v>35</v>
       </c>
-      <c r="B152" t="s">
-        <v>285</v>
+      <c r="B152">
+        <v>135</v>
       </c>
       <c r="C152" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="D152" t="s">
         <v>49</v>
@@ -7100,11 +6502,11 @@
       <c r="A153" t="s">
         <v>35</v>
       </c>
-      <c r="B153" t="s">
-        <v>287</v>
+      <c r="B153">
+        <v>137</v>
       </c>
       <c r="C153" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="D153" t="s">
         <v>49</v>
@@ -7114,11 +6516,11 @@
       <c r="A154" t="s">
         <v>35</v>
       </c>
-      <c r="B154" t="s">
-        <v>289</v>
+      <c r="B154">
+        <v>131</v>
       </c>
       <c r="C154" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D154" t="s">
         <v>49</v>
@@ -7128,11 +6530,11 @@
       <c r="A155" t="s">
         <v>35</v>
       </c>
-      <c r="B155" t="s">
-        <v>291</v>
+      <c r="B155">
+        <v>142</v>
       </c>
       <c r="C155" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="D155" t="s">
         <v>49</v>
@@ -7142,11 +6544,11 @@
       <c r="A156" t="s">
         <v>35</v>
       </c>
-      <c r="B156" t="s">
-        <v>293</v>
+      <c r="B156">
+        <v>130</v>
       </c>
       <c r="C156" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D156" t="s">
         <v>49</v>
@@ -7156,11 +6558,11 @@
       <c r="A157" t="s">
         <v>35</v>
       </c>
-      <c r="B157" t="s">
-        <v>295</v>
+      <c r="B157">
+        <v>133</v>
       </c>
       <c r="C157" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D157" t="s">
         <v>49</v>
@@ -7170,11 +6572,11 @@
       <c r="A158" t="s">
         <v>35</v>
       </c>
-      <c r="B158" t="s">
-        <v>297</v>
+      <c r="B158">
+        <v>134</v>
       </c>
       <c r="C158" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D158" t="s">
         <v>49</v>
@@ -7184,11 +6586,11 @@
       <c r="A159" t="s">
         <v>35</v>
       </c>
-      <c r="B159" t="s">
-        <v>299</v>
+      <c r="B159">
+        <v>122</v>
       </c>
       <c r="C159" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="D159" t="s">
         <v>49</v>
@@ -7198,11 +6600,11 @@
       <c r="A160" t="s">
         <v>35</v>
       </c>
-      <c r="B160" t="s">
-        <v>301</v>
+      <c r="B160">
+        <v>125</v>
       </c>
       <c r="C160" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D160" t="s">
         <v>49</v>
@@ -7212,11 +6614,11 @@
       <c r="A161" t="s">
         <v>35</v>
       </c>
-      <c r="B161" t="s">
-        <v>303</v>
+      <c r="B161">
+        <v>124</v>
       </c>
       <c r="C161" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="D161" t="s">
         <v>49</v>
@@ -7226,11 +6628,11 @@
       <c r="A162" t="s">
         <v>35</v>
       </c>
-      <c r="B162" t="s">
-        <v>305</v>
+      <c r="B162">
+        <v>143</v>
       </c>
       <c r="C162" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="D162" t="s">
         <v>49</v>
@@ -7240,11 +6642,11 @@
       <c r="A163" t="s">
         <v>35</v>
       </c>
-      <c r="B163" t="s">
-        <v>307</v>
+      <c r="B163">
+        <v>136</v>
       </c>
       <c r="C163" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D163" t="s">
         <v>49</v>
@@ -7254,11 +6656,11 @@
       <c r="A164" t="s">
         <v>35</v>
       </c>
-      <c r="B164" t="s">
-        <v>309</v>
+      <c r="B164">
+        <v>146</v>
       </c>
       <c r="C164" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D164" t="s">
         <v>49</v>
@@ -7268,11 +6670,11 @@
       <c r="A165" t="s">
         <v>35</v>
       </c>
-      <c r="B165" t="s">
-        <v>311</v>
+      <c r="B165">
+        <v>139</v>
       </c>
       <c r="C165" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D165" t="s">
         <v>49</v>
@@ -7282,11 +6684,11 @@
       <c r="A166" t="s">
         <v>35</v>
       </c>
-      <c r="B166" t="s">
-        <v>313</v>
+      <c r="B166">
+        <v>138</v>
       </c>
       <c r="C166" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D166" t="s">
         <v>49</v>
@@ -7296,11 +6698,11 @@
       <c r="A167" t="s">
         <v>35</v>
       </c>
-      <c r="B167" t="s">
-        <v>315</v>
+      <c r="B167">
+        <v>126</v>
       </c>
       <c r="C167" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="D167" t="s">
         <v>49</v>
@@ -7310,11 +6712,11 @@
       <c r="A168" t="s">
         <v>35</v>
       </c>
-      <c r="B168" t="s">
-        <v>317</v>
+      <c r="B168">
+        <v>140</v>
       </c>
       <c r="C168" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D168" t="s">
         <v>49</v>
@@ -7324,11 +6726,11 @@
       <c r="A169" t="s">
         <v>35</v>
       </c>
-      <c r="B169" t="s">
-        <v>319</v>
+      <c r="B169">
+        <v>127</v>
       </c>
       <c r="C169" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="D169" t="s">
         <v>49</v>
@@ -7338,11 +6740,11 @@
       <c r="A170" t="s">
         <v>35</v>
       </c>
-      <c r="B170" t="s">
-        <v>321</v>
+      <c r="B170">
+        <v>147</v>
       </c>
       <c r="C170" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D170" t="s">
         <v>49</v>
@@ -7352,11 +6754,11 @@
       <c r="A171" t="s">
         <v>35</v>
       </c>
-      <c r="B171" t="s">
-        <v>323</v>
+      <c r="B171">
+        <v>144</v>
       </c>
       <c r="C171" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D171" t="s">
         <v>49</v>
@@ -7366,11 +6768,11 @@
       <c r="A172" t="s">
         <v>35</v>
       </c>
-      <c r="B172" t="s">
-        <v>325</v>
+      <c r="B172">
+        <v>141</v>
       </c>
       <c r="C172" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D172" t="s">
         <v>49</v>
@@ -7380,11 +6782,11 @@
       <c r="A173" t="s">
         <v>35</v>
       </c>
-      <c r="B173" t="s">
-        <v>327</v>
+      <c r="B173">
+        <v>154</v>
       </c>
       <c r="C173" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D173" t="s">
         <v>51</v>
@@ -7394,11 +6796,11 @@
       <c r="A174" t="s">
         <v>35</v>
       </c>
-      <c r="B174" t="s">
-        <v>329</v>
+      <c r="B174">
+        <v>160</v>
       </c>
       <c r="C174" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="D174" t="s">
         <v>51</v>
@@ -7408,11 +6810,11 @@
       <c r="A175" t="s">
         <v>35</v>
       </c>
-      <c r="B175" t="s">
-        <v>331</v>
+      <c r="B175">
+        <v>164</v>
       </c>
       <c r="C175" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="D175" t="s">
         <v>51</v>
@@ -7422,8 +6824,8 @@
       <c r="A176" t="s">
         <v>35</v>
       </c>
-      <c r="B176" t="s">
-        <v>333</v>
+      <c r="B176">
+        <v>151</v>
       </c>
       <c r="C176" t="s">
         <v>334</v>
@@ -7436,11 +6838,11 @@
       <c r="A177" t="s">
         <v>35</v>
       </c>
-      <c r="B177" t="s">
-        <v>335</v>
+      <c r="B177">
+        <v>163</v>
       </c>
       <c r="C177" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="D177" t="s">
         <v>51</v>
@@ -7450,11 +6852,11 @@
       <c r="A178" t="s">
         <v>35</v>
       </c>
-      <c r="B178" t="s">
-        <v>337</v>
+      <c r="B178">
+        <v>156</v>
       </c>
       <c r="C178" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D178" t="s">
         <v>51</v>
@@ -7464,11 +6866,11 @@
       <c r="A179" t="s">
         <v>35</v>
       </c>
-      <c r="B179" t="s">
-        <v>339</v>
+      <c r="B179">
+        <v>166</v>
       </c>
       <c r="C179" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="D179" t="s">
         <v>51</v>
@@ -7478,11 +6880,11 @@
       <c r="A180" t="s">
         <v>35</v>
       </c>
-      <c r="B180" t="s">
-        <v>341</v>
+      <c r="B180">
+        <v>158</v>
       </c>
       <c r="C180" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D180" t="s">
         <v>51</v>
@@ -7492,11 +6894,11 @@
       <c r="A181" t="s">
         <v>35</v>
       </c>
-      <c r="B181" t="s">
-        <v>343</v>
+      <c r="B181">
+        <v>148</v>
       </c>
       <c r="C181" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D181" t="s">
         <v>51</v>
@@ -7506,11 +6908,11 @@
       <c r="A182" t="s">
         <v>35</v>
       </c>
-      <c r="B182" t="s">
-        <v>345</v>
+      <c r="B182">
+        <v>152</v>
       </c>
       <c r="C182" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D182" t="s">
         <v>51</v>
@@ -7520,11 +6922,11 @@
       <c r="A183" t="s">
         <v>35</v>
       </c>
-      <c r="B183" t="s">
-        <v>347</v>
+      <c r="B183">
+        <v>149</v>
       </c>
       <c r="C183" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D183" t="s">
         <v>51</v>
@@ -7534,11 +6936,11 @@
       <c r="A184" t="s">
         <v>35</v>
       </c>
-      <c r="B184" t="s">
-        <v>349</v>
+      <c r="B184">
+        <v>161</v>
       </c>
       <c r="C184" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D184" t="s">
         <v>51</v>
@@ -7548,11 +6950,11 @@
       <c r="A185" t="s">
         <v>35</v>
       </c>
-      <c r="B185" t="s">
-        <v>351</v>
+      <c r="B185">
+        <v>153</v>
       </c>
       <c r="C185" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="D185" t="s">
         <v>51</v>
@@ -7562,11 +6964,11 @@
       <c r="A186" t="s">
         <v>35</v>
       </c>
-      <c r="B186" t="s">
-        <v>353</v>
+      <c r="B186">
+        <v>150</v>
       </c>
       <c r="C186" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="D186" t="s">
         <v>51</v>
@@ -7576,11 +6978,11 @@
       <c r="A187" t="s">
         <v>35</v>
       </c>
-      <c r="B187" t="s">
-        <v>355</v>
+      <c r="B187">
+        <v>157</v>
       </c>
       <c r="C187" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D187" t="s">
         <v>51</v>
@@ -7590,11 +6992,11 @@
       <c r="A188" t="s">
         <v>35</v>
       </c>
-      <c r="B188" t="s">
-        <v>357</v>
+      <c r="B188">
+        <v>162</v>
       </c>
       <c r="C188" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D188" t="s">
         <v>51</v>
@@ -7604,11 +7006,11 @@
       <c r="A189" t="s">
         <v>35</v>
       </c>
-      <c r="B189" t="s">
-        <v>359</v>
+      <c r="B189">
+        <v>165</v>
       </c>
       <c r="C189" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D189" t="s">
         <v>51</v>
@@ -7618,11 +7020,11 @@
       <c r="A190" t="s">
         <v>35</v>
       </c>
-      <c r="B190" t="s">
-        <v>361</v>
+      <c r="B190">
+        <v>155</v>
       </c>
       <c r="C190" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="D190" t="s">
         <v>51</v>
@@ -7632,11 +7034,11 @@
       <c r="A191" t="s">
         <v>35</v>
       </c>
-      <c r="B191" t="s">
-        <v>363</v>
+      <c r="B191">
+        <v>159</v>
       </c>
       <c r="C191" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D191" t="s">
         <v>51</v>
@@ -7646,11 +7048,11 @@
       <c r="A192" t="s">
         <v>35</v>
       </c>
-      <c r="B192" t="s">
-        <v>365</v>
+      <c r="B192">
+        <v>174</v>
       </c>
       <c r="C192" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="D192" t="s">
         <v>53</v>
@@ -7660,11 +7062,11 @@
       <c r="A193" t="s">
         <v>35</v>
       </c>
-      <c r="B193" t="s">
-        <v>367</v>
+      <c r="B193">
+        <v>169</v>
       </c>
       <c r="C193" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D193" t="s">
         <v>53</v>
@@ -7674,11 +7076,11 @@
       <c r="A194" t="s">
         <v>35</v>
       </c>
-      <c r="B194" t="s">
-        <v>369</v>
+      <c r="B194">
+        <v>172</v>
       </c>
       <c r="C194" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D194" t="s">
         <v>53</v>
@@ -7688,11 +7090,11 @@
       <c r="A195" t="s">
         <v>35</v>
       </c>
-      <c r="B195" t="s">
-        <v>371</v>
+      <c r="B195">
+        <v>180</v>
       </c>
       <c r="C195" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="D195" t="s">
         <v>53</v>
@@ -7702,11 +7104,11 @@
       <c r="A196" t="s">
         <v>35</v>
       </c>
-      <c r="B196" t="s">
-        <v>373</v>
+      <c r="B196">
+        <v>178</v>
       </c>
       <c r="C196" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D196" t="s">
         <v>53</v>
@@ -7716,11 +7118,11 @@
       <c r="A197" t="s">
         <v>35</v>
       </c>
-      <c r="B197" t="s">
-        <v>375</v>
+      <c r="B197">
+        <v>171</v>
       </c>
       <c r="C197" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D197" t="s">
         <v>53</v>
@@ -7730,11 +7132,11 @@
       <c r="A198" t="s">
         <v>35</v>
       </c>
-      <c r="B198" t="s">
-        <v>377</v>
+      <c r="B198">
+        <v>170</v>
       </c>
       <c r="C198" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D198" t="s">
         <v>53</v>
@@ -7744,11 +7146,11 @@
       <c r="A199" t="s">
         <v>35</v>
       </c>
-      <c r="B199" t="s">
-        <v>379</v>
+      <c r="B199">
+        <v>177</v>
       </c>
       <c r="C199" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D199" t="s">
         <v>53</v>
@@ -7758,11 +7160,11 @@
       <c r="A200" t="s">
         <v>35</v>
       </c>
-      <c r="B200" t="s">
-        <v>381</v>
+      <c r="B200">
+        <v>179</v>
       </c>
       <c r="C200" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D200" t="s">
         <v>53</v>
@@ -7772,11 +7174,11 @@
       <c r="A201" t="s">
         <v>35</v>
       </c>
-      <c r="B201" t="s">
-        <v>383</v>
+      <c r="B201">
+        <v>168</v>
       </c>
       <c r="C201" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="D201" t="s">
         <v>53</v>
@@ -7786,11 +7188,11 @@
       <c r="A202" t="s">
         <v>35</v>
       </c>
-      <c r="B202" t="s">
-        <v>385</v>
+      <c r="B202">
+        <v>176</v>
       </c>
       <c r="C202" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D202" t="s">
         <v>53</v>
@@ -7800,11 +7202,11 @@
       <c r="A203" t="s">
         <v>35</v>
       </c>
-      <c r="B203" t="s">
-        <v>387</v>
+      <c r="B203">
+        <v>167</v>
       </c>
       <c r="C203" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="D203" t="s">
         <v>53</v>
@@ -7814,11 +7216,11 @@
       <c r="A204" t="s">
         <v>35</v>
       </c>
-      <c r="B204" t="s">
-        <v>389</v>
+      <c r="B204">
+        <v>175</v>
       </c>
       <c r="C204" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D204" t="s">
         <v>53</v>
@@ -7828,11 +7230,11 @@
       <c r="A205" t="s">
         <v>35</v>
       </c>
-      <c r="B205" t="s">
-        <v>391</v>
+      <c r="B205">
+        <v>173</v>
       </c>
       <c r="C205" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="D205" t="s">
         <v>53</v>
@@ -7842,11 +7244,11 @@
       <c r="A206" t="s">
         <v>35</v>
       </c>
-      <c r="B206" t="s">
-        <v>393</v>
+      <c r="B206">
+        <v>190</v>
       </c>
       <c r="C206" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="D206" t="s">
         <v>55</v>
@@ -7856,8 +7258,8 @@
       <c r="A207" t="s">
         <v>35</v>
       </c>
-      <c r="B207" t="s">
-        <v>395</v>
+      <c r="B207">
+        <v>182</v>
       </c>
       <c r="C207" t="s">
         <v>396</v>
@@ -7870,11 +7272,11 @@
       <c r="A208" t="s">
         <v>35</v>
       </c>
-      <c r="B208" t="s">
-        <v>397</v>
+      <c r="B208">
+        <v>184</v>
       </c>
       <c r="C208" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D208" t="s">
         <v>55</v>
@@ -7884,11 +7286,11 @@
       <c r="A209" t="s">
         <v>35</v>
       </c>
-      <c r="B209" t="s">
-        <v>399</v>
+      <c r="B209">
+        <v>188</v>
       </c>
       <c r="C209" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D209" t="s">
         <v>55</v>
@@ -7898,11 +7300,11 @@
       <c r="A210" t="s">
         <v>35</v>
       </c>
-      <c r="B210" t="s">
-        <v>401</v>
+      <c r="B210">
+        <v>189</v>
       </c>
       <c r="C210" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D210" t="s">
         <v>55</v>
@@ -7912,11 +7314,11 @@
       <c r="A211" t="s">
         <v>35</v>
       </c>
-      <c r="B211" t="s">
-        <v>403</v>
+      <c r="B211">
+        <v>181</v>
       </c>
       <c r="C211" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D211" t="s">
         <v>55</v>
@@ -7926,11 +7328,11 @@
       <c r="A212" t="s">
         <v>35</v>
       </c>
-      <c r="B212" t="s">
-        <v>405</v>
+      <c r="B212">
+        <v>185</v>
       </c>
       <c r="C212" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D212" t="s">
         <v>55</v>
@@ -7940,11 +7342,11 @@
       <c r="A213" t="s">
         <v>35</v>
       </c>
-      <c r="B213" t="s">
-        <v>407</v>
+      <c r="B213">
+        <v>187</v>
       </c>
       <c r="C213" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D213" t="s">
         <v>55</v>
@@ -7954,11 +7356,11 @@
       <c r="A214" t="s">
         <v>35</v>
       </c>
-      <c r="B214" t="s">
-        <v>409</v>
+      <c r="B214">
+        <v>186</v>
       </c>
       <c r="C214" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D214" t="s">
         <v>55</v>
@@ -7968,11 +7370,11 @@
       <c r="A215" t="s">
         <v>35</v>
       </c>
-      <c r="B215" t="s">
-        <v>411</v>
+      <c r="B215">
+        <v>192</v>
       </c>
       <c r="C215" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D215" t="s">
         <v>55</v>
@@ -7982,11 +7384,11 @@
       <c r="A216" t="s">
         <v>35</v>
       </c>
-      <c r="B216" t="s">
-        <v>413</v>
+      <c r="B216">
+        <v>183</v>
       </c>
       <c r="C216" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D216" t="s">
         <v>55</v>
@@ -7996,11 +7398,11 @@
       <c r="A217" t="s">
         <v>35</v>
       </c>
-      <c r="B217" t="s">
-        <v>415</v>
+      <c r="B217">
+        <v>191</v>
       </c>
       <c r="C217" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D217" t="s">
         <v>55</v>
@@ -8010,11 +7412,11 @@
       <c r="A218" t="s">
         <v>35</v>
       </c>
-      <c r="B218" t="s">
-        <v>417</v>
+      <c r="B218">
+        <v>195</v>
       </c>
       <c r="C218" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D218" t="s">
         <v>57</v>
@@ -8024,11 +7426,11 @@
       <c r="A219" t="s">
         <v>35</v>
       </c>
-      <c r="B219" t="s">
-        <v>419</v>
+      <c r="B219">
+        <v>199</v>
       </c>
       <c r="C219" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D219" t="s">
         <v>57</v>
@@ -8038,11 +7440,11 @@
       <c r="A220" t="s">
         <v>35</v>
       </c>
-      <c r="B220" t="s">
-        <v>421</v>
+      <c r="B220">
+        <v>193</v>
       </c>
       <c r="C220" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D220" t="s">
         <v>57</v>
@@ -8052,11 +7454,11 @@
       <c r="A221" t="s">
         <v>35</v>
       </c>
-      <c r="B221" t="s">
-        <v>423</v>
+      <c r="B221">
+        <v>198</v>
       </c>
       <c r="C221" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D221" t="s">
         <v>57</v>
@@ -8066,8 +7468,8 @@
       <c r="A222" t="s">
         <v>35</v>
       </c>
-      <c r="B222" t="s">
-        <v>425</v>
+      <c r="B222">
+        <v>197</v>
       </c>
       <c r="C222" t="s">
         <v>426</v>
@@ -8080,11 +7482,11 @@
       <c r="A223" t="s">
         <v>35</v>
       </c>
-      <c r="B223" t="s">
-        <v>427</v>
+      <c r="B223">
+        <v>201</v>
       </c>
       <c r="C223" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D223" t="s">
         <v>57</v>
@@ -8094,11 +7496,11 @@
       <c r="A224" t="s">
         <v>35</v>
       </c>
-      <c r="B224" t="s">
-        <v>429</v>
+      <c r="B224">
+        <v>194</v>
       </c>
       <c r="C224" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D224" t="s">
         <v>57</v>
@@ -8108,11 +7510,11 @@
       <c r="A225" t="s">
         <v>35</v>
       </c>
-      <c r="B225" t="s">
-        <v>431</v>
+      <c r="B225">
+        <v>196</v>
       </c>
       <c r="C225" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D225" t="s">
         <v>57</v>
@@ -8122,11 +7524,11 @@
       <c r="A226" t="s">
         <v>35</v>
       </c>
-      <c r="B226" t="s">
-        <v>433</v>
+      <c r="B226">
+        <v>200</v>
       </c>
       <c r="C226" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D226" t="s">
         <v>57</v>
@@ -8136,8 +7538,8 @@
       <c r="A227" t="s">
         <v>35</v>
       </c>
-      <c r="B227" t="s">
-        <v>435</v>
+      <c r="B227">
+        <v>202</v>
       </c>
       <c r="C227" t="s">
         <v>436</v>
@@ -8150,11 +7552,11 @@
       <c r="A228" t="s">
         <v>35</v>
       </c>
-      <c r="B228" t="s">
-        <v>437</v>
+      <c r="B228">
+        <v>220</v>
       </c>
       <c r="C228" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="D228" t="s">
         <v>59</v>
@@ -8164,11 +7566,11 @@
       <c r="A229" t="s">
         <v>35</v>
       </c>
-      <c r="B229" t="s">
-        <v>439</v>
+      <c r="B229">
+        <v>214</v>
       </c>
       <c r="C229" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="D229" t="s">
         <v>59</v>
@@ -8178,8 +7580,8 @@
       <c r="A230" t="s">
         <v>35</v>
       </c>
-      <c r="B230" t="s">
-        <v>441</v>
+      <c r="B230">
+        <v>205</v>
       </c>
       <c r="C230" t="s">
         <v>442</v>
@@ -8192,11 +7594,11 @@
       <c r="A231" t="s">
         <v>35</v>
       </c>
-      <c r="B231" t="s">
-        <v>443</v>
+      <c r="B231">
+        <v>219</v>
       </c>
       <c r="C231" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="D231" t="s">
         <v>59</v>
@@ -8206,8 +7608,8 @@
       <c r="A232" t="s">
         <v>35</v>
       </c>
-      <c r="B232" t="s">
-        <v>445</v>
+      <c r="B232">
+        <v>207</v>
       </c>
       <c r="C232" t="s">
         <v>446</v>
@@ -8220,11 +7622,11 @@
       <c r="A233" t="s">
         <v>35</v>
       </c>
-      <c r="B233" t="s">
-        <v>447</v>
+      <c r="B233">
+        <v>215</v>
       </c>
       <c r="C233" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="D233" t="s">
         <v>59</v>
@@ -8234,11 +7636,11 @@
       <c r="A234" t="s">
         <v>35</v>
       </c>
-      <c r="B234" t="s">
-        <v>449</v>
+      <c r="B234">
+        <v>206</v>
       </c>
       <c r="C234" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D234" t="s">
         <v>59</v>
@@ -8248,11 +7650,11 @@
       <c r="A235" t="s">
         <v>35</v>
       </c>
-      <c r="B235" t="s">
-        <v>451</v>
+      <c r="B235">
+        <v>203</v>
       </c>
       <c r="C235" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="D235" t="s">
         <v>59</v>
@@ -8262,11 +7664,11 @@
       <c r="A236" t="s">
         <v>35</v>
       </c>
-      <c r="B236" t="s">
-        <v>453</v>
+      <c r="B236">
+        <v>216</v>
       </c>
       <c r="C236" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="D236" t="s">
         <v>59</v>
@@ -8276,11 +7678,11 @@
       <c r="A237" t="s">
         <v>35</v>
       </c>
-      <c r="B237" t="s">
-        <v>455</v>
+      <c r="B237">
+        <v>208</v>
       </c>
       <c r="C237" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D237" t="s">
         <v>59</v>
@@ -8290,11 +7692,11 @@
       <c r="A238" t="s">
         <v>35</v>
       </c>
-      <c r="B238" t="s">
-        <v>457</v>
+      <c r="B238">
+        <v>209</v>
       </c>
       <c r="C238" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D238" t="s">
         <v>59</v>
@@ -8304,11 +7706,11 @@
       <c r="A239" t="s">
         <v>35</v>
       </c>
-      <c r="B239" t="s">
-        <v>459</v>
+      <c r="B239">
+        <v>204</v>
       </c>
       <c r="C239" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="D239" t="s">
         <v>59</v>
@@ -8318,11 +7720,11 @@
       <c r="A240" t="s">
         <v>35</v>
       </c>
-      <c r="B240" t="s">
-        <v>461</v>
+      <c r="B240">
+        <v>211</v>
       </c>
       <c r="C240" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D240" t="s">
         <v>59</v>
@@ -8332,11 +7734,11 @@
       <c r="A241" t="s">
         <v>35</v>
       </c>
-      <c r="B241" t="s">
-        <v>463</v>
+      <c r="B241">
+        <v>218</v>
       </c>
       <c r="C241" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D241" t="s">
         <v>59</v>
@@ -8346,11 +7748,11 @@
       <c r="A242" t="s">
         <v>35</v>
       </c>
-      <c r="B242" t="s">
-        <v>465</v>
+      <c r="B242">
+        <v>213</v>
       </c>
       <c r="C242" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D242" t="s">
         <v>59</v>
@@ -8360,11 +7762,11 @@
       <c r="A243" t="s">
         <v>35</v>
       </c>
-      <c r="B243" t="s">
-        <v>467</v>
+      <c r="B243">
+        <v>210</v>
       </c>
       <c r="C243" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="D243" t="s">
         <v>59</v>
@@ -8374,11 +7776,11 @@
       <c r="A244" t="s">
         <v>35</v>
       </c>
-      <c r="B244" t="s">
-        <v>469</v>
+      <c r="B244">
+        <v>212</v>
       </c>
       <c r="C244" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="D244" t="s">
         <v>59</v>
@@ -8388,11 +7790,11 @@
       <c r="A245" t="s">
         <v>35</v>
       </c>
-      <c r="B245" t="s">
-        <v>471</v>
+      <c r="B245">
+        <v>217</v>
       </c>
       <c r="C245" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D245" t="s">
         <v>59</v>
@@ -8402,11 +7804,11 @@
       <c r="A246" t="s">
         <v>35</v>
       </c>
-      <c r="B246" t="s">
-        <v>473</v>
+      <c r="B246">
+        <v>235</v>
       </c>
       <c r="C246" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="D246" t="s">
         <v>61</v>
@@ -8416,11 +7818,11 @@
       <c r="A247" t="s">
         <v>35</v>
       </c>
-      <c r="B247" t="s">
-        <v>475</v>
+      <c r="B247">
+        <v>221</v>
       </c>
       <c r="C247" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D247" t="s">
         <v>61</v>
@@ -8430,11 +7832,11 @@
       <c r="A248" t="s">
         <v>35</v>
       </c>
-      <c r="B248" t="s">
-        <v>477</v>
+      <c r="B248">
+        <v>232</v>
       </c>
       <c r="C248" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="D248" t="s">
         <v>61</v>
@@ -8444,8 +7846,8 @@
       <c r="A249" t="s">
         <v>35</v>
       </c>
-      <c r="B249" t="s">
-        <v>479</v>
+      <c r="B249">
+        <v>224</v>
       </c>
       <c r="C249" t="s">
         <v>480</v>
@@ -8458,11 +7860,11 @@
       <c r="A250" t="s">
         <v>35</v>
       </c>
-      <c r="B250" t="s">
-        <v>481</v>
+      <c r="B250">
+        <v>226</v>
       </c>
       <c r="C250" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D250" t="s">
         <v>61</v>
@@ -8472,11 +7874,11 @@
       <c r="A251" t="s">
         <v>35</v>
       </c>
-      <c r="B251" t="s">
-        <v>483</v>
+      <c r="B251">
+        <v>225</v>
       </c>
       <c r="C251" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D251" t="s">
         <v>61</v>
@@ -8486,11 +7888,11 @@
       <c r="A252" t="s">
         <v>35</v>
       </c>
-      <c r="B252" t="s">
-        <v>485</v>
+      <c r="B252">
+        <v>236</v>
       </c>
       <c r="C252" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="D252" t="s">
         <v>61</v>
@@ -8500,11 +7902,11 @@
       <c r="A253" t="s">
         <v>35</v>
       </c>
-      <c r="B253" t="s">
-        <v>487</v>
+      <c r="B253">
+        <v>231</v>
       </c>
       <c r="C253" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D253" t="s">
         <v>61</v>
@@ -8514,11 +7916,11 @@
       <c r="A254" t="s">
         <v>35</v>
       </c>
-      <c r="B254" t="s">
-        <v>489</v>
+      <c r="B254">
+        <v>230</v>
       </c>
       <c r="C254" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D254" t="s">
         <v>61</v>
@@ -8528,11 +7930,11 @@
       <c r="A255" t="s">
         <v>35</v>
       </c>
-      <c r="B255" t="s">
-        <v>491</v>
+      <c r="B255">
+        <v>234</v>
       </c>
       <c r="C255" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D255" t="s">
         <v>61</v>
@@ -8542,11 +7944,11 @@
       <c r="A256" t="s">
         <v>35</v>
       </c>
-      <c r="B256" t="s">
-        <v>493</v>
+      <c r="B256">
+        <v>222</v>
       </c>
       <c r="C256" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="D256" t="s">
         <v>61</v>
@@ -8556,11 +7958,11 @@
       <c r="A257" t="s">
         <v>35</v>
       </c>
-      <c r="B257" t="s">
-        <v>495</v>
+      <c r="B257">
+        <v>223</v>
       </c>
       <c r="C257" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="D257" t="s">
         <v>61</v>
@@ -8570,11 +7972,11 @@
       <c r="A258" t="s">
         <v>35</v>
       </c>
-      <c r="B258" t="s">
-        <v>497</v>
+      <c r="B258">
+        <v>228</v>
       </c>
       <c r="C258" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="D258" t="s">
         <v>61</v>
@@ -8584,11 +7986,11 @@
       <c r="A259" t="s">
         <v>35</v>
       </c>
-      <c r="B259" t="s">
-        <v>499</v>
+      <c r="B259">
+        <v>227</v>
       </c>
       <c r="C259" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="D259" t="s">
         <v>61</v>
@@ -8598,11 +8000,11 @@
       <c r="A260" t="s">
         <v>35</v>
       </c>
-      <c r="B260" t="s">
-        <v>501</v>
+      <c r="B260">
+        <v>233</v>
       </c>
       <c r="C260" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D260" t="s">
         <v>61</v>
@@ -8612,11 +8014,11 @@
       <c r="A261" t="s">
         <v>35</v>
       </c>
-      <c r="B261" t="s">
-        <v>503</v>
+      <c r="B261">
+        <v>229</v>
       </c>
       <c r="C261" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="D261" t="s">
         <v>61</v>
@@ -8626,8 +8028,8 @@
       <c r="A262" t="s">
         <v>35</v>
       </c>
-      <c r="B262" t="s">
-        <v>505</v>
+      <c r="B262">
+        <v>237</v>
       </c>
       <c r="C262" t="s">
         <v>506</v>
@@ -8640,11 +8042,11 @@
       <c r="A263" t="s">
         <v>35</v>
       </c>
-      <c r="B263" t="s">
-        <v>507</v>
+      <c r="B263">
+        <v>243</v>
       </c>
       <c r="C263" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D263" t="s">
         <v>63</v>
@@ -8654,11 +8056,11 @@
       <c r="A264" t="s">
         <v>35</v>
       </c>
-      <c r="B264" t="s">
-        <v>509</v>
+      <c r="B264">
+        <v>255</v>
       </c>
       <c r="C264" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="D264" t="s">
         <v>63</v>
@@ -8668,11 +8070,11 @@
       <c r="A265" t="s">
         <v>35</v>
       </c>
-      <c r="B265" t="s">
-        <v>511</v>
+      <c r="B265">
+        <v>242</v>
       </c>
       <c r="C265" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D265" t="s">
         <v>63</v>
@@ -8682,11 +8084,11 @@
       <c r="A266" t="s">
         <v>35</v>
       </c>
-      <c r="B266" t="s">
-        <v>513</v>
+      <c r="B266">
+        <v>252</v>
       </c>
       <c r="C266" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="D266" t="s">
         <v>63</v>
@@ -8696,11 +8098,11 @@
       <c r="A267" t="s">
         <v>35</v>
       </c>
-      <c r="B267" t="s">
-        <v>515</v>
+      <c r="B267">
+        <v>258</v>
       </c>
       <c r="C267" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="D267" t="s">
         <v>63</v>
@@ -8710,11 +8112,11 @@
       <c r="A268" t="s">
         <v>35</v>
       </c>
-      <c r="B268" t="s">
-        <v>517</v>
+      <c r="B268">
+        <v>238</v>
       </c>
       <c r="C268" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D268" t="s">
         <v>63</v>
@@ -8724,11 +8126,11 @@
       <c r="A269" t="s">
         <v>35</v>
       </c>
-      <c r="B269" t="s">
-        <v>519</v>
+      <c r="B269">
+        <v>245</v>
       </c>
       <c r="C269" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D269" t="s">
         <v>63</v>
@@ -8738,11 +8140,11 @@
       <c r="A270" t="s">
         <v>35</v>
       </c>
-      <c r="B270" t="s">
-        <v>521</v>
+      <c r="B270">
+        <v>251</v>
       </c>
       <c r="C270" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="D270" t="s">
         <v>63</v>
@@ -8752,11 +8154,11 @@
       <c r="A271" t="s">
         <v>35</v>
       </c>
-      <c r="B271" t="s">
-        <v>523</v>
+      <c r="B271">
+        <v>259</v>
       </c>
       <c r="C271" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="D271" t="s">
         <v>63</v>
@@ -8766,11 +8168,11 @@
       <c r="A272" t="s">
         <v>35</v>
       </c>
-      <c r="B272" t="s">
-        <v>525</v>
+      <c r="B272">
+        <v>241</v>
       </c>
       <c r="C272" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D272" t="s">
         <v>63</v>
@@ -8780,11 +8182,11 @@
       <c r="A273" t="s">
         <v>35</v>
       </c>
-      <c r="B273" t="s">
-        <v>527</v>
+      <c r="B273">
+        <v>257</v>
       </c>
       <c r="C273" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="D273" t="s">
         <v>63</v>
@@ -8794,11 +8196,11 @@
       <c r="A274" t="s">
         <v>35</v>
       </c>
-      <c r="B274" t="s">
-        <v>529</v>
+      <c r="B274">
+        <v>246</v>
       </c>
       <c r="C274" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D274" t="s">
         <v>63</v>
@@ -8808,11 +8210,11 @@
       <c r="A275" t="s">
         <v>35</v>
       </c>
-      <c r="B275" t="s">
-        <v>531</v>
+      <c r="B275">
+        <v>244</v>
       </c>
       <c r="C275" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="D275" t="s">
         <v>63</v>
@@ -8822,11 +8224,11 @@
       <c r="A276" t="s">
         <v>35</v>
       </c>
-      <c r="B276" t="s">
-        <v>533</v>
+      <c r="B276">
+        <v>253</v>
       </c>
       <c r="C276" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D276" t="s">
         <v>63</v>
@@ -8836,11 +8238,11 @@
       <c r="A277" t="s">
         <v>35</v>
       </c>
-      <c r="B277" t="s">
-        <v>535</v>
+      <c r="B277">
+        <v>254</v>
       </c>
       <c r="C277" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D277" t="s">
         <v>63</v>
@@ -8850,11 +8252,11 @@
       <c r="A278" t="s">
         <v>35</v>
       </c>
-      <c r="B278" t="s">
-        <v>537</v>
+      <c r="B278">
+        <v>247</v>
       </c>
       <c r="C278" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="D278" t="s">
         <v>63</v>
@@ -8864,11 +8266,11 @@
       <c r="A279" t="s">
         <v>35</v>
       </c>
-      <c r="B279" t="s">
-        <v>539</v>
+      <c r="B279">
+        <v>249</v>
       </c>
       <c r="C279" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D279" t="s">
         <v>63</v>
@@ -8878,11 +8280,11 @@
       <c r="A280" t="s">
         <v>35</v>
       </c>
-      <c r="B280" t="s">
-        <v>541</v>
+      <c r="B280">
+        <v>250</v>
       </c>
       <c r="C280" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D280" t="s">
         <v>63</v>
@@ -8892,11 +8294,11 @@
       <c r="A281" t="s">
         <v>35</v>
       </c>
-      <c r="B281" t="s">
-        <v>543</v>
+      <c r="B281">
+        <v>248</v>
       </c>
       <c r="C281" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="D281" t="s">
         <v>63</v>
@@ -8906,11 +8308,11 @@
       <c r="A282" t="s">
         <v>35</v>
       </c>
-      <c r="B282" t="s">
-        <v>545</v>
+      <c r="B282">
+        <v>239</v>
       </c>
       <c r="C282" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="D282" t="s">
         <v>63</v>
@@ -8920,11 +8322,11 @@
       <c r="A283" t="s">
         <v>35</v>
       </c>
-      <c r="B283" t="s">
-        <v>547</v>
+      <c r="B283">
+        <v>256</v>
       </c>
       <c r="C283" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D283" t="s">
         <v>63</v>
@@ -8934,11 +8336,11 @@
       <c r="A284" t="s">
         <v>35</v>
       </c>
-      <c r="B284" t="s">
-        <v>549</v>
+      <c r="B284">
+        <v>240</v>
       </c>
       <c r="C284" t="s">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="D284" t="s">
         <v>63</v>
@@ -8948,8 +8350,8 @@
       <c r="A285" t="s">
         <v>35</v>
       </c>
-      <c r="B285" t="s">
-        <v>551</v>
+      <c r="B285">
+        <v>260</v>
       </c>
       <c r="C285" t="s">
         <v>552</v>
@@ -8962,11 +8364,11 @@
       <c r="A286" t="s">
         <v>35</v>
       </c>
-      <c r="B286" t="s">
-        <v>553</v>
+      <c r="B286">
+        <v>263</v>
       </c>
       <c r="C286" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D286" t="s">
         <v>65</v>
@@ -8976,11 +8378,11 @@
       <c r="A287" t="s">
         <v>35</v>
       </c>
-      <c r="B287" t="s">
-        <v>555</v>
+      <c r="B287">
+        <v>265</v>
       </c>
       <c r="C287" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="D287" t="s">
         <v>65</v>
@@ -8990,11 +8392,11 @@
       <c r="A288" t="s">
         <v>35</v>
       </c>
-      <c r="B288" t="s">
-        <v>557</v>
+      <c r="B288">
+        <v>268</v>
       </c>
       <c r="C288" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="D288" t="s">
         <v>65</v>
@@ -9004,11 +8406,11 @@
       <c r="A289" t="s">
         <v>35</v>
       </c>
-      <c r="B289" t="s">
-        <v>559</v>
+      <c r="B289">
+        <v>267</v>
       </c>
       <c r="C289" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D289" t="s">
         <v>65</v>
@@ -9018,11 +8420,11 @@
       <c r="A290" t="s">
         <v>35</v>
       </c>
-      <c r="B290" t="s">
-        <v>561</v>
+      <c r="B290">
+        <v>266</v>
       </c>
       <c r="C290" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D290" t="s">
         <v>65</v>
@@ -9032,11 +8434,11 @@
       <c r="A291" t="s">
         <v>35</v>
       </c>
-      <c r="B291" t="s">
-        <v>563</v>
+      <c r="B291">
+        <v>261</v>
       </c>
       <c r="C291" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D291" t="s">
         <v>65</v>
@@ -9046,11 +8448,11 @@
       <c r="A292" t="s">
         <v>35</v>
       </c>
-      <c r="B292" t="s">
-        <v>565</v>
+      <c r="B292">
+        <v>269</v>
       </c>
       <c r="C292" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D292" t="s">
         <v>65</v>
@@ -9060,11 +8462,11 @@
       <c r="A293" t="s">
         <v>35</v>
       </c>
-      <c r="B293" t="s">
-        <v>567</v>
+      <c r="B293">
+        <v>262</v>
       </c>
       <c r="C293" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D293" t="s">
         <v>65</v>
@@ -9074,11 +8476,11 @@
       <c r="A294" t="s">
         <v>35</v>
       </c>
-      <c r="B294" t="s">
-        <v>569</v>
+      <c r="B294">
+        <v>264</v>
       </c>
       <c r="C294" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D294" t="s">
         <v>65</v>
@@ -9088,8 +8490,8 @@
       <c r="A295" t="s">
         <v>35</v>
       </c>
-      <c r="B295" t="s">
-        <v>571</v>
+      <c r="B295">
+        <v>270</v>
       </c>
       <c r="C295" t="s">
         <v>572</v>
@@ -9102,11 +8504,11 @@
       <c r="A296" t="s">
         <v>35</v>
       </c>
-      <c r="B296" t="s">
-        <v>573</v>
+      <c r="B296">
+        <v>283</v>
       </c>
       <c r="C296" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="D296" t="s">
         <v>67</v>
@@ -9116,11 +8518,11 @@
       <c r="A297" t="s">
         <v>35</v>
       </c>
-      <c r="B297" t="s">
-        <v>575</v>
+      <c r="B297">
+        <v>286</v>
       </c>
       <c r="C297" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="D297" t="s">
         <v>67</v>
@@ -9130,11 +8532,11 @@
       <c r="A298" t="s">
         <v>35</v>
       </c>
-      <c r="B298" t="s">
-        <v>577</v>
+      <c r="B298">
+        <v>288</v>
       </c>
       <c r="C298" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="D298" t="s">
         <v>67</v>
@@ -9144,11 +8546,11 @@
       <c r="A299" t="s">
         <v>35</v>
       </c>
-      <c r="B299" t="s">
-        <v>579</v>
+      <c r="B299">
+        <v>278</v>
       </c>
       <c r="C299" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D299" t="s">
         <v>67</v>
@@ -9158,11 +8560,11 @@
       <c r="A300" t="s">
         <v>35</v>
       </c>
-      <c r="B300" t="s">
-        <v>581</v>
+      <c r="B300">
+        <v>274</v>
       </c>
       <c r="C300" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D300" t="s">
         <v>67</v>
@@ -9172,8 +8574,8 @@
       <c r="A301" t="s">
         <v>35</v>
       </c>
-      <c r="B301" t="s">
-        <v>583</v>
+      <c r="B301">
+        <v>276</v>
       </c>
       <c r="C301" t="s">
         <v>584</v>
@@ -9186,11 +8588,11 @@
       <c r="A302" t="s">
         <v>35</v>
       </c>
-      <c r="B302" t="s">
-        <v>585</v>
+      <c r="B302">
+        <v>282</v>
       </c>
       <c r="C302" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="D302" t="s">
         <v>67</v>
@@ -9200,11 +8602,11 @@
       <c r="A303" t="s">
         <v>35</v>
       </c>
-      <c r="B303" t="s">
-        <v>587</v>
+      <c r="B303">
+        <v>281</v>
       </c>
       <c r="C303" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D303" t="s">
         <v>67</v>
@@ -9214,11 +8616,11 @@
       <c r="A304" t="s">
         <v>35</v>
       </c>
-      <c r="B304" t="s">
-        <v>589</v>
+      <c r="B304">
+        <v>287</v>
       </c>
       <c r="C304" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="D304" t="s">
         <v>67</v>
@@ -9228,11 +8630,11 @@
       <c r="A305" t="s">
         <v>35</v>
       </c>
-      <c r="B305" t="s">
-        <v>591</v>
+      <c r="B305">
+        <v>292</v>
       </c>
       <c r="C305" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="D305" t="s">
         <v>67</v>
@@ -9242,11 +8644,11 @@
       <c r="A306" t="s">
         <v>35</v>
       </c>
-      <c r="B306" t="s">
-        <v>593</v>
+      <c r="B306">
+        <v>284</v>
       </c>
       <c r="C306" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D306" t="s">
         <v>67</v>
@@ -9256,11 +8658,11 @@
       <c r="A307" t="s">
         <v>35</v>
       </c>
-      <c r="B307" t="s">
-        <v>595</v>
+      <c r="B307">
+        <v>290</v>
       </c>
       <c r="C307" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="D307" t="s">
         <v>67</v>
@@ -9270,11 +8672,11 @@
       <c r="A308" t="s">
         <v>35</v>
       </c>
-      <c r="B308" t="s">
-        <v>597</v>
+      <c r="B308">
+        <v>271</v>
       </c>
       <c r="C308" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="D308" t="s">
         <v>67</v>
@@ -9284,11 +8686,11 @@
       <c r="A309" t="s">
         <v>35</v>
       </c>
-      <c r="B309" t="s">
-        <v>599</v>
+      <c r="B309">
+        <v>272</v>
       </c>
       <c r="C309" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="D309" t="s">
         <v>67</v>
@@ -9298,8 +8700,8 @@
       <c r="A310" t="s">
         <v>35</v>
       </c>
-      <c r="B310" t="s">
-        <v>601</v>
+      <c r="B310">
+        <v>285</v>
       </c>
       <c r="C310" t="s">
         <v>602</v>
@@ -9312,11 +8714,11 @@
       <c r="A311" t="s">
         <v>35</v>
       </c>
-      <c r="B311" t="s">
-        <v>603</v>
+      <c r="B311">
+        <v>280</v>
       </c>
       <c r="C311" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="D311" t="s">
         <v>67</v>
@@ -9326,11 +8728,11 @@
       <c r="A312" t="s">
         <v>35</v>
       </c>
-      <c r="B312" t="s">
-        <v>605</v>
+      <c r="B312">
+        <v>273</v>
       </c>
       <c r="C312" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="D312" t="s">
         <v>67</v>
@@ -9340,11 +8742,11 @@
       <c r="A313" t="s">
         <v>35</v>
       </c>
-      <c r="B313" t="s">
-        <v>607</v>
+      <c r="B313">
+        <v>279</v>
       </c>
       <c r="C313" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="D313" t="s">
         <v>67</v>
@@ -9354,11 +8756,11 @@
       <c r="A314" t="s">
         <v>35</v>
       </c>
-      <c r="B314" t="s">
-        <v>609</v>
+      <c r="B314">
+        <v>291</v>
       </c>
       <c r="C314" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D314" t="s">
         <v>67</v>
@@ -9368,11 +8770,11 @@
       <c r="A315" t="s">
         <v>35</v>
       </c>
-      <c r="B315" t="s">
-        <v>611</v>
+      <c r="B315">
+        <v>275</v>
       </c>
       <c r="C315" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="D315" t="s">
         <v>67</v>
@@ -9382,11 +8784,11 @@
       <c r="A316" t="s">
         <v>35</v>
       </c>
-      <c r="B316" t="s">
-        <v>613</v>
+      <c r="B316">
+        <v>277</v>
       </c>
       <c r="C316" t="s">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="D316" t="s">
         <v>67</v>
@@ -9396,11 +8798,11 @@
       <c r="A317" t="s">
         <v>35</v>
       </c>
-      <c r="B317" t="s">
-        <v>615</v>
+      <c r="B317">
+        <v>289</v>
       </c>
       <c r="C317" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D317" t="s">
         <v>67</v>
@@ -9410,11 +8812,11 @@
       <c r="A318" t="s">
         <v>35</v>
       </c>
-      <c r="B318" t="s">
-        <v>617</v>
+      <c r="B318">
+        <v>305</v>
       </c>
       <c r="C318" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="D318" t="s">
         <v>69</v>
@@ -9424,11 +8826,11 @@
       <c r="A319" t="s">
         <v>35</v>
       </c>
-      <c r="B319" t="s">
-        <v>619</v>
+      <c r="B319">
+        <v>296</v>
       </c>
       <c r="C319" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D319" t="s">
         <v>69</v>
@@ -9438,11 +8840,11 @@
       <c r="A320" t="s">
         <v>35</v>
       </c>
-      <c r="B320" t="s">
-        <v>621</v>
+      <c r="B320">
+        <v>294</v>
       </c>
       <c r="C320" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D320" t="s">
         <v>69</v>
@@ -9452,11 +8854,11 @@
       <c r="A321" t="s">
         <v>35</v>
       </c>
-      <c r="B321" t="s">
-        <v>623</v>
+      <c r="B321">
+        <v>295</v>
       </c>
       <c r="C321" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D321" t="s">
         <v>69</v>
@@ -9466,8 +8868,8 @@
       <c r="A322" t="s">
         <v>35</v>
       </c>
-      <c r="B322" t="s">
-        <v>625</v>
+      <c r="B322">
+        <v>297</v>
       </c>
       <c r="C322" t="s">
         <v>626</v>
@@ -9480,11 +8882,11 @@
       <c r="A323" t="s">
         <v>35</v>
       </c>
-      <c r="B323" t="s">
-        <v>627</v>
+      <c r="B323">
+        <v>299</v>
       </c>
       <c r="C323" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D323" t="s">
         <v>69</v>
@@ -9494,11 +8896,11 @@
       <c r="A324" t="s">
         <v>35</v>
       </c>
-      <c r="B324" t="s">
-        <v>629</v>
+      <c r="B324">
+        <v>304</v>
       </c>
       <c r="C324" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="D324" t="s">
         <v>69</v>
@@ -9508,11 +8910,11 @@
       <c r="A325" t="s">
         <v>35</v>
       </c>
-      <c r="B325" t="s">
-        <v>631</v>
+      <c r="B325">
+        <v>306</v>
       </c>
       <c r="C325" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="D325" t="s">
         <v>69</v>
@@ -9522,8 +8924,8 @@
       <c r="A326" t="s">
         <v>35</v>
       </c>
-      <c r="B326" t="s">
-        <v>633</v>
+      <c r="B326">
+        <v>301</v>
       </c>
       <c r="C326" t="s">
         <v>634</v>
@@ -9536,8 +8938,8 @@
       <c r="A327" t="s">
         <v>35</v>
       </c>
-      <c r="B327" t="s">
-        <v>635</v>
+      <c r="B327">
+        <v>302</v>
       </c>
       <c r="C327" t="s">
         <v>636</v>
@@ -9550,8 +8952,8 @@
       <c r="A328" t="s">
         <v>35</v>
       </c>
-      <c r="B328" t="s">
-        <v>637</v>
+      <c r="B328">
+        <v>303</v>
       </c>
       <c r="C328" t="s">
         <v>638</v>
@@ -9564,11 +8966,11 @@
       <c r="A329" t="s">
         <v>35</v>
       </c>
-      <c r="B329" t="s">
-        <v>639</v>
+      <c r="B329">
+        <v>298</v>
       </c>
       <c r="C329" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="D329" t="s">
         <v>69</v>
@@ -9578,11 +8980,11 @@
       <c r="A330" t="s">
         <v>35</v>
       </c>
-      <c r="B330" t="s">
-        <v>641</v>
+      <c r="B330">
+        <v>300</v>
       </c>
       <c r="C330" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="D330" t="s">
         <v>69</v>
@@ -9592,11 +8994,11 @@
       <c r="A331" t="s">
         <v>35</v>
       </c>
-      <c r="B331" t="s">
-        <v>643</v>
+      <c r="B331">
+        <v>293</v>
       </c>
       <c r="C331" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="D331" t="s">
         <v>69</v>
@@ -9606,11 +9008,11 @@
       <c r="A332" t="s">
         <v>35</v>
       </c>
-      <c r="B332" t="s">
-        <v>645</v>
+      <c r="B332">
+        <v>309</v>
       </c>
       <c r="C332" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D332" t="s">
         <v>71</v>
@@ -9620,11 +9022,11 @@
       <c r="A333" t="s">
         <v>35</v>
       </c>
-      <c r="B333" t="s">
-        <v>647</v>
+      <c r="B333">
+        <v>313</v>
       </c>
       <c r="C333" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="D333" t="s">
         <v>71</v>
@@ -9634,11 +9036,11 @@
       <c r="A334" t="s">
         <v>35</v>
       </c>
-      <c r="B334" t="s">
-        <v>649</v>
+      <c r="B334">
+        <v>308</v>
       </c>
       <c r="C334" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D334" t="s">
         <v>71</v>
@@ -9648,11 +9050,11 @@
       <c r="A335" t="s">
         <v>35</v>
       </c>
-      <c r="B335" t="s">
-        <v>651</v>
+      <c r="B335">
+        <v>311</v>
       </c>
       <c r="C335" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D335" t="s">
         <v>71</v>
@@ -9662,50 +9064,50 @@
       <c r="A336" t="s">
         <v>35</v>
       </c>
-      <c r="B336" t="s">
-        <v>653</v>
+      <c r="B336">
+        <v>315</v>
       </c>
       <c r="C336" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="D336" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:5">
       <c r="A337" t="s">
         <v>35</v>
       </c>
-      <c r="B337" t="s">
-        <v>655</v>
+      <c r="B337">
+        <v>316</v>
       </c>
       <c r="C337" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="D337" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:5">
       <c r="A338" t="s">
         <v>35</v>
       </c>
-      <c r="B338" t="s">
-        <v>657</v>
+      <c r="B338">
+        <v>307</v>
       </c>
       <c r="C338" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="D338" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:5">
       <c r="A339" t="s">
         <v>35</v>
       </c>
-      <c r="B339" t="s">
-        <v>659</v>
+      <c r="B339">
+        <v>314</v>
       </c>
       <c r="C339" t="s">
         <v>660</v>
@@ -9714,54 +9116,54 @@
         <v>71</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:5">
       <c r="A340" t="s">
         <v>35</v>
       </c>
-      <c r="B340" t="s">
-        <v>661</v>
+      <c r="B340">
+        <v>317</v>
       </c>
       <c r="C340" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D340" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:5">
       <c r="A341" t="s">
         <v>35</v>
       </c>
-      <c r="B341" t="s">
-        <v>663</v>
+      <c r="B341">
+        <v>310</v>
       </c>
       <c r="C341" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="D341" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:5">
       <c r="A342" t="s">
         <v>35</v>
       </c>
-      <c r="B342" t="s">
-        <v>665</v>
+      <c r="B342">
+        <v>312</v>
       </c>
       <c r="C342" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="D342" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:5">
       <c r="A343" t="s">
         <v>35</v>
       </c>
-      <c r="B343" t="s">
-        <v>667</v>
+      <c r="B343">
+        <v>318</v>
       </c>
       <c r="C343" t="s">
         <v>668</v>
@@ -9770,12 +9172,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:5">
       <c r="A344" t="s">
         <v>35</v>
       </c>
-      <c r="B344" t="s">
-        <v>669</v>
+      <c r="B344">
+        <v>319</v>
       </c>
       <c r="C344" t="s">
         <v>670</v>
@@ -9784,99 +9186,99 @@
         <v>73</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:5">
       <c r="A345" t="s">
         <v>35</v>
       </c>
-      <c r="B345" t="s">
-        <v>671</v>
+      <c r="B345">
+        <v>323</v>
       </c>
       <c r="C345" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="D345" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:5">
       <c r="A346" t="s">
         <v>35</v>
       </c>
-      <c r="B346" t="s">
-        <v>673</v>
+      <c r="B346">
+        <v>324</v>
       </c>
       <c r="C346" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="D346" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:5">
       <c r="A347" t="s">
         <v>35</v>
       </c>
-      <c r="B347" t="s">
-        <v>675</v>
+      <c r="B347">
+        <v>326</v>
       </c>
       <c r="C347" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="D347" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:5">
       <c r="A348" t="s">
         <v>35</v>
       </c>
-      <c r="B348" t="s">
-        <v>677</v>
+      <c r="B348">
+        <v>325</v>
       </c>
       <c r="C348" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D348" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:5">
       <c r="A349" t="s">
         <v>35</v>
       </c>
-      <c r="B349" t="s">
-        <v>679</v>
+      <c r="B349">
+        <v>320</v>
       </c>
       <c r="C349" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="D349" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:5">
       <c r="A350" t="s">
         <v>35</v>
       </c>
-      <c r="B350" t="s">
-        <v>681</v>
+      <c r="B350">
+        <v>321</v>
       </c>
       <c r="C350" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D350" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:5">
       <c r="A351" t="s">
         <v>35</v>
       </c>
-      <c r="B351" t="s">
-        <v>683</v>
+      <c r="B351">
+        <v>322</v>
       </c>
       <c r="C351" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="D351" t="s">
         <v>73</v>
@@ -17288,7 +16690,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="881" spans="1:5">
+    <row r="881" spans="1:6">
       <c r="A881" t="s">
         <v>685</v>
       </c>
@@ -17302,7 +16704,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="882" spans="1:5">
+    <row r="882" spans="1:6">
       <c r="A882" t="s">
         <v>685</v>
       </c>
@@ -17316,7 +16718,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="883" spans="1:5">
+    <row r="883" spans="1:6">
       <c r="A883" t="s">
         <v>685</v>
       </c>
@@ -17330,7 +16732,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="884" spans="1:5">
+    <row r="884" spans="1:6">
       <c r="A884" t="s">
         <v>685</v>
       </c>
@@ -17344,7 +16746,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="885" spans="1:5">
+    <row r="885" spans="1:6">
       <c r="A885" t="s">
         <v>685</v>
       </c>
@@ -17358,7 +16760,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="886" spans="1:5">
+    <row r="886" spans="1:6">
       <c r="A886" t="s">
         <v>685</v>
       </c>
@@ -17372,7 +16774,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="887" spans="1:5">
+    <row r="887" spans="1:6">
       <c r="A887" t="s">
         <v>685</v>
       </c>
@@ -17386,7 +16788,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="888" spans="1:5">
+    <row r="888" spans="1:6">
       <c r="A888" t="s">
         <v>685</v>
       </c>
@@ -17400,7 +16802,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="889" spans="1:5">
+    <row r="889" spans="1:6">
       <c r="A889" t="s">
         <v>685</v>
       </c>
@@ -17414,7 +16816,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="890" spans="1:5">
+    <row r="890" spans="1:6">
       <c r="A890" t="s">
         <v>685</v>
       </c>
@@ -17428,7 +16830,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="891" spans="1:5">
+    <row r="891" spans="1:6">
       <c r="A891" t="s">
         <v>685</v>
       </c>
@@ -17442,7 +16844,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="892" spans="1:5">
+    <row r="892" spans="1:6">
       <c r="A892" t="s">
         <v>685</v>
       </c>
@@ -17473,7 +16875,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="894" spans="1:3">
+    <row r="894" spans="1:6">
       <c r="A894" t="s">
         <v>1135</v>
       </c>
@@ -17484,7 +16886,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="895" spans="1:3">
+    <row r="895" spans="1:6">
       <c r="A895" t="s">
         <v>1135</v>
       </c>
@@ -17495,7 +16897,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="896" spans="1:3">
+    <row r="896" spans="1:6">
       <c r="A896" t="s">
         <v>1135</v>
       </c>
@@ -17682,7 +17084,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="913" spans="1:3">
+    <row r="913" spans="1:6">
       <c r="A913" t="s">
         <v>1153</v>
       </c>
@@ -17693,7 +17095,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="914" spans="1:3">
+    <row r="914" spans="1:6">
       <c r="A914" t="s">
         <v>1153</v>
       </c>
@@ -17704,7 +17106,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="915" spans="1:3">
+    <row r="915" spans="1:6">
       <c r="A915" t="s">
         <v>1153</v>
       </c>
@@ -17715,7 +17117,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="916" spans="1:3">
+    <row r="916" spans="1:6">
       <c r="A916" t="s">
         <v>1153</v>
       </c>
@@ -18090,7 +17492,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="943" spans="1:3">
+    <row r="943" spans="1:6">
       <c r="A943" t="s">
         <v>1230</v>
       </c>
@@ -18101,7 +17503,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="944" spans="1:3">
+    <row r="944" spans="1:6">
       <c r="A944" t="s">
         <v>1230</v>
       </c>
@@ -18816,7 +18218,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="1009" spans="1:3">
+    <row r="1009" spans="1:4">
       <c r="A1009" t="s">
         <v>1287</v>
       </c>
@@ -18827,7 +18229,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="1010" spans="1:3">
+    <row r="1010" spans="1:4">
       <c r="A1010" t="s">
         <v>1287</v>
       </c>
@@ -18838,7 +18240,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="1011" spans="1:3">
+    <row r="1011" spans="1:4">
       <c r="A1011" t="s">
         <v>1287</v>
       </c>
@@ -18849,7 +18251,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="1012" spans="1:3">
+    <row r="1012" spans="1:4">
       <c r="A1012" t="s">
         <v>1287</v>
       </c>
@@ -18874,7 +18276,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="1014" spans="1:3">
+    <row r="1014" spans="1:4">
       <c r="A1014" t="s">
         <v>1292</v>
       </c>
@@ -18899,7 +18301,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="1016" spans="1:3">
+    <row r="1016" spans="1:4">
       <c r="A1016" t="s">
         <v>1294</v>
       </c>
@@ -18910,7 +18312,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="1017" spans="1:3">
+    <row r="1017" spans="1:4">
       <c r="A1017" t="s">
         <v>1294</v>
       </c>
@@ -18921,7 +18323,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="1018" spans="1:3">
+    <row r="1018" spans="1:4">
       <c r="A1018" t="s">
         <v>1294</v>
       </c>
@@ -18932,7 +18334,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="1019" spans="1:3">
+    <row r="1019" spans="1:4">
       <c r="A1019" t="s">
         <v>1294</v>
       </c>
@@ -18957,7 +18359,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="1021" spans="1:3">
+    <row r="1021" spans="1:4">
       <c r="A1021" t="s">
         <v>1299</v>
       </c>
@@ -18968,7 +18370,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="1022" spans="1:3">
+    <row r="1022" spans="1:4">
       <c r="A1022" t="s">
         <v>1299</v>
       </c>
@@ -18979,7 +18381,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="1023" spans="1:3">
+    <row r="1023" spans="1:4">
       <c r="A1023" t="s">
         <v>1299</v>
       </c>
@@ -18990,7 +18392,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="1024" spans="1:3">
+    <row r="1024" spans="1:4">
       <c r="A1024" t="s">
         <v>1304</v>
       </c>
@@ -19255,141 +18657,267 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C5:C25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:C25">
     <sortCondition ref="C5:C25"/>
   </sortState>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577C0D08-EDB5-4566-947E-D6BEDF1A12D4}">
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I10" sqref="I10:I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="14.2190476190476" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>1321</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>1328</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>1329</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>1330</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="I10" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="I11" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="I12" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>1333</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="I13" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>1334</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="I14" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>1335</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="I15" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="I16" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="I17" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="I18" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>1339</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="I19" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
-        <v>34</v>
+        <v>1340</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="I20" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="I21" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="I22" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="I23" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="I25" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="I26" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="I27" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="I28" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="I29" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="I30" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="I31" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="I32" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" t="s">
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Choices.xlsx
+++ b/Choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Documents\OCHILI\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBE248A-E029-450F-A447-B9EE43C1384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2FF444-C63E-4F5B-AF85-AE08AB2B89A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="1348">
   <si>
     <t>list_name</t>
   </si>
@@ -4065,6 +4065,9 @@
   </si>
   <si>
     <t>138  Pungu a Ndongo</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
   </si>
 </sst>
 </file>
@@ -4109,18 +4112,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4422,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1047"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="C350" sqref="C350"/>
+    <sheetView tabSelected="1" topLeftCell="A978" workbookViewId="0">
+      <selection activeCell="C985" sqref="C985"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17962,7 +17954,7 @@
         <v>39</v>
       </c>
       <c r="C985" t="s">
-        <v>686</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="986" spans="1:3">
@@ -18674,61 +18666,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="45">
       <c r="A1" s="1" t="s">
         <v>1321</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="45">
       <c r="A2" s="1" t="s">
         <v>1322</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="1" t="s">
         <v>1323</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="45">
       <c r="A4" s="1" t="s">
         <v>1324</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="1" t="s">
         <v>1325</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="1" t="s">
         <v>1326</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="1" t="s">
         <v>1327</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="1" t="s">
         <v>1328</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="45">
       <c r="A9" s="1" t="s">
         <v>1329</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="1" t="s">
         <v>1330</v>
       </c>
@@ -18737,7 +18729,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="45">
       <c r="A11" s="1" t="s">
         <v>1331</v>
       </c>
@@ -18746,7 +18738,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="30">
       <c r="A12" s="1" t="s">
         <v>1332</v>
       </c>
@@ -18755,7 +18747,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="30">
       <c r="A13" s="1" t="s">
         <v>1333</v>
       </c>
@@ -18764,7 +18756,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="45">
       <c r="A14" s="1" t="s">
         <v>1334</v>
       </c>
@@ -18773,7 +18765,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="45">
       <c r="A15" s="1" t="s">
         <v>1335</v>
       </c>
@@ -18782,7 +18774,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="60">
       <c r="A16" s="1" t="s">
         <v>1336</v>
       </c>
@@ -18791,7 +18783,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="45">
       <c r="A17" s="1" t="s">
         <v>1337</v>
       </c>
@@ -18800,7 +18792,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="45">
       <c r="A18" s="1" t="s">
         <v>1338</v>
       </c>
@@ -18809,7 +18801,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="30">
       <c r="A19" s="1" t="s">
         <v>1339</v>
       </c>
@@ -18818,7 +18810,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="30">
       <c r="A20" s="1" t="s">
         <v>1340</v>
       </c>
@@ -18827,7 +18819,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="30">
       <c r="A21" s="1" t="s">
         <v>1341</v>
       </c>
@@ -18836,7 +18828,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="30">
       <c r="A22" s="1" t="s">
         <v>1342</v>
       </c>
@@ -18845,7 +18837,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="45">
       <c r="A23" s="1" t="s">
         <v>1343</v>
       </c>

--- a/Choices.xlsx
+++ b/Choices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Documents\OCHILI\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2FF444-C63E-4F5B-AF85-AE08AB2B89A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEFD5A3-9ADA-4595-BB21-00382C0EACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">choices!$A$1:$F$1046</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">choices!$A$1:$F$1048</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -3503,33 +3503,18 @@
     <t>sm_3</t>
   </si>
   <si>
-    <t>Iº Ciclo do Ensino Secundário Geral - Regular</t>
-  </si>
-  <si>
     <t>sm_4</t>
   </si>
   <si>
-    <t>IIº Ciclo do Ensino Secundário Geral - Regular</t>
-  </si>
-  <si>
     <t>sm_5</t>
   </si>
   <si>
-    <t>Iº Ciclo do Ensino Secundário Técnico-Profissional (Formação Profissional Básica)</t>
-  </si>
-  <si>
     <t>sm_6</t>
   </si>
   <si>
-    <t>IIº Ciclo do Ensino Secundário Técnico-Profissional (Formação Média Técnica)</t>
-  </si>
-  <si>
     <t>sm_7</t>
   </si>
   <si>
-    <t>IIº Ciclo de Formação de Professores (Ensino Secundário Pedagógico)</t>
-  </si>
-  <si>
     <t>sm_8</t>
   </si>
   <si>
@@ -3773,15 +3758,9 @@
     <t>Rampas de acesso</t>
   </si>
   <si>
-    <t>Sinalização tátil</t>
-  </si>
-  <si>
     <t>Portas com vão livre de no mínimo 80 cm</t>
   </si>
   <si>
-    <t>Pisos táteis</t>
-  </si>
-  <si>
     <t>Sinalização sonora</t>
   </si>
   <si>
@@ -3845,9 +3824,6 @@
     <t>Águas superficiais(rios, riacho, lagoa, lago, Tcharco, córredo, etc)</t>
   </si>
   <si>
-    <t>Abastecimento de água canalizada</t>
-  </si>
-  <si>
     <t>Água das chuvas</t>
   </si>
   <si>
@@ -3872,9 +3848,6 @@
     <t>Gerador</t>
   </si>
   <si>
-    <t>Painel Solar</t>
-  </si>
-  <si>
     <t>Turbina Eólica</t>
   </si>
   <si>
@@ -4068,18 +4041,52 @@
   </si>
   <si>
     <t>Nenhum</t>
+  </si>
+  <si>
+    <t>I Ciclo do Ensino Secundário Geral - Regular</t>
+  </si>
+  <si>
+    <t>II Ciclo do Ensino Secundário Geral - Regular</t>
+  </si>
+  <si>
+    <t>I Ciclo do Ensino Secundário Técnico-Profissional (Formação Profissional Básica)</t>
+  </si>
+  <si>
+    <t>II Ciclo do Ensino Secundário Técnico-Profissional (Formação Média Técnica)</t>
+  </si>
+  <si>
+    <t>II Ciclo de Formação de Professores (Ensino Secundário Pedagógico)</t>
+  </si>
+  <si>
+    <t>Sinalização táctil</t>
+  </si>
+  <si>
+    <t>Pisos tácteis</t>
+  </si>
+  <si>
+    <t>Abastecimento de água canalizada( rede pública)</t>
+  </si>
+  <si>
+    <t>Painel Solar (fotovoltaico)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4103,11 +4110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4412,10 +4420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1047"/>
+  <dimension ref="A1:F1049"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A978" workbookViewId="0">
-      <selection activeCell="C985" sqref="C985"/>
+    <sheetView tabSelected="1" topLeftCell="A1015" workbookViewId="0">
+      <selection activeCell="C1017" sqref="C1017:C1021"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17051,7 +17059,7 @@
         <v>1158</v>
       </c>
       <c r="C910" t="s">
-        <v>1159</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="911" spans="1:3">
@@ -17059,10 +17067,10 @@
         <v>1153</v>
       </c>
       <c r="B911" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C911" t="s">
-        <v>1161</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="912" spans="1:3">
@@ -17070,10 +17078,10 @@
         <v>1153</v>
       </c>
       <c r="B912" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C912" t="s">
-        <v>1163</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="913" spans="1:6">
@@ -17081,10 +17089,10 @@
         <v>1153</v>
       </c>
       <c r="B913" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C913" t="s">
-        <v>1165</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="914" spans="1:6">
@@ -17092,10 +17100,10 @@
         <v>1153</v>
       </c>
       <c r="B914" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C914" t="s">
-        <v>1167</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="915" spans="1:6">
@@ -17103,10 +17111,10 @@
         <v>1153</v>
       </c>
       <c r="B915" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="C915" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="916" spans="1:6">
@@ -17114,21 +17122,21 @@
         <v>1153</v>
       </c>
       <c r="B916" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="C916" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="917" spans="1:6">
       <c r="A917" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B917" t="s">
-        <v>1173</v>
+        <v>1167</v>
+      </c>
+      <c r="B917" s="2" t="s">
+        <v>1168</v>
       </c>
       <c r="C917" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="F917" t="s">
         <v>1154</v>
@@ -17136,13 +17144,13 @@
     </row>
     <row r="918" spans="1:6">
       <c r="A918" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B918" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="C918" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="F918" t="s">
         <v>1154</v>
@@ -17150,13 +17158,13 @@
     </row>
     <row r="919" spans="1:6">
       <c r="A919" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B919" t="s">
         <v>1172</v>
       </c>
-      <c r="B919" t="s">
-        <v>1177</v>
-      </c>
       <c r="C919" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="F919" t="s">
         <v>1154</v>
@@ -17164,125 +17172,125 @@
     </row>
     <row r="920" spans="1:6">
       <c r="A920" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B920" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="C920" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="F920" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="921" spans="1:6">
       <c r="A921" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B921" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="C921" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="F921" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="922" spans="1:6">
       <c r="A922" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B922" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="C922" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="F922" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="923" spans="1:6">
       <c r="A923" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B923" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="C923" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="F923" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="924" spans="1:6">
       <c r="A924" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B924" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="C924" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="F924" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="925" spans="1:6">
       <c r="A925" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B925" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="C925" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="F925" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="926" spans="1:6">
       <c r="A926" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B926" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="C926" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="F926" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="927" spans="1:6">
       <c r="A927" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B927" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="C927" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="F927" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="928" spans="1:6">
       <c r="A928" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B928" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="C928" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="F928" t="s">
         <v>1156</v>
@@ -17290,13 +17298,13 @@
     </row>
     <row r="929" spans="1:6">
       <c r="A929" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B929" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="C929" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="F929" t="s">
         <v>1156</v>
@@ -17304,13 +17312,13 @@
     </row>
     <row r="930" spans="1:6">
       <c r="A930" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B930" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="C930" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="F930" t="s">
         <v>1156</v>
@@ -17318,1334 +17326,1334 @@
     </row>
     <row r="931" spans="1:6">
       <c r="A931" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B931" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="C931" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="F931" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="932" spans="1:6">
       <c r="A932" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B932" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="C932" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="F932" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="933" spans="1:6">
       <c r="A933" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B933" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="C933" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="F933" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="934" spans="1:6">
       <c r="A934" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B934" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C934" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="F934" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="935" spans="1:6">
       <c r="A935" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B935" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="C935" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="F935" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="936" spans="1:6">
       <c r="A936" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B936" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C936" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="F936" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="937" spans="1:6">
       <c r="A937" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B937" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="C937" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="F937" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="938" spans="1:6">
       <c r="A938" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B938" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="C938" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="F938" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="939" spans="1:6">
       <c r="A939" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B939" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="C939" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="F939" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="940" spans="1:6">
       <c r="A940" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B940" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="C940" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="F940" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="941" spans="1:6">
       <c r="A941" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B941" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="C941" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="F941" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="942" spans="1:6">
       <c r="A942" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B942" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="C942" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="F942" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="943" spans="1:6">
       <c r="A943" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="B943" t="s">
         <v>7</v>
       </c>
       <c r="C943" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="944" spans="1:6">
       <c r="A944" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="B944" t="s">
         <v>9</v>
       </c>
       <c r="C944" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="945" spans="1:3">
       <c r="A945" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="B945" t="s">
         <v>7</v>
       </c>
       <c r="C945" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="946" spans="1:3">
       <c r="A946" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="B946" t="s">
         <v>9</v>
       </c>
       <c r="C946" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="947" spans="1:3">
       <c r="A947" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B947" t="s">
         <v>7</v>
       </c>
       <c r="C947" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="948" spans="1:3">
       <c r="A948" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B948" t="s">
         <v>9</v>
       </c>
       <c r="C948" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="949" spans="1:3">
       <c r="A949" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B949" t="s">
         <v>11</v>
       </c>
       <c r="C949" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="950" spans="1:3">
       <c r="A950" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B950" t="s">
         <v>39</v>
       </c>
       <c r="C950" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="951" spans="1:3">
       <c r="A951" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B951" t="s">
         <v>41</v>
       </c>
       <c r="C951" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="952" spans="1:3">
       <c r="A952" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B952" t="s">
         <v>43</v>
       </c>
       <c r="C952" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="953" spans="1:3">
       <c r="A953" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B953" t="s">
         <v>45</v>
       </c>
       <c r="C953" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="954" spans="1:3">
       <c r="A954" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="B954" t="s">
         <v>7</v>
       </c>
       <c r="C954" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="955" spans="1:3">
       <c r="A955" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="B955" t="s">
         <v>9</v>
       </c>
       <c r="C955" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="956" spans="1:3">
       <c r="A956" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="B956" t="s">
         <v>11</v>
       </c>
       <c r="C956" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="957" spans="1:3">
       <c r="A957" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="B957" t="s">
         <v>39</v>
       </c>
       <c r="C957" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="958" spans="1:3">
       <c r="A958" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="B958" t="s">
         <v>41</v>
       </c>
       <c r="C958" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="959" spans="1:3">
       <c r="A959" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="B959" t="s">
         <v>43</v>
       </c>
       <c r="C959" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="960" spans="1:3">
       <c r="A960" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="B960" t="s">
         <v>45</v>
       </c>
       <c r="C960" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="961" spans="1:3">
       <c r="A961" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="B961" t="s">
         <v>7</v>
       </c>
       <c r="C961" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="962" spans="1:3">
       <c r="A962" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="B962" t="s">
         <v>9</v>
       </c>
       <c r="C962" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="963" spans="1:3">
       <c r="A963" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B963" t="s">
         <v>7</v>
       </c>
       <c r="C963" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="964" spans="1:3">
       <c r="A964" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B964" t="s">
         <v>9</v>
       </c>
       <c r="C964" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="965" spans="1:3">
       <c r="A965" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B965" t="s">
         <v>11</v>
       </c>
       <c r="C965" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="966" spans="1:3">
       <c r="A966" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B966" t="s">
         <v>39</v>
       </c>
       <c r="C966" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="967" spans="1:3">
       <c r="A967" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B967" t="s">
         <v>41</v>
       </c>
       <c r="C967" t="s">
-        <v>1249</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="968" spans="1:3">
       <c r="A968" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B968" t="s">
         <v>43</v>
       </c>
       <c r="C968" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="969" spans="1:3">
       <c r="A969" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B969" t="s">
         <v>45</v>
       </c>
       <c r="C969" t="s">
-        <v>1251</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="970" spans="1:3">
       <c r="A970" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B970" t="s">
         <v>47</v>
       </c>
       <c r="C970" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="971" spans="1:3">
       <c r="A971" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B971" t="s">
         <v>49</v>
       </c>
       <c r="C971" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="972" spans="1:3">
       <c r="A972" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="B972" t="s">
         <v>7</v>
       </c>
       <c r="C972" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="973" spans="1:3">
       <c r="A973" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="B973" t="s">
         <v>9</v>
       </c>
       <c r="C973" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="974" spans="1:3">
       <c r="A974" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="B974" t="s">
         <v>11</v>
       </c>
       <c r="C974" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="975" spans="1:3">
       <c r="A975" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="B975" t="s">
         <v>39</v>
       </c>
       <c r="C975" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="976" spans="1:3">
       <c r="A976" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="B976" t="s">
         <v>41</v>
       </c>
       <c r="C976" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="977" spans="1:3">
       <c r="A977" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="B977" t="s">
         <v>43</v>
       </c>
       <c r="C977" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="978" spans="1:3">
       <c r="A978" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="B978" t="s">
         <v>45</v>
       </c>
       <c r="C978" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="979" spans="1:3">
       <c r="A979" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="B979" t="s">
         <v>47</v>
       </c>
       <c r="C979" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="980" spans="1:3">
       <c r="A980" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="B980" t="s">
         <v>7</v>
       </c>
       <c r="C980" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="981" spans="1:3">
       <c r="A981" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="B981" t="s">
         <v>9</v>
       </c>
       <c r="C981" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="982" spans="1:3">
       <c r="A982" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="B982" t="s">
         <v>7</v>
       </c>
       <c r="C982" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="983" spans="1:3">
       <c r="A983" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="B983" t="s">
         <v>9</v>
       </c>
       <c r="C983" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="984" spans="1:3">
       <c r="A984" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="B984" t="s">
         <v>11</v>
       </c>
       <c r="C984" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="985" spans="1:3">
       <c r="A985" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="B985" t="s">
         <v>39</v>
       </c>
       <c r="C985" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="986" spans="1:3">
       <c r="A986" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="B986" t="s">
         <v>7</v>
       </c>
       <c r="C986" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="987" spans="1:3">
       <c r="A987" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="B987" t="s">
         <v>9</v>
       </c>
       <c r="C987" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="988" spans="1:3">
       <c r="A988" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="B988" t="s">
         <v>11</v>
       </c>
       <c r="C988" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="989" spans="1:3">
       <c r="A989" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="B989" t="s">
         <v>39</v>
       </c>
       <c r="C989" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="990" spans="1:3">
       <c r="A990" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="B990" t="s">
         <v>41</v>
       </c>
       <c r="C990" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="991" spans="1:3">
       <c r="A991" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="B991" t="s">
         <v>43</v>
       </c>
       <c r="C991" t="s">
-        <v>1272</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="992" spans="1:3">
       <c r="A992" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="B992" t="s">
         <v>45</v>
       </c>
       <c r="C992" t="s">
-        <v>1273</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="993" spans="1:3">
       <c r="A993" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="B993" t="s">
         <v>47</v>
       </c>
       <c r="C993" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="994" spans="1:3">
       <c r="A994" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="B994" t="s">
         <v>49</v>
       </c>
       <c r="C994" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="995" spans="1:3">
       <c r="A995" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="B995" t="s">
         <v>7</v>
       </c>
       <c r="C995" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="996" spans="1:3">
       <c r="A996" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="B996" t="s">
         <v>9</v>
       </c>
       <c r="C996" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="997" spans="1:3">
       <c r="A997" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="B997" t="s">
         <v>7</v>
       </c>
       <c r="C997" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="998" spans="1:3">
       <c r="A998" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="B998" t="s">
         <v>9</v>
       </c>
       <c r="C998" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="999" spans="1:3">
       <c r="A999" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="B999" t="s">
         <v>7</v>
       </c>
       <c r="C999" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1000" spans="1:3">
       <c r="A1000" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="B1000" t="s">
         <v>9</v>
       </c>
       <c r="C1000" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
       <c r="A1001" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="B1001" t="s">
         <v>7</v>
       </c>
       <c r="C1001" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
       <c r="A1002" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="B1002" t="s">
         <v>9</v>
       </c>
       <c r="C1002" t="s">
-        <v>1281</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1003" spans="1:3">
       <c r="A1003" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="B1003" t="s">
         <v>11</v>
       </c>
       <c r="C1003" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1004" spans="1:3">
       <c r="A1004" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="B1004" t="s">
         <v>39</v>
       </c>
       <c r="C1004" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
       <c r="A1005" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="B1005" t="s">
         <v>41</v>
       </c>
       <c r="C1005" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1006" spans="1:3">
       <c r="A1006" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="B1006" t="s">
         <v>43</v>
       </c>
       <c r="C1006" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1007" spans="1:3">
       <c r="A1007" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="B1007" t="s">
         <v>45</v>
       </c>
       <c r="C1007" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1008" spans="1:3">
       <c r="A1008" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="B1008" t="s">
         <v>7</v>
       </c>
       <c r="C1008" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1009" spans="1:4">
       <c r="A1009" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="B1009" t="s">
         <v>9</v>
       </c>
       <c r="C1009" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1010" spans="1:4">
       <c r="A1010" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="B1010" t="s">
         <v>11</v>
       </c>
       <c r="C1010" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1011" spans="1:4">
       <c r="A1011" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="B1011" t="s">
         <v>39</v>
       </c>
       <c r="C1011" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1012" spans="1:4">
       <c r="A1012" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="B1012" t="s">
         <v>41</v>
       </c>
       <c r="C1012" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1013" spans="1:4">
       <c r="A1013" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="B1013" t="s">
         <v>7</v>
       </c>
       <c r="C1013" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="D1013" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1014" spans="1:4">
       <c r="A1014" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="B1014" t="s">
         <v>9</v>
       </c>
       <c r="C1014" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:4">
-      <c r="A1015" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B1015" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1015" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D1015" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:4">
-      <c r="A1016" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1016" t="s">
-        <v>1296</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
       <c r="A1017" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="B1017" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1017" t="s">
-        <v>1297</v>
+        <v>1286</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="1018" spans="1:4">
       <c r="A1018" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="B1018" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1018" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1019" spans="1:4">
       <c r="A1019" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="B1019" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C1019" t="s">
-        <v>1241</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1020" spans="1:4">
       <c r="A1020" t="s">
-        <v>1299</v>
+        <v>1285</v>
       </c>
       <c r="B1020" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C1020" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D1020" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1021" spans="1:4">
       <c r="A1021" t="s">
-        <v>1299</v>
+        <v>1285</v>
       </c>
       <c r="B1021" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C1021" t="s">
-        <v>1302</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1022" spans="1:4">
       <c r="A1022" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="B1022" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1022" t="s">
-        <v>1303</v>
+        <v>1291</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="1023" spans="1:4">
       <c r="A1023" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="B1023" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1023" t="s">
-        <v>1241</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1024" spans="1:4">
       <c r="A1024" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
       <c r="B1024" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1024" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1025" spans="1:3">
       <c r="A1025" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
       <c r="B1025" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C1025" t="s">
-        <v>1306</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1026" spans="1:3">
       <c r="A1026" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="B1026" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1026" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1027" spans="1:3">
       <c r="A1027" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="B1027" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C1027" t="s">
-        <v>1308</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1028" spans="1:3">
       <c r="A1028" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="B1028" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C1028" t="s">
-        <v>1309</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1029" spans="1:3">
       <c r="A1029" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="B1029" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1029" t="s">
-        <v>1241</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1030" spans="1:3">
       <c r="A1030" t="s">
-        <v>1310</v>
+        <v>1295</v>
       </c>
       <c r="B1030" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C1030" t="s">
-        <v>1231</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1031" spans="1:3">
       <c r="A1031" t="s">
-        <v>1310</v>
+        <v>1295</v>
       </c>
       <c r="B1031" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C1031" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1032" spans="1:3">
       <c r="A1032" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="B1032" t="s">
         <v>7</v>
       </c>
       <c r="C1032" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1033" spans="1:3">
       <c r="A1033" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="B1033" t="s">
         <v>9</v>
       </c>
       <c r="C1033" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1034" spans="1:3">
       <c r="A1034" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="B1034" t="s">
         <v>7</v>
       </c>
       <c r="C1034" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1035" spans="1:3">
       <c r="A1035" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="B1035" t="s">
         <v>9</v>
       </c>
       <c r="C1035" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1036" spans="1:3">
       <c r="A1036" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="B1036" t="s">
         <v>7</v>
       </c>
       <c r="C1036" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1037" spans="1:3">
       <c r="A1037" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="B1037" t="s">
         <v>9</v>
       </c>
       <c r="C1037" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1038" spans="1:3">
       <c r="A1038" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="B1038" t="s">
         <v>7</v>
       </c>
       <c r="C1038" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1039" spans="1:3">
       <c r="A1039" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="B1039" t="s">
         <v>9</v>
       </c>
       <c r="C1039" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1040" spans="1:3">
       <c r="A1040" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="B1040" t="s">
         <v>7</v>
       </c>
       <c r="C1040" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1041" spans="1:3">
       <c r="A1041" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="B1041" t="s">
         <v>9</v>
       </c>
       <c r="C1041" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1042" spans="1:3">
       <c r="A1042" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="B1042" t="s">
         <v>7</v>
       </c>
       <c r="C1042" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1043" spans="1:3">
       <c r="A1043" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="B1043" t="s">
         <v>9</v>
       </c>
       <c r="C1043" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1044" spans="1:3">
       <c r="A1044" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="B1044" t="s">
         <v>7</v>
       </c>
       <c r="C1044" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1045" spans="1:3">
       <c r="A1045" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="B1045" t="s">
         <v>9</v>
       </c>
       <c r="C1045" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1046" spans="1:3">
       <c r="A1046" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B1046">
-        <v>1</v>
+        <v>1308</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>7</v>
       </c>
       <c r="C1046" t="s">
-        <v>1319</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1047" spans="1:3">
       <c r="A1047" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B1047">
+        <v>1308</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3">
+      <c r="A1048" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1048">
+        <v>1</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3">
+      <c r="A1049" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1049">
         <v>2</v>
       </c>
-      <c r="C1047" t="s">
-        <v>1320</v>
+      <c r="C1049" t="s">
+        <v>1311</v>
       </c>
     </row>
   </sheetData>
@@ -18668,245 +18676,245 @@
   <sheetData>
     <row r="1" spans="1:9" ht="45">
       <c r="A1" s="1" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="45">
       <c r="A2" s="1" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="1" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" s="1" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="1" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="45">
       <c r="A6" s="1" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="1" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="30">
       <c r="A8" s="1" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="45">
       <c r="A9" s="1" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="30">
       <c r="A10" s="1" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="B10" s="1"/>
       <c r="I10" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45">
       <c r="A11" s="1" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="B11" s="1"/>
       <c r="I11" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30">
       <c r="A12" s="1" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="B12" s="1"/>
       <c r="I12" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30">
       <c r="A13" s="1" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="B13" s="1"/>
       <c r="I13" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45">
       <c r="A14" s="1" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="B14" s="1"/>
       <c r="I14" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
       <c r="A15" s="1" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="B15" s="1"/>
       <c r="I15" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60">
       <c r="A16" s="1" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="B16" s="1"/>
       <c r="I16" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45">
       <c r="A17" s="1" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="B17" s="1"/>
       <c r="I17" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="45">
       <c r="A18" s="1" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="B18" s="1"/>
       <c r="I18" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30">
       <c r="A19" s="1" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
       <c r="B19" s="1"/>
       <c r="I19" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
       <c r="A20" s="1" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="B20" s="1"/>
       <c r="I20" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="1" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="B21" s="1"/>
       <c r="I21" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30">
       <c r="A22" s="1" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
       <c r="B22" s="1"/>
       <c r="I22" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="45">
       <c r="A23" s="1" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="B23" s="1"/>
       <c r="I23" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="I24" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="I25" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="I26" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="I27" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="I28" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="I29" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="I30" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="I31" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="I32" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
     </row>
   </sheetData>

--- a/Choices.xlsx
+++ b/Choices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70453901-4C33-4AC5-AB78-8EB291FF3130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642704AD-8999-482C-8040-597B6BF8529E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="1189">
   <si>
     <t>list_name</t>
   </si>
@@ -3588,6 +3588,9 @@
   </si>
   <si>
     <t>PRAEER - Etapa 3 (5ª e 6ª)</t>
+  </si>
+  <si>
+    <t>outras_infraestrutura</t>
   </si>
 </sst>
 </file>
@@ -3940,10 +3943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F883"/>
+  <dimension ref="A1:F884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A874" workbookViewId="0">
+      <selection activeCell="A884" sqref="A884:C884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -15875,6 +15878,17 @@
       </c>
       <c r="C883" t="s">
         <v>1150</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3">
+      <c r="A884" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B884">
+        <v>1</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
